--- a/Pranav.xlsx
+++ b/Pranav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shipping_erp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C9BF3F-ADCB-49C4-A12B-DF1EF920C6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680552C6-2EA1-4562-96CB-D475A55F3704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="531">
   <si>
     <t xml:space="preserve">401/402 Raheja Plaza, 15/B Shah Industrial Estate, Off Andheri Link Road, Andheri (West), Mumbai 400 053. Maharashtra. India. </t>
   </si>
@@ -161,16 +161,10 @@
     <t>Passport</t>
   </si>
   <si>
-    <t>212324</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
     <t>US Visa C1/D</t>
-  </si>
-  <si>
-    <t>4324324</t>
   </si>
   <si>
     <t xml:space="preserve">MUI 
@@ -180,9 +174,6 @@
     <t>US Visa B1/B2</t>
   </si>
   <si>
-    <t>4234234</t>
-  </si>
-  <si>
     <t>Australian MCV</t>
   </si>
   <si>
@@ -216,9 +207,6 @@
     <t>Grade</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>UK</t>
   </si>
   <si>
@@ -481,9 +469,6 @@
   </si>
   <si>
     <t>Global Maritime Distress and Safety System (GMDSS)</t>
-  </si>
-  <si>
-    <t>Refresher Training For Advance Fire Fighting (AFF(R))</t>
   </si>
   <si>
     <t>Dangerous Cargo Endorsements</t>
@@ -1597,9 +1582,6 @@
     <t>US</t>
   </si>
   <si>
-    <t>Vrushali Tiwari</t>
-  </si>
-  <si>
     <t>Married</t>
   </si>
   <si>
@@ -1651,13 +1633,22 @@
     <t>Relation</t>
   </si>
   <si>
-    <t>some remarks</t>
-  </si>
-  <si>
-    <t>Tanishka Tiwari</t>
-  </si>
-  <si>
-    <t>Shamika Tiwari</t>
+    <t>A32432421</t>
+  </si>
+  <si>
+    <t>B432423424</t>
+  </si>
+  <si>
+    <t>Inst A</t>
+  </si>
+  <si>
+    <t>Inst B</t>
+  </si>
+  <si>
+    <t>Refresher Training For Advance Fire Fighting (AFFR)</t>
+  </si>
+  <si>
+    <t>Sharon EHS</t>
   </si>
   <si>
     <t>Pranav</t>
@@ -1669,22 +1660,61 @@
     <t>Gangani</t>
   </si>
   <si>
-    <t>C1/603 Swastik Residency</t>
-  </si>
-  <si>
-    <t>Newspaper</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>Reference</t>
+    <t>505 Parshwanath Galaxy, Kasarvadavali</t>
+  </si>
+  <si>
+    <t>C1-603 Swastik Resindency, Kavesar</t>
+  </si>
+  <si>
+    <t>AB43MA</t>
+  </si>
+  <si>
+    <t>A84F89A</t>
+  </si>
+  <si>
+    <t>NKG830HK</t>
+  </si>
+  <si>
+    <t>AKDA02</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>some remarks 2</t>
+  </si>
+  <si>
+    <t>Sonal Gangani</t>
+  </si>
+  <si>
+    <t>Varsha Gangani</t>
+  </si>
+  <si>
+    <t>795345</t>
+  </si>
+  <si>
+    <t>04652</t>
+  </si>
+  <si>
+    <t>5435</t>
+  </si>
+  <si>
+    <t>345435</t>
+  </si>
+  <si>
+    <t>Inst D</t>
+  </si>
+  <si>
+    <t>Inst C</t>
+  </si>
+  <si>
+    <t>Somaiya College</t>
+  </si>
+  <si>
+    <t>Globeop</t>
+  </si>
+  <si>
+    <t>Vessel AA</t>
   </si>
 </sst>
 </file>
@@ -1920,7 +1950,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -2335,6 +2365,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -2342,7 +2392,95 @@
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2352,7 +2490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2493,9 +2631,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2560,22 +2695,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2690,6 +2809,33 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2763,9 +2909,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2819,6 +2962,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2847,26 +3020,10 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2882,6 +3039,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2908,32 +3088,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2949,31 +3103,69 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2988,54 +3180,26 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3071,6 +3235,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3095,58 +3263,58 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3191,6 +3359,49 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3200,49 +3411,20 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3251,43 +3433,39 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3529,6 +3707,7 @@
       <sheetName val="Sheet1"/>
       <sheetName val="Page 3"/>
       <sheetName val="Page 4"/>
+      <sheetName val="New_Hires2"/>
     </sheetNames>
     <definedNames>
       <definedName name="Macro2"/>
@@ -3540,6 +3719,7 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3810,8 +3990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD7EDC8-E30E-4611-A81B-52DA85E83C43}">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31:T31"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3836,12 +4016,12 @@
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
       <c r="P1" s="23"/>
-      <c r="Q1" s="111" t="s">
+      <c r="Q1" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="113"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="115"/>
     </row>
     <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="25"/>
@@ -3859,10 +4039,10 @@
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
       <c r="P2" s="27"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="118"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B3" s="28" t="s">
@@ -3882,10 +4062,10 @@
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="30"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="118"/>
     </row>
     <row r="4" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="28"/>
@@ -3897,7 +4077,7 @@
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
@@ -3905,171 +4085,171 @@
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
       <c r="P4" s="30"/>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="118"/>
     </row>
     <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="120" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="119"/>
+      <c r="B5" s="122" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="121"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="123" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
+      <c r="B6" s="125" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="127"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="128"/>
+      <c r="P7" s="128"/>
+      <c r="Q7" s="128"/>
+      <c r="R7" s="128"/>
+      <c r="S7" s="128"/>
+      <c r="T7" s="129"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="127"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="128"/>
+      <c r="P8" s="128"/>
+      <c r="Q8" s="128"/>
+      <c r="R8" s="128"/>
+      <c r="S8" s="128"/>
+      <c r="T8" s="129"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="128" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="129"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="129"/>
-      <c r="Q9" s="129"/>
-      <c r="R9" s="129"/>
-      <c r="S9" s="129"/>
-      <c r="T9" s="129"/>
+      <c r="B9" s="130" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="131"/>
+      <c r="M9" s="131"/>
+      <c r="N9" s="131"/>
+      <c r="O9" s="131"/>
+      <c r="P9" s="131"/>
+      <c r="Q9" s="131"/>
+      <c r="R9" s="131"/>
+      <c r="S9" s="131"/>
+      <c r="T9" s="131"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143"/>
-      <c r="N10" s="143"/>
-      <c r="O10" s="143"/>
-      <c r="P10" s="143"/>
-      <c r="Q10" s="143"/>
-      <c r="R10" s="143"/>
-      <c r="S10" s="143"/>
-      <c r="T10" s="144"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="144"/>
+      <c r="O10" s="144"/>
+      <c r="P10" s="144"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="144"/>
+      <c r="S10" s="144"/>
+      <c r="T10" s="145"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="145" t="s">
-        <v>487</v>
-      </c>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="146"/>
-      <c r="M11" s="146"/>
-      <c r="N11" s="146"/>
-      <c r="O11" s="146"/>
-      <c r="P11" s="146"/>
-      <c r="Q11" s="146"/>
-      <c r="R11" s="146"/>
-      <c r="S11" s="146"/>
-      <c r="T11" s="147"/>
+      <c r="B11" s="146" t="s">
+        <v>482</v>
+      </c>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="147"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="147"/>
+      <c r="M11" s="147"/>
+      <c r="N11" s="147"/>
+      <c r="O11" s="147"/>
+      <c r="P11" s="147"/>
+      <c r="Q11" s="147"/>
+      <c r="R11" s="147"/>
+      <c r="S11" s="147"/>
+      <c r="T11" s="148"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
@@ -4106,72 +4286,72 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="148" t="s">
+      <c r="M13" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="N13" s="148"/>
-      <c r="O13" s="148"/>
-      <c r="P13" s="148"/>
-      <c r="Q13" s="148"/>
-      <c r="R13" s="148"/>
-      <c r="S13" s="148"/>
-      <c r="T13" s="149"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="149"/>
+      <c r="P13" s="149"/>
+      <c r="Q13" s="149"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="149"/>
+      <c r="T13" s="150"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="150" t="s">
+      <c r="B14" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="134" t="s">
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="134"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="134"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="137" t="s">
-        <v>512</v>
-      </c>
-      <c r="N14" s="137"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="137"/>
-      <c r="R14" s="137"/>
-      <c r="S14" s="137"/>
-      <c r="T14" s="138"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="138" t="s">
+        <v>509</v>
+      </c>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="138"/>
+      <c r="Q14" s="138"/>
+      <c r="R14" s="138"/>
+      <c r="S14" s="138"/>
+      <c r="T14" s="139"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="139" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="134" t="s">
+      <c r="B15" s="140" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="137" t="s">
-        <v>513</v>
-      </c>
-      <c r="N15" s="137"/>
-      <c r="O15" s="137"/>
-      <c r="P15" s="137"/>
-      <c r="Q15" s="137"/>
-      <c r="R15" s="137"/>
-      <c r="S15" s="137"/>
-      <c r="T15" s="138"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="138" t="s">
+        <v>510</v>
+      </c>
+      <c r="N15" s="138"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="138"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="138"/>
+      <c r="S15" s="138"/>
+      <c r="T15" s="139"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
@@ -4181,34 +4361,34 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="134" t="s">
+      <c r="H16" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="137" t="s">
-        <v>514</v>
-      </c>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="137"/>
-      <c r="R16" s="137"/>
-      <c r="S16" s="137"/>
-      <c r="T16" s="138"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="138" t="s">
+        <v>511</v>
+      </c>
+      <c r="N16" s="138"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="138"/>
+      <c r="Q16" s="138"/>
+      <c r="R16" s="138"/>
+      <c r="S16" s="138"/>
+      <c r="T16" s="139"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="150" t="s">
+      <c r="B17" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="136"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="137"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -4225,31 +4405,31 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="139" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="134" t="s">
+      <c r="B18" s="140" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="134"/>
-      <c r="J18" s="134"/>
-      <c r="K18" s="134"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="151" t="s">
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="151"/>
-      <c r="Q18" s="151"/>
-      <c r="R18" s="151"/>
-      <c r="S18" s="151"/>
-      <c r="T18" s="152"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="161"/>
+      <c r="Q18" s="161"/>
+      <c r="R18" s="161"/>
+      <c r="S18" s="161"/>
+      <c r="T18" s="162"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -4259,75 +4439,75 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="156" t="s">
+      <c r="H19" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="134"/>
-      <c r="J19" s="134"/>
-      <c r="K19" s="134"/>
-      <c r="L19" s="134"/>
-      <c r="M19" s="157">
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="167">
         <v>31251</v>
       </c>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-      <c r="P19" s="157"/>
-      <c r="Q19" s="157"/>
-      <c r="R19" s="157"/>
-      <c r="S19" s="157"/>
-      <c r="T19" s="158"/>
+      <c r="N19" s="167"/>
+      <c r="O19" s="167"/>
+      <c r="P19" s="167"/>
+      <c r="Q19" s="167"/>
+      <c r="R19" s="167"/>
+      <c r="S19" s="167"/>
+      <c r="T19" s="168"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="153" t="s">
+      <c r="B20" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="154"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="134" t="s">
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="134"/>
-      <c r="J20" s="134"/>
-      <c r="K20" s="134"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="137" t="s">
-        <v>293</v>
-      </c>
-      <c r="N20" s="137"/>
-      <c r="O20" s="137"/>
-      <c r="P20" s="137"/>
-      <c r="Q20" s="137"/>
-      <c r="R20" s="137"/>
-      <c r="S20" s="137"/>
-      <c r="T20" s="138"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="138" t="s">
+        <v>288</v>
+      </c>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="138"/>
+      <c r="Q20" s="138"/>
+      <c r="R20" s="138"/>
+      <c r="S20" s="138"/>
+      <c r="T20" s="139"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="131">
-        <v>44682</v>
-      </c>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="134"/>
-      <c r="K21" s="134"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="135"/>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="135"/>
-      <c r="R21" s="135"/>
-      <c r="S21" s="135"/>
-      <c r="T21" s="136"/>
+      <c r="B21" s="133">
+        <v>44661</v>
+      </c>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="136"/>
+      <c r="Q21" s="136"/>
+      <c r="R21" s="136"/>
+      <c r="S21" s="136"/>
+      <c r="T21" s="137"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
@@ -4375,171 +4555,171 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
-      <c r="B24" s="164" t="s">
+      <c r="B24" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="165"/>
-      <c r="D24" s="165"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="165"/>
-      <c r="G24" s="165"/>
-      <c r="H24" s="165"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="165"/>
-      <c r="K24" s="165"/>
-      <c r="L24" s="164" t="s">
+      <c r="C24" s="171"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="171"/>
+      <c r="K24" s="171"/>
+      <c r="L24" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="165"/>
-      <c r="N24" s="165"/>
-      <c r="O24" s="165"/>
-      <c r="P24" s="165"/>
-      <c r="Q24" s="166"/>
-      <c r="R24" s="166"/>
-      <c r="S24" s="167"/>
-      <c r="T24" s="168"/>
+      <c r="M24" s="171"/>
+      <c r="N24" s="171"/>
+      <c r="O24" s="171"/>
+      <c r="P24" s="171"/>
+      <c r="Q24" s="172"/>
+      <c r="R24" s="172"/>
+      <c r="S24" s="173"/>
+      <c r="T24" s="174"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
-      <c r="B25" s="159" t="s">
-        <v>515</v>
-      </c>
-      <c r="C25" s="160"/>
-      <c r="D25" s="160"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="160"/>
+      <c r="B25" s="111" t="s">
+        <v>512</v>
+      </c>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="112"/>
       <c r="K25" s="32"/>
-      <c r="L25" s="159" t="s">
-        <v>515</v>
-      </c>
-      <c r="M25" s="160"/>
-      <c r="N25" s="160"/>
-      <c r="O25" s="160"/>
-      <c r="P25" s="160"/>
-      <c r="Q25" s="160"/>
-      <c r="R25" s="160"/>
-      <c r="S25" s="160"/>
-      <c r="T25" s="160"/>
+      <c r="L25" s="111" t="s">
+        <v>513</v>
+      </c>
+      <c r="M25" s="112"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="112"/>
+      <c r="T25" s="112"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
-      <c r="B26" s="159" t="s">
+      <c r="B26" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="160"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
       <c r="K26" s="32"/>
-      <c r="L26" s="159" t="s">
+      <c r="L26" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="M26" s="160"/>
-      <c r="N26" s="160"/>
-      <c r="O26" s="160"/>
-      <c r="P26" s="160"/>
-      <c r="Q26" s="160"/>
-      <c r="R26" s="160"/>
-      <c r="S26" s="160"/>
-      <c r="T26" s="160"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="112"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
-      <c r="B27" s="161" t="s">
+      <c r="B27" s="297" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="162"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="162"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
       <c r="G27" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="163">
+      <c r="H27" s="154">
         <v>400615</v>
       </c>
-      <c r="I27" s="163"/>
-      <c r="J27" s="163"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
       <c r="K27" s="32"/>
-      <c r="L27" s="161" t="s">
+      <c r="L27" s="297" t="s">
         <v>19</v>
       </c>
-      <c r="M27" s="162"/>
-      <c r="N27" s="162"/>
-      <c r="O27" s="162"/>
-      <c r="P27" s="162"/>
+      <c r="M27" s="154"/>
+      <c r="N27" s="154"/>
+      <c r="O27" s="154"/>
+      <c r="P27" s="154"/>
       <c r="Q27" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="R27" s="130">
+      <c r="R27" s="132">
         <v>400615</v>
       </c>
-      <c r="S27" s="130"/>
-      <c r="T27" s="130"/>
+      <c r="S27" s="132"/>
+      <c r="T27" s="132"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
-      <c r="B28" s="177" t="s">
+      <c r="B28" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="178"/>
-      <c r="D28" s="160">
+      <c r="C28" s="153"/>
+      <c r="D28" s="112">
         <v>9930950199</v>
       </c>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="163"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
       <c r="K28" s="32"/>
-      <c r="L28" s="179" t="s">
+      <c r="L28" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="M28" s="180"/>
-      <c r="N28" s="163"/>
-      <c r="O28" s="163"/>
-      <c r="P28" s="163"/>
-      <c r="Q28" s="163"/>
-      <c r="R28" s="163"/>
-      <c r="S28" s="163"/>
-      <c r="T28" s="181"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="154"/>
+      <c r="O28" s="154"/>
+      <c r="P28" s="154"/>
+      <c r="Q28" s="154"/>
+      <c r="R28" s="154"/>
+      <c r="S28" s="154"/>
+      <c r="T28" s="157"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
-      <c r="B29" s="182" t="s">
+      <c r="B29" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="183"/>
-      <c r="D29" s="160" t="s">
+      <c r="C29" s="159"/>
+      <c r="D29" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="160"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="112"/>
       <c r="K29" s="34"/>
-      <c r="L29" s="182" t="s">
+      <c r="L29" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="183"/>
-      <c r="N29" s="160"/>
-      <c r="O29" s="160"/>
-      <c r="P29" s="160"/>
-      <c r="Q29" s="160"/>
-      <c r="R29" s="160"/>
-      <c r="S29" s="160"/>
-      <c r="T29" s="184"/>
+      <c r="M29" s="159"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="112"/>
+      <c r="R29" s="112"/>
+      <c r="S29" s="112"/>
+      <c r="T29" s="160"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
@@ -4565,29 +4745,27 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
-      <c r="B31" s="169" t="s">
-        <v>489</v>
-      </c>
-      <c r="C31" s="170"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="171" t="s">
-        <v>516</v>
-      </c>
-      <c r="K31" s="171"/>
-      <c r="L31" s="171"/>
-      <c r="M31" s="171"/>
-      <c r="N31" s="171"/>
-      <c r="O31" s="171"/>
-      <c r="P31" s="171"/>
-      <c r="Q31" s="171"/>
-      <c r="R31" s="171"/>
-      <c r="S31" s="171"/>
-      <c r="T31" s="172"/>
+      <c r="B31" s="181" t="s">
+        <v>484</v>
+      </c>
+      <c r="C31" s="182"/>
+      <c r="D31" s="182"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="182"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="182"/>
+      <c r="I31" s="182"/>
+      <c r="J31" s="183"/>
+      <c r="K31" s="183"/>
+      <c r="L31" s="183"/>
+      <c r="M31" s="183"/>
+      <c r="N31" s="183"/>
+      <c r="O31" s="183"/>
+      <c r="P31" s="183"/>
+      <c r="Q31" s="183"/>
+      <c r="R31" s="183"/>
+      <c r="S31" s="183"/>
+      <c r="T31" s="184"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
@@ -4613,159 +4791,159 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
-      <c r="B33" s="173"/>
-      <c r="C33" s="173"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="174" t="s">
+      <c r="B33" s="185"/>
+      <c r="C33" s="185"/>
+      <c r="D33" s="185"/>
+      <c r="E33" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="175"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="174" t="s">
+      <c r="F33" s="187"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="186" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="175"/>
-      <c r="J33" s="175"/>
-      <c r="K33" s="176"/>
-      <c r="L33" s="174" t="s">
+      <c r="I33" s="187"/>
+      <c r="J33" s="187"/>
+      <c r="K33" s="188"/>
+      <c r="L33" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="M33" s="175"/>
-      <c r="N33" s="175"/>
-      <c r="O33" s="174" t="s">
+      <c r="M33" s="187"/>
+      <c r="N33" s="187"/>
+      <c r="O33" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="P33" s="175"/>
-      <c r="Q33" s="176"/>
-      <c r="R33" s="174" t="s">
+      <c r="P33" s="187"/>
+      <c r="Q33" s="188"/>
+      <c r="R33" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="S33" s="175"/>
+      <c r="S33" s="187"/>
       <c r="T33" s="36" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
-      <c r="B34" s="190" t="s">
+      <c r="B34" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="190"/>
-      <c r="D34" s="190"/>
-      <c r="E34" s="191" t="s">
+      <c r="C34" s="175"/>
+      <c r="D34" s="175"/>
+      <c r="E34" s="176" t="s">
+        <v>514</v>
+      </c>
+      <c r="F34" s="176"/>
+      <c r="G34" s="176"/>
+      <c r="H34" s="177">
+        <v>41295</v>
+      </c>
+      <c r="I34" s="177"/>
+      <c r="J34" s="177"/>
+      <c r="K34" s="177"/>
+      <c r="L34" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="191"/>
-      <c r="G34" s="191"/>
-      <c r="H34" s="192">
-        <v>40199</v>
-      </c>
-      <c r="I34" s="192"/>
-      <c r="J34" s="192"/>
-      <c r="K34" s="192"/>
-      <c r="L34" s="193" t="s">
-        <v>33</v>
-      </c>
-      <c r="M34" s="193"/>
-      <c r="N34" s="193"/>
-      <c r="O34" s="192">
-        <v>43851</v>
-      </c>
-      <c r="P34" s="192"/>
-      <c r="Q34" s="192"/>
-      <c r="R34" s="194"/>
-      <c r="S34" s="195"/>
-      <c r="T34" s="110"/>
+      <c r="M34" s="178"/>
+      <c r="N34" s="178"/>
+      <c r="O34" s="177">
+        <v>44947</v>
+      </c>
+      <c r="P34" s="177"/>
+      <c r="Q34" s="177"/>
+      <c r="R34" s="179"/>
+      <c r="S34" s="180"/>
+      <c r="T34" s="105"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
-      <c r="B35" s="190" t="s">
+      <c r="B35" s="175" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="175"/>
+      <c r="D35" s="175"/>
+      <c r="E35" s="176" t="s">
+        <v>515</v>
+      </c>
+      <c r="F35" s="176"/>
+      <c r="G35" s="176"/>
+      <c r="H35" s="177">
+        <v>41660</v>
+      </c>
+      <c r="I35" s="177"/>
+      <c r="J35" s="177"/>
+      <c r="K35" s="177"/>
+      <c r="L35" s="178" t="s">
+        <v>485</v>
+      </c>
+      <c r="M35" s="178"/>
+      <c r="N35" s="178"/>
+      <c r="O35" s="177">
+        <v>44217</v>
+      </c>
+      <c r="P35" s="177"/>
+      <c r="Q35" s="177"/>
+      <c r="R35" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="190"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="191" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="191"/>
-      <c r="G35" s="191"/>
-      <c r="H35" s="192">
-        <v>40199</v>
-      </c>
-      <c r="I35" s="192"/>
-      <c r="J35" s="192"/>
-      <c r="K35" s="192"/>
-      <c r="L35" s="193" t="s">
-        <v>490</v>
-      </c>
-      <c r="M35" s="193"/>
-      <c r="N35" s="193"/>
-      <c r="O35" s="192">
-        <v>43851</v>
-      </c>
-      <c r="P35" s="192"/>
-      <c r="Q35" s="192"/>
-      <c r="R35" s="185" t="s">
-        <v>36</v>
-      </c>
-      <c r="S35" s="186"/>
-      <c r="T35" s="187"/>
+      <c r="S35" s="190"/>
+      <c r="T35" s="191"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="31"/>
-      <c r="B36" s="190" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="190"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="191" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="191"/>
-      <c r="G36" s="191"/>
-      <c r="H36" s="192">
-        <v>40199</v>
-      </c>
-      <c r="I36" s="192"/>
-      <c r="J36" s="192"/>
-      <c r="K36" s="192"/>
-      <c r="L36" s="193" t="s">
-        <v>490</v>
-      </c>
-      <c r="M36" s="193"/>
-      <c r="N36" s="193"/>
-      <c r="O36" s="192">
+      <c r="B36" s="175" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="175"/>
+      <c r="D36" s="175"/>
+      <c r="E36" s="176" t="s">
+        <v>516</v>
+      </c>
+      <c r="F36" s="176"/>
+      <c r="G36" s="176"/>
+      <c r="H36" s="177">
+        <v>42025</v>
+      </c>
+      <c r="I36" s="177"/>
+      <c r="J36" s="177"/>
+      <c r="K36" s="177"/>
+      <c r="L36" s="178" t="s">
+        <v>485</v>
+      </c>
+      <c r="M36" s="178"/>
+      <c r="N36" s="178"/>
+      <c r="O36" s="177">
         <v>43851</v>
       </c>
-      <c r="P36" s="192"/>
-      <c r="Q36" s="192"/>
-      <c r="R36" s="188"/>
-      <c r="S36" s="188"/>
-      <c r="T36" s="189"/>
+      <c r="P36" s="177"/>
+      <c r="Q36" s="177"/>
+      <c r="R36" s="192"/>
+      <c r="S36" s="192"/>
+      <c r="T36" s="193"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
-      <c r="B37" s="190" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="190"/>
-      <c r="D37" s="190"/>
-      <c r="E37" s="196"/>
-      <c r="F37" s="196"/>
-      <c r="G37" s="196"/>
-      <c r="H37" s="192"/>
-      <c r="I37" s="192"/>
-      <c r="J37" s="192"/>
-      <c r="K37" s="192"/>
-      <c r="L37" s="193"/>
-      <c r="M37" s="193"/>
-      <c r="N37" s="193"/>
-      <c r="O37" s="192"/>
-      <c r="P37" s="192"/>
-      <c r="Q37" s="192"/>
-      <c r="R37" s="209"/>
-      <c r="S37" s="209"/>
-      <c r="T37" s="209"/>
+      <c r="B37" s="175" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="175"/>
+      <c r="D37" s="175"/>
+      <c r="E37" s="198"/>
+      <c r="F37" s="198"/>
+      <c r="G37" s="198"/>
+      <c r="H37" s="177"/>
+      <c r="I37" s="177"/>
+      <c r="J37" s="177"/>
+      <c r="K37" s="177"/>
+      <c r="L37" s="178"/>
+      <c r="M37" s="178"/>
+      <c r="N37" s="178"/>
+      <c r="O37" s="177"/>
+      <c r="P37" s="177"/>
+      <c r="Q37" s="177"/>
+      <c r="R37" s="194"/>
+      <c r="S37" s="194"/>
+      <c r="T37" s="194"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
@@ -4791,191 +4969,191 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
-      <c r="B39" s="210" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="211"/>
-      <c r="D39" s="212"/>
-      <c r="E39" s="174" t="s">
+      <c r="B39" s="195" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="196"/>
+      <c r="D39" s="197"/>
+      <c r="E39" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="175"/>
-      <c r="G39" s="176"/>
-      <c r="H39" s="174" t="s">
+      <c r="F39" s="187"/>
+      <c r="G39" s="188"/>
+      <c r="H39" s="186" t="s">
         <v>26</v>
       </c>
-      <c r="I39" s="175"/>
-      <c r="J39" s="175"/>
-      <c r="K39" s="176"/>
-      <c r="L39" s="174" t="s">
+      <c r="I39" s="187"/>
+      <c r="J39" s="187"/>
+      <c r="K39" s="188"/>
+      <c r="L39" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="M39" s="175"/>
-      <c r="N39" s="176"/>
-      <c r="O39" s="174" t="s">
+      <c r="M39" s="187"/>
+      <c r="N39" s="188"/>
+      <c r="O39" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="P39" s="175"/>
-      <c r="Q39" s="176"/>
-      <c r="R39" s="174" t="s">
-        <v>41</v>
-      </c>
-      <c r="S39" s="175"/>
-      <c r="T39" s="176"/>
+      <c r="P39" s="187"/>
+      <c r="Q39" s="188"/>
+      <c r="R39" s="186" t="s">
+        <v>38</v>
+      </c>
+      <c r="S39" s="187"/>
+      <c r="T39" s="188"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="31"/>
-      <c r="B40" s="190" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="190"/>
-      <c r="D40" s="190"/>
-      <c r="E40" s="197">
-        <v>4324324</v>
-      </c>
-      <c r="F40" s="198"/>
-      <c r="G40" s="199"/>
-      <c r="H40" s="200">
-        <v>40199</v>
-      </c>
-      <c r="I40" s="201"/>
-      <c r="J40" s="201"/>
-      <c r="K40" s="202"/>
-      <c r="L40" s="203" t="s">
-        <v>33</v>
-      </c>
-      <c r="M40" s="204"/>
-      <c r="N40" s="205"/>
-      <c r="O40" s="206">
-        <v>43851</v>
-      </c>
-      <c r="P40" s="207"/>
-      <c r="Q40" s="208"/>
-      <c r="R40" s="197" t="s">
-        <v>509</v>
-      </c>
-      <c r="S40" s="198"/>
-      <c r="T40" s="199"/>
+      <c r="B40" s="175" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="175"/>
+      <c r="D40" s="175"/>
+      <c r="E40" s="199" t="s">
+        <v>517</v>
+      </c>
+      <c r="F40" s="200"/>
+      <c r="G40" s="201"/>
+      <c r="H40" s="202">
+        <v>41295</v>
+      </c>
+      <c r="I40" s="203"/>
+      <c r="J40" s="203"/>
+      <c r="K40" s="204"/>
+      <c r="L40" s="205" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" s="206"/>
+      <c r="N40" s="207"/>
+      <c r="O40" s="208">
+        <v>44947</v>
+      </c>
+      <c r="P40" s="209"/>
+      <c r="Q40" s="210"/>
+      <c r="R40" s="211" t="s">
+        <v>519</v>
+      </c>
+      <c r="S40" s="212"/>
+      <c r="T40" s="213"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="31"/>
-      <c r="B41" s="190" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="190"/>
-      <c r="D41" s="190"/>
-      <c r="E41" s="197"/>
-      <c r="F41" s="198"/>
-      <c r="G41" s="199"/>
-      <c r="H41" s="200"/>
-      <c r="I41" s="201"/>
-      <c r="J41" s="201"/>
-      <c r="K41" s="202"/>
-      <c r="L41" s="203"/>
-      <c r="M41" s="204"/>
-      <c r="N41" s="205"/>
-      <c r="O41" s="206"/>
-      <c r="P41" s="207"/>
-      <c r="Q41" s="208"/>
-      <c r="R41" s="197"/>
-      <c r="S41" s="198"/>
-      <c r="T41" s="199"/>
+      <c r="B41" s="175" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="175"/>
+      <c r="D41" s="175"/>
+      <c r="E41" s="199"/>
+      <c r="F41" s="200"/>
+      <c r="G41" s="201"/>
+      <c r="H41" s="202"/>
+      <c r="I41" s="203"/>
+      <c r="J41" s="203"/>
+      <c r="K41" s="204"/>
+      <c r="L41" s="205"/>
+      <c r="M41" s="206"/>
+      <c r="N41" s="207"/>
+      <c r="O41" s="208"/>
+      <c r="P41" s="209"/>
+      <c r="Q41" s="210"/>
+      <c r="R41" s="211"/>
+      <c r="S41" s="212"/>
+      <c r="T41" s="213"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
-      <c r="B42" s="190" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="197"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="199"/>
-      <c r="H42" s="200"/>
-      <c r="I42" s="201"/>
-      <c r="J42" s="201"/>
-      <c r="K42" s="202"/>
-      <c r="L42" s="203"/>
-      <c r="M42" s="204"/>
-      <c r="N42" s="205"/>
-      <c r="O42" s="206"/>
-      <c r="P42" s="207"/>
-      <c r="Q42" s="208"/>
-      <c r="R42" s="197"/>
-      <c r="S42" s="198"/>
-      <c r="T42" s="199"/>
+      <c r="B42" s="175" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="175"/>
+      <c r="D42" s="175"/>
+      <c r="E42" s="199"/>
+      <c r="F42" s="200"/>
+      <c r="G42" s="201"/>
+      <c r="H42" s="202"/>
+      <c r="I42" s="203"/>
+      <c r="J42" s="203"/>
+      <c r="K42" s="204"/>
+      <c r="L42" s="205"/>
+      <c r="M42" s="206"/>
+      <c r="N42" s="207"/>
+      <c r="O42" s="208"/>
+      <c r="P42" s="209"/>
+      <c r="Q42" s="210"/>
+      <c r="R42" s="211"/>
+      <c r="S42" s="212"/>
+      <c r="T42" s="213"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="31"/>
-      <c r="B43" s="190" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="190"/>
-      <c r="D43" s="190"/>
-      <c r="E43" s="197"/>
-      <c r="F43" s="198"/>
-      <c r="G43" s="199"/>
-      <c r="H43" s="200"/>
-      <c r="I43" s="201"/>
-      <c r="J43" s="201"/>
-      <c r="K43" s="202"/>
-      <c r="L43" s="203"/>
-      <c r="M43" s="204"/>
-      <c r="N43" s="205"/>
-      <c r="O43" s="206"/>
-      <c r="P43" s="207"/>
-      <c r="Q43" s="208"/>
-      <c r="R43" s="197"/>
-      <c r="S43" s="198"/>
-      <c r="T43" s="199"/>
+      <c r="B43" s="175" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="175"/>
+      <c r="D43" s="175"/>
+      <c r="E43" s="199"/>
+      <c r="F43" s="200"/>
+      <c r="G43" s="201"/>
+      <c r="H43" s="202"/>
+      <c r="I43" s="203"/>
+      <c r="J43" s="203"/>
+      <c r="K43" s="204"/>
+      <c r="L43" s="205"/>
+      <c r="M43" s="206"/>
+      <c r="N43" s="207"/>
+      <c r="O43" s="208"/>
+      <c r="P43" s="209"/>
+      <c r="Q43" s="210"/>
+      <c r="R43" s="211"/>
+      <c r="S43" s="212"/>
+      <c r="T43" s="213"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
-      <c r="B44" s="190" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="190"/>
-      <c r="D44" s="190"/>
-      <c r="E44" s="197"/>
-      <c r="F44" s="198"/>
-      <c r="G44" s="199"/>
-      <c r="H44" s="200"/>
-      <c r="I44" s="201"/>
-      <c r="J44" s="201"/>
-      <c r="K44" s="202"/>
-      <c r="L44" s="203"/>
-      <c r="M44" s="204"/>
-      <c r="N44" s="205"/>
-      <c r="O44" s="206"/>
-      <c r="P44" s="207"/>
-      <c r="Q44" s="208"/>
-      <c r="R44" s="197"/>
-      <c r="S44" s="198"/>
-      <c r="T44" s="199"/>
+      <c r="B44" s="175" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="175"/>
+      <c r="D44" s="175"/>
+      <c r="E44" s="199"/>
+      <c r="F44" s="200"/>
+      <c r="G44" s="201"/>
+      <c r="H44" s="202"/>
+      <c r="I44" s="203"/>
+      <c r="J44" s="203"/>
+      <c r="K44" s="204"/>
+      <c r="L44" s="205"/>
+      <c r="M44" s="206"/>
+      <c r="N44" s="207"/>
+      <c r="O44" s="208"/>
+      <c r="P44" s="209"/>
+      <c r="Q44" s="210"/>
+      <c r="R44" s="211"/>
+      <c r="S44" s="212"/>
+      <c r="T44" s="213"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="31"/>
-      <c r="B45" s="190" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="190"/>
-      <c r="D45" s="190"/>
-      <c r="E45" s="197"/>
-      <c r="F45" s="198"/>
-      <c r="G45" s="199"/>
-      <c r="H45" s="200"/>
-      <c r="I45" s="201"/>
-      <c r="J45" s="201"/>
-      <c r="K45" s="202"/>
-      <c r="L45" s="203"/>
-      <c r="M45" s="204"/>
-      <c r="N45" s="205"/>
-      <c r="O45" s="206"/>
-      <c r="P45" s="207"/>
-      <c r="Q45" s="208"/>
-      <c r="R45" s="197"/>
-      <c r="S45" s="198"/>
-      <c r="T45" s="199"/>
+      <c r="B45" s="175" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="175"/>
+      <c r="D45" s="175"/>
+      <c r="E45" s="199"/>
+      <c r="F45" s="200"/>
+      <c r="G45" s="201"/>
+      <c r="H45" s="202"/>
+      <c r="I45" s="203"/>
+      <c r="J45" s="203"/>
+      <c r="K45" s="204"/>
+      <c r="L45" s="205"/>
+      <c r="M45" s="206"/>
+      <c r="N45" s="207"/>
+      <c r="O45" s="208"/>
+      <c r="P45" s="209"/>
+      <c r="Q45" s="210"/>
+      <c r="R45" s="211"/>
+      <c r="S45" s="212"/>
+      <c r="T45" s="213"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="31"/>
@@ -5001,191 +5179,191 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
-      <c r="B47" s="210" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="211"/>
-      <c r="D47" s="212"/>
-      <c r="E47" s="174" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47" s="175"/>
-      <c r="G47" s="176"/>
-      <c r="H47" s="174" t="s">
+      <c r="B47" s="195" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="196"/>
+      <c r="D47" s="197"/>
+      <c r="E47" s="186" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="187"/>
+      <c r="G47" s="188"/>
+      <c r="H47" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="I47" s="175"/>
-      <c r="J47" s="175"/>
-      <c r="K47" s="176"/>
-      <c r="L47" s="174" t="s">
+      <c r="I47" s="187"/>
+      <c r="J47" s="187"/>
+      <c r="K47" s="188"/>
+      <c r="L47" s="186" t="s">
         <v>26</v>
       </c>
-      <c r="M47" s="175"/>
-      <c r="N47" s="176"/>
-      <c r="O47" s="174" t="s">
+      <c r="M47" s="187"/>
+      <c r="N47" s="188"/>
+      <c r="O47" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="P47" s="175"/>
-      <c r="Q47" s="176"/>
-      <c r="R47" s="174" t="s">
+      <c r="P47" s="187"/>
+      <c r="Q47" s="188"/>
+      <c r="R47" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="S47" s="175"/>
-      <c r="T47" s="176"/>
+      <c r="S47" s="187"/>
+      <c r="T47" s="188"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="31"/>
-      <c r="B48" s="190" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" s="190"/>
-      <c r="D48" s="190"/>
-      <c r="E48" s="197" t="s">
-        <v>50</v>
-      </c>
-      <c r="F48" s="198"/>
-      <c r="G48" s="199"/>
-      <c r="H48" s="200">
-        <v>40199</v>
-      </c>
-      <c r="I48" s="201"/>
-      <c r="J48" s="201"/>
-      <c r="K48" s="202"/>
-      <c r="L48" s="200">
-        <v>40199</v>
-      </c>
-      <c r="M48" s="201"/>
-      <c r="N48" s="202"/>
-      <c r="O48" s="197" t="s">
-        <v>33</v>
-      </c>
-      <c r="P48" s="198"/>
-      <c r="Q48" s="199"/>
-      <c r="R48" s="206">
-        <v>43851</v>
-      </c>
-      <c r="S48" s="207"/>
-      <c r="T48" s="208"/>
+      <c r="B48" s="217" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="218"/>
+      <c r="D48" s="219"/>
+      <c r="E48" s="211" t="s">
+        <v>518</v>
+      </c>
+      <c r="F48" s="212"/>
+      <c r="G48" s="213"/>
+      <c r="H48" s="214">
+        <v>543534</v>
+      </c>
+      <c r="I48" s="215"/>
+      <c r="J48" s="215"/>
+      <c r="K48" s="216"/>
+      <c r="L48" s="202">
+        <v>41295</v>
+      </c>
+      <c r="M48" s="203"/>
+      <c r="N48" s="204"/>
+      <c r="O48" s="211" t="s">
+        <v>32</v>
+      </c>
+      <c r="P48" s="212"/>
+      <c r="Q48" s="213"/>
+      <c r="R48" s="208">
+        <v>44947</v>
+      </c>
+      <c r="S48" s="209"/>
+      <c r="T48" s="210"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="31"/>
-      <c r="B49" s="190" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="190"/>
-      <c r="D49" s="190"/>
-      <c r="E49" s="197"/>
-      <c r="F49" s="198"/>
-      <c r="G49" s="199"/>
-      <c r="H49" s="200"/>
-      <c r="I49" s="201"/>
-      <c r="J49" s="201"/>
-      <c r="K49" s="202"/>
-      <c r="L49" s="200"/>
-      <c r="M49" s="201"/>
-      <c r="N49" s="202"/>
-      <c r="O49" s="197"/>
-      <c r="P49" s="198"/>
-      <c r="Q49" s="199"/>
-      <c r="R49" s="206"/>
-      <c r="S49" s="207"/>
-      <c r="T49" s="208"/>
+      <c r="B49" s="175" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="175"/>
+      <c r="D49" s="175"/>
+      <c r="E49" s="211"/>
+      <c r="F49" s="212"/>
+      <c r="G49" s="213"/>
+      <c r="H49" s="214"/>
+      <c r="I49" s="215"/>
+      <c r="J49" s="215"/>
+      <c r="K49" s="216"/>
+      <c r="L49" s="202"/>
+      <c r="M49" s="203"/>
+      <c r="N49" s="204"/>
+      <c r="O49" s="211"/>
+      <c r="P49" s="212"/>
+      <c r="Q49" s="213"/>
+      <c r="R49" s="208"/>
+      <c r="S49" s="209"/>
+      <c r="T49" s="210"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
-      <c r="B50" s="190" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="190"/>
-      <c r="D50" s="190"/>
-      <c r="E50" s="197"/>
-      <c r="F50" s="198"/>
-      <c r="G50" s="199"/>
-      <c r="H50" s="200"/>
-      <c r="I50" s="201"/>
-      <c r="J50" s="201"/>
-      <c r="K50" s="202"/>
-      <c r="L50" s="200"/>
-      <c r="M50" s="201"/>
-      <c r="N50" s="202"/>
-      <c r="O50" s="197"/>
-      <c r="P50" s="198"/>
-      <c r="Q50" s="199"/>
-      <c r="R50" s="206"/>
-      <c r="S50" s="207"/>
-      <c r="T50" s="208"/>
+      <c r="B50" s="175" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="175"/>
+      <c r="D50" s="175"/>
+      <c r="E50" s="211"/>
+      <c r="F50" s="212"/>
+      <c r="G50" s="213"/>
+      <c r="H50" s="214"/>
+      <c r="I50" s="215"/>
+      <c r="J50" s="215"/>
+      <c r="K50" s="216"/>
+      <c r="L50" s="202"/>
+      <c r="M50" s="203"/>
+      <c r="N50" s="204"/>
+      <c r="O50" s="211"/>
+      <c r="P50" s="212"/>
+      <c r="Q50" s="213"/>
+      <c r="R50" s="208"/>
+      <c r="S50" s="209"/>
+      <c r="T50" s="210"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="31"/>
-      <c r="B51" s="190" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="190"/>
-      <c r="D51" s="190"/>
-      <c r="E51" s="197"/>
-      <c r="F51" s="198"/>
-      <c r="G51" s="199"/>
-      <c r="H51" s="200"/>
-      <c r="I51" s="201"/>
-      <c r="J51" s="201"/>
-      <c r="K51" s="202"/>
-      <c r="L51" s="200"/>
-      <c r="M51" s="201"/>
-      <c r="N51" s="202"/>
-      <c r="O51" s="197"/>
-      <c r="P51" s="198"/>
-      <c r="Q51" s="199"/>
-      <c r="R51" s="206"/>
-      <c r="S51" s="207"/>
-      <c r="T51" s="208"/>
+      <c r="B51" s="175" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="175"/>
+      <c r="D51" s="175"/>
+      <c r="E51" s="211"/>
+      <c r="F51" s="212"/>
+      <c r="G51" s="213"/>
+      <c r="H51" s="214"/>
+      <c r="I51" s="215"/>
+      <c r="J51" s="215"/>
+      <c r="K51" s="216"/>
+      <c r="L51" s="202"/>
+      <c r="M51" s="203"/>
+      <c r="N51" s="204"/>
+      <c r="O51" s="211"/>
+      <c r="P51" s="212"/>
+      <c r="Q51" s="213"/>
+      <c r="R51" s="208"/>
+      <c r="S51" s="209"/>
+      <c r="T51" s="210"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="31"/>
-      <c r="B52" s="190" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="190"/>
-      <c r="D52" s="190"/>
-      <c r="E52" s="197"/>
-      <c r="F52" s="198"/>
-      <c r="G52" s="199"/>
-      <c r="H52" s="200"/>
-      <c r="I52" s="201"/>
-      <c r="J52" s="201"/>
-      <c r="K52" s="202"/>
-      <c r="L52" s="200"/>
-      <c r="M52" s="201"/>
-      <c r="N52" s="202"/>
-      <c r="O52" s="197"/>
-      <c r="P52" s="198"/>
-      <c r="Q52" s="199"/>
-      <c r="R52" s="206"/>
-      <c r="S52" s="207"/>
-      <c r="T52" s="208"/>
+      <c r="B52" s="175" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="175"/>
+      <c r="D52" s="175"/>
+      <c r="E52" s="211"/>
+      <c r="F52" s="212"/>
+      <c r="G52" s="213"/>
+      <c r="H52" s="214"/>
+      <c r="I52" s="215"/>
+      <c r="J52" s="215"/>
+      <c r="K52" s="216"/>
+      <c r="L52" s="202"/>
+      <c r="M52" s="203"/>
+      <c r="N52" s="204"/>
+      <c r="O52" s="211"/>
+      <c r="P52" s="212"/>
+      <c r="Q52" s="213"/>
+      <c r="R52" s="208"/>
+      <c r="S52" s="209"/>
+      <c r="T52" s="210"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="31"/>
-      <c r="B53" s="190" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="190"/>
-      <c r="D53" s="190"/>
-      <c r="E53" s="197"/>
-      <c r="F53" s="198"/>
-      <c r="G53" s="199"/>
-      <c r="H53" s="200"/>
-      <c r="I53" s="201"/>
-      <c r="J53" s="201"/>
-      <c r="K53" s="202"/>
-      <c r="L53" s="200"/>
-      <c r="M53" s="201"/>
-      <c r="N53" s="202"/>
-      <c r="O53" s="197"/>
-      <c r="P53" s="198"/>
-      <c r="Q53" s="199"/>
-      <c r="R53" s="206"/>
-      <c r="S53" s="207"/>
-      <c r="T53" s="208"/>
+      <c r="B53" s="175" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="175"/>
+      <c r="D53" s="175"/>
+      <c r="E53" s="211"/>
+      <c r="F53" s="212"/>
+      <c r="G53" s="213"/>
+      <c r="H53" s="214"/>
+      <c r="I53" s="215"/>
+      <c r="J53" s="215"/>
+      <c r="K53" s="216"/>
+      <c r="L53" s="202"/>
+      <c r="M53" s="203"/>
+      <c r="N53" s="204"/>
+      <c r="O53" s="211"/>
+      <c r="P53" s="212"/>
+      <c r="Q53" s="213"/>
+      <c r="R53" s="208"/>
+      <c r="S53" s="209"/>
+      <c r="T53" s="210"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
@@ -5212,139 +5390,139 @@
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="40" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C55" s="41"/>
-      <c r="D55" s="198" t="s">
-        <v>492</v>
-      </c>
-      <c r="E55" s="198"/>
-      <c r="F55" s="198"/>
-      <c r="G55" s="198"/>
-      <c r="H55" s="198"/>
-      <c r="I55" s="198"/>
+      <c r="D55" s="212" t="s">
+        <v>486</v>
+      </c>
+      <c r="E55" s="212"/>
+      <c r="F55" s="212"/>
+      <c r="G55" s="212"/>
+      <c r="H55" s="212"/>
+      <c r="I55" s="212"/>
       <c r="J55" s="42"/>
       <c r="K55" s="43"/>
       <c r="L55" s="41"/>
       <c r="M55" s="41"/>
       <c r="N55" s="41"/>
-      <c r="O55" s="167"/>
-      <c r="P55" s="167"/>
-      <c r="Q55" s="167"/>
-      <c r="R55" s="167"/>
-      <c r="S55" s="167"/>
-      <c r="T55" s="168"/>
+      <c r="O55" s="173"/>
+      <c r="P55" s="173"/>
+      <c r="Q55" s="173"/>
+      <c r="R55" s="173"/>
+      <c r="S55" s="173"/>
+      <c r="T55" s="174"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
-      <c r="B56" s="218" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="219"/>
-      <c r="D56" s="160" t="s">
-        <v>491</v>
-      </c>
-      <c r="E56" s="160"/>
-      <c r="F56" s="160"/>
-      <c r="G56" s="160"/>
-      <c r="H56" s="160"/>
-      <c r="I56" s="160"/>
-      <c r="J56" s="160"/>
-      <c r="K56" s="160"/>
-      <c r="L56" s="220" t="s">
-        <v>55</v>
-      </c>
-      <c r="M56" s="220"/>
-      <c r="N56" s="220"/>
-      <c r="O56" s="160" t="s">
-        <v>56</v>
-      </c>
-      <c r="P56" s="160"/>
-      <c r="Q56" s="160"/>
-      <c r="R56" s="160"/>
-      <c r="S56" s="160"/>
-      <c r="T56" s="184"/>
+      <c r="B56" s="225" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="226"/>
+      <c r="D56" s="112" t="s">
+        <v>520</v>
+      </c>
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="112"/>
+      <c r="J56" s="112"/>
+      <c r="K56" s="112"/>
+      <c r="L56" s="227" t="s">
+        <v>51</v>
+      </c>
+      <c r="M56" s="227"/>
+      <c r="N56" s="227"/>
+      <c r="O56" s="112" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" s="112"/>
+      <c r="Q56" s="112"/>
+      <c r="R56" s="112"/>
+      <c r="S56" s="112"/>
+      <c r="T56" s="160"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
-      <c r="B57" s="177" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="178"/>
-      <c r="D57" s="160" t="s">
+      <c r="B57" s="152" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="153"/>
+      <c r="D57" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="160"/>
-      <c r="F57" s="160"/>
-      <c r="G57" s="160"/>
-      <c r="H57" s="160"/>
-      <c r="I57" s="160"/>
-      <c r="J57" s="160"/>
-      <c r="K57" s="160"/>
-      <c r="L57" s="160"/>
-      <c r="M57" s="160"/>
-      <c r="N57" s="160"/>
-      <c r="O57" s="160"/>
-      <c r="P57" s="160"/>
-      <c r="Q57" s="160"/>
-      <c r="R57" s="160"/>
-      <c r="S57" s="160"/>
-      <c r="T57" s="184"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="112"/>
+      <c r="G57" s="112"/>
+      <c r="H57" s="112"/>
+      <c r="I57" s="112"/>
+      <c r="J57" s="112"/>
+      <c r="K57" s="112"/>
+      <c r="L57" s="112"/>
+      <c r="M57" s="112"/>
+      <c r="N57" s="112"/>
+      <c r="O57" s="112"/>
+      <c r="P57" s="112"/>
+      <c r="Q57" s="112"/>
+      <c r="R57" s="112"/>
+      <c r="S57" s="112"/>
+      <c r="T57" s="160"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
-      <c r="B58" s="213"/>
-      <c r="C58" s="214"/>
-      <c r="D58" s="163"/>
-      <c r="E58" s="163"/>
-      <c r="F58" s="163"/>
-      <c r="G58" s="163"/>
-      <c r="H58" s="163"/>
-      <c r="I58" s="163"/>
-      <c r="J58" s="163"/>
-      <c r="K58" s="163"/>
-      <c r="L58" s="163"/>
-      <c r="M58" s="163"/>
-      <c r="N58" s="163"/>
-      <c r="O58" s="163"/>
+      <c r="B58" s="220"/>
+      <c r="C58" s="221"/>
+      <c r="D58" s="154"/>
+      <c r="E58" s="154"/>
+      <c r="F58" s="154"/>
+      <c r="G58" s="154"/>
+      <c r="H58" s="154"/>
+      <c r="I58" s="154"/>
+      <c r="J58" s="154"/>
+      <c r="K58" s="154"/>
+      <c r="L58" s="154"/>
+      <c r="M58" s="154"/>
+      <c r="N58" s="154"/>
+      <c r="O58" s="154"/>
       <c r="P58" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q58" s="215">
-        <v>400616</v>
-      </c>
-      <c r="R58" s="215"/>
-      <c r="S58" s="215"/>
-      <c r="T58" s="216"/>
+        <v>54</v>
+      </c>
+      <c r="Q58" s="222">
+        <v>400615</v>
+      </c>
+      <c r="R58" s="222"/>
+      <c r="S58" s="222"/>
+      <c r="T58" s="223"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="44"/>
       <c r="C59" s="45"/>
-      <c r="D59" s="163"/>
-      <c r="E59" s="163"/>
-      <c r="F59" s="163"/>
-      <c r="G59" s="163"/>
-      <c r="H59" s="163"/>
-      <c r="I59" s="163"/>
-      <c r="J59" s="163"/>
+      <c r="D59" s="154"/>
+      <c r="E59" s="154"/>
+      <c r="F59" s="154"/>
+      <c r="G59" s="154"/>
+      <c r="H59" s="154"/>
+      <c r="I59" s="154"/>
+      <c r="J59" s="154"/>
       <c r="K59" s="46"/>
       <c r="L59" s="47" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M59" s="47"/>
-      <c r="N59" s="162"/>
-      <c r="O59" s="162"/>
-      <c r="P59" s="162"/>
-      <c r="Q59" s="162"/>
-      <c r="R59" s="162"/>
-      <c r="S59" s="162"/>
-      <c r="T59" s="217"/>
+      <c r="N59" s="169"/>
+      <c r="O59" s="169"/>
+      <c r="P59" s="169"/>
+      <c r="Q59" s="169"/>
+      <c r="R59" s="169"/>
+      <c r="S59" s="169"/>
+      <c r="T59" s="224"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="48" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C60" s="49"/>
       <c r="D60" s="49"/>
@@ -5368,194 +5546,176 @@
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="C61" s="174" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" s="186" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="188"/>
+      <c r="E61" s="36" t="s">
+        <v>502</v>
+      </c>
+      <c r="F61" s="228" t="s">
+        <v>58</v>
+      </c>
+      <c r="G61" s="228"/>
+      <c r="H61" s="228" t="s">
+        <v>59</v>
+      </c>
+      <c r="I61" s="228"/>
+      <c r="J61" s="228"/>
+      <c r="K61" s="186" t="s">
+        <v>60</v>
+      </c>
+      <c r="L61" s="188"/>
+      <c r="M61" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="176"/>
-      <c r="E61" s="36" t="s">
-        <v>508</v>
-      </c>
-      <c r="F61" s="221" t="s">
+      <c r="N61" s="188"/>
+      <c r="O61" s="186" t="s">
         <v>62</v>
       </c>
-      <c r="G61" s="221"/>
-      <c r="H61" s="221" t="s">
+      <c r="P61" s="188"/>
+      <c r="Q61" s="228" t="s">
+        <v>30</v>
+      </c>
+      <c r="R61" s="228"/>
+      <c r="S61" s="228" t="s">
         <v>63</v>
       </c>
-      <c r="I61" s="221"/>
-      <c r="J61" s="221"/>
-      <c r="K61" s="174" t="s">
-        <v>64</v>
-      </c>
-      <c r="L61" s="176"/>
-      <c r="M61" s="174" t="s">
-        <v>65</v>
-      </c>
-      <c r="N61" s="176"/>
-      <c r="O61" s="174" t="s">
-        <v>66</v>
-      </c>
-      <c r="P61" s="176"/>
-      <c r="Q61" s="221" t="s">
-        <v>30</v>
-      </c>
-      <c r="R61" s="221"/>
-      <c r="S61" s="221" t="s">
-        <v>67</v>
-      </c>
-      <c r="T61" s="221"/>
+      <c r="T61" s="228"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
-      <c r="B62" s="109">
+      <c r="B62" s="104">
         <v>1</v>
       </c>
-      <c r="C62" s="197" t="s">
-        <v>491</v>
-      </c>
-      <c r="D62" s="199"/>
+      <c r="C62" s="211" t="s">
+        <v>520</v>
+      </c>
+      <c r="D62" s="213"/>
       <c r="E62" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F62" s="222">
-        <v>40199</v>
-      </c>
-      <c r="G62" s="222"/>
-      <c r="H62" s="193">
-        <v>32432421</v>
-      </c>
-      <c r="I62" s="193"/>
-      <c r="J62" s="193"/>
-      <c r="K62" s="206">
-        <v>40199</v>
-      </c>
-      <c r="L62" s="208"/>
-      <c r="M62" s="206" t="s">
-        <v>33</v>
-      </c>
-      <c r="N62" s="208"/>
-      <c r="O62" s="206">
-        <v>40199</v>
-      </c>
-      <c r="P62" s="208"/>
-      <c r="Q62" s="193" t="s">
-        <v>488</v>
-      </c>
-      <c r="R62" s="193"/>
-      <c r="S62" s="193" t="s">
-        <v>94</v>
-      </c>
-      <c r="T62" s="193"/>
+        <v>52</v>
+      </c>
+      <c r="F62" s="229">
+        <v>31433</v>
+      </c>
+      <c r="G62" s="229"/>
+      <c r="H62" s="230" t="s">
+        <v>503</v>
+      </c>
+      <c r="I62" s="230"/>
+      <c r="J62" s="230"/>
+      <c r="K62" s="208">
+        <v>40230</v>
+      </c>
+      <c r="L62" s="210"/>
+      <c r="M62" s="208" t="s">
+        <v>32</v>
+      </c>
+      <c r="N62" s="210"/>
+      <c r="O62" s="208">
+        <v>47563</v>
+      </c>
+      <c r="P62" s="210"/>
+      <c r="Q62" s="178" t="s">
+        <v>483</v>
+      </c>
+      <c r="R62" s="178"/>
+      <c r="S62" s="178" t="s">
+        <v>90</v>
+      </c>
+      <c r="T62" s="178"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
-      <c r="B63" s="109">
+      <c r="B63" s="104">
         <v>2</v>
       </c>
-      <c r="C63" s="197" t="s">
-        <v>510</v>
-      </c>
-      <c r="D63" s="199"/>
+      <c r="C63" s="211" t="s">
+        <v>521</v>
+      </c>
+      <c r="D63" s="213"/>
       <c r="E63" s="51" t="s">
-        <v>501</v>
-      </c>
-      <c r="F63" s="222">
-        <v>42391</v>
-      </c>
-      <c r="G63" s="222"/>
-      <c r="H63" s="193">
-        <v>432423424</v>
-      </c>
-      <c r="I63" s="193"/>
-      <c r="J63" s="193"/>
-      <c r="K63" s="206">
-        <v>40200</v>
-      </c>
-      <c r="L63" s="208"/>
-      <c r="M63" s="206" t="s">
-        <v>33</v>
-      </c>
-      <c r="N63" s="208"/>
-      <c r="O63" s="206">
-        <v>47505</v>
-      </c>
-      <c r="P63" s="208"/>
-      <c r="Q63" s="193" t="s">
-        <v>488</v>
-      </c>
-      <c r="R63" s="193"/>
-      <c r="S63" s="193" t="s">
-        <v>488</v>
-      </c>
-      <c r="T63" s="193"/>
+        <v>491</v>
+      </c>
+      <c r="F63" s="229">
+        <v>24002</v>
+      </c>
+      <c r="G63" s="229"/>
+      <c r="H63" s="230" t="s">
+        <v>504</v>
+      </c>
+      <c r="I63" s="230"/>
+      <c r="J63" s="230"/>
+      <c r="K63" s="208">
+        <v>40231</v>
+      </c>
+      <c r="L63" s="210"/>
+      <c r="M63" s="208" t="s">
+        <v>32</v>
+      </c>
+      <c r="N63" s="210"/>
+      <c r="O63" s="208">
+        <v>47564</v>
+      </c>
+      <c r="P63" s="210"/>
+      <c r="Q63" s="178" t="s">
+        <v>483</v>
+      </c>
+      <c r="R63" s="178"/>
+      <c r="S63" s="178" t="s">
+        <v>483</v>
+      </c>
+      <c r="T63" s="178"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
-      <c r="B64" s="109">
+      <c r="B64" s="104">
         <v>3</v>
       </c>
-      <c r="C64" s="197" t="s">
-        <v>511</v>
-      </c>
-      <c r="D64" s="199"/>
-      <c r="E64" s="51" t="s">
-        <v>501</v>
-      </c>
-      <c r="F64" s="222">
-        <v>42758</v>
-      </c>
-      <c r="G64" s="222"/>
-      <c r="H64" s="193">
-        <v>54354356</v>
-      </c>
-      <c r="I64" s="193"/>
-      <c r="J64" s="193"/>
-      <c r="K64" s="206">
-        <v>40201</v>
-      </c>
-      <c r="L64" s="208"/>
-      <c r="M64" s="206" t="s">
-        <v>33</v>
-      </c>
-      <c r="N64" s="208"/>
-      <c r="O64" s="206">
-        <v>47871</v>
-      </c>
-      <c r="P64" s="208"/>
-      <c r="Q64" s="193" t="s">
-        <v>488</v>
-      </c>
-      <c r="R64" s="193"/>
-      <c r="S64" s="193" t="s">
-        <v>488</v>
-      </c>
-      <c r="T64" s="193"/>
+      <c r="C64" s="211"/>
+      <c r="D64" s="213"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="229"/>
+      <c r="G64" s="229"/>
+      <c r="H64" s="230"/>
+      <c r="I64" s="230"/>
+      <c r="J64" s="230"/>
+      <c r="K64" s="208"/>
+      <c r="L64" s="210"/>
+      <c r="M64" s="208"/>
+      <c r="N64" s="210"/>
+      <c r="O64" s="208"/>
+      <c r="P64" s="210"/>
+      <c r="Q64" s="178"/>
+      <c r="R64" s="178"/>
+      <c r="S64" s="178"/>
+      <c r="T64" s="178"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
-      <c r="B65" s="109">
+      <c r="B65" s="104">
         <v>4</v>
       </c>
-      <c r="C65" s="197"/>
-      <c r="D65" s="199"/>
+      <c r="C65" s="211"/>
+      <c r="D65" s="213"/>
       <c r="E65" s="51"/>
-      <c r="F65" s="222"/>
-      <c r="G65" s="222"/>
-      <c r="H65" s="193"/>
-      <c r="I65" s="193"/>
-      <c r="J65" s="193"/>
-      <c r="K65" s="206"/>
-      <c r="L65" s="208"/>
-      <c r="M65" s="206"/>
-      <c r="N65" s="208"/>
-      <c r="O65" s="197"/>
-      <c r="P65" s="199"/>
-      <c r="Q65" s="193"/>
-      <c r="R65" s="193"/>
-      <c r="S65" s="193"/>
-      <c r="T65" s="193"/>
+      <c r="F65" s="229"/>
+      <c r="G65" s="229"/>
+      <c r="H65" s="178"/>
+      <c r="I65" s="178"/>
+      <c r="J65" s="178"/>
+      <c r="K65" s="208"/>
+      <c r="L65" s="210"/>
+      <c r="M65" s="208"/>
+      <c r="N65" s="210"/>
+      <c r="O65" s="211"/>
+      <c r="P65" s="213"/>
+      <c r="Q65" s="178"/>
+      <c r="R65" s="178"/>
+      <c r="S65" s="178"/>
+      <c r="T65" s="178"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
@@ -5581,31 +5741,30 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
-      <c r="B67" s="223" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="224"/>
-      <c r="D67" s="224"/>
-      <c r="E67" s="224"/>
-      <c r="F67" s="224"/>
-      <c r="G67" s="224"/>
-      <c r="H67" s="224"/>
-      <c r="I67" s="224"/>
-      <c r="J67" s="224"/>
-      <c r="K67" s="224"/>
-      <c r="L67" s="224"/>
-      <c r="M67" s="224"/>
-      <c r="N67" s="224"/>
-      <c r="O67" s="224"/>
-      <c r="P67" s="224"/>
-      <c r="Q67" s="224"/>
-      <c r="R67" s="224"/>
-      <c r="S67" s="224"/>
-      <c r="T67" s="225"/>
+      <c r="B67" s="231" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="232"/>
+      <c r="D67" s="232"/>
+      <c r="E67" s="232"/>
+      <c r="F67" s="232"/>
+      <c r="G67" s="232"/>
+      <c r="H67" s="232"/>
+      <c r="I67" s="232"/>
+      <c r="J67" s="232"/>
+      <c r="K67" s="232"/>
+      <c r="L67" s="232"/>
+      <c r="M67" s="232"/>
+      <c r="N67" s="232"/>
+      <c r="O67" s="232"/>
+      <c r="P67" s="232"/>
+      <c r="Q67" s="232"/>
+      <c r="R67" s="232"/>
+      <c r="S67" s="232"/>
+      <c r="T67" s="233"/>
     </row>
   </sheetData>
   <mergeCells count="218">
-    <mergeCell ref="Q65:R65"/>
     <mergeCell ref="S65:T65"/>
     <mergeCell ref="B67:T67"/>
     <mergeCell ref="C65:D65"/>
@@ -5614,6 +5773,14 @@
     <mergeCell ref="K65:L65"/>
     <mergeCell ref="M65:N65"/>
     <mergeCell ref="O65:P65"/>
+    <mergeCell ref="S64:T64"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="O63:P63"/>
     <mergeCell ref="Q63:R63"/>
     <mergeCell ref="S63:T63"/>
     <mergeCell ref="C64:D64"/>
@@ -5623,13 +5790,6 @@
     <mergeCell ref="M64:N64"/>
     <mergeCell ref="O64:P64"/>
     <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="S64:T64"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="O63:P63"/>
     <mergeCell ref="Q61:R61"/>
     <mergeCell ref="S61:T61"/>
     <mergeCell ref="C62:D62"/>
@@ -5689,18 +5849,18 @@
     <mergeCell ref="L49:N49"/>
     <mergeCell ref="O49:Q49"/>
     <mergeCell ref="R49:T49"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="O48:Q48"/>
-    <mergeCell ref="R48:T48"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="E47:G47"/>
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:N47"/>
     <mergeCell ref="O47:Q47"/>
     <mergeCell ref="R47:T47"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="B48:D48"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="E45:G45"/>
     <mergeCell ref="H45:K45"/>
@@ -5737,6 +5897,8 @@
     <mergeCell ref="L40:N40"/>
     <mergeCell ref="O40:Q40"/>
     <mergeCell ref="R40:T40"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="R37:T37"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="E39:G39"/>
@@ -5749,16 +5911,7 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:N37"/>
     <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="R35:T36"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="B25:J25"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="H34:K34"/>
@@ -5774,6 +5927,15 @@
     <mergeCell ref="L33:N33"/>
     <mergeCell ref="O33:Q33"/>
     <mergeCell ref="R33:S33"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="R35:T36"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B17:G17"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:J28"/>
     <mergeCell ref="L28:M28"/>
@@ -5797,7 +5959,7 @@
     <mergeCell ref="L24:P24"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="S24:T24"/>
-    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="H18:L18"/>
     <mergeCell ref="L25:T25"/>
     <mergeCell ref="Q1:T5"/>
     <mergeCell ref="B5:P5"/>
@@ -5821,15 +5983,16 @@
     <mergeCell ref="M13:T13"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="H14:L14"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H18:L18"/>
   </mergeCells>
-  <dataValidations count="33">
+  <dataValidations count="34">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please Enter / Select a valid option from the List..." sqref="M18:T18" xr:uid="{92730EA2-2C4E-436F-A174-1DA7426AA1BE}">
       <formula1>$IN$65414:$IN$65419</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please check the Date entered. Date format has to be DD-MMM-YY, e.g. 31-Jan-08..." sqref="M19 M22" xr:uid="{EEB99CDA-4C59-4FAD-B674-ADBB23D15C88}">
       <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Section" error="Please Enter / Select a valid Reference Opion from the List..." sqref="J31:T31" xr:uid="{C45B3812-E0E5-480F-87CC-BB6449E2CCD9}">
+      <formula1>$IQ$65414:$IQ$65422</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please check and make a valid Entry without space..." sqref="H27:J27 R27" xr:uid="{8ACF1C78-E1FD-40D3-8D36-6DB519EFC0C8}">
       <formula1>1</formula1>
@@ -5985,7 +6148,7 @@
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter a valid Place of Birth..." xr:uid="{4384D91B-70BF-4F98-9C9D-E1164A8CD7B7}">
           <x14:formula1>
             <xm:f>'Data Values'!$G$3:$G$263</xm:f>
@@ -6016,12 +6179,6 @@
           </x14:formula1>
           <xm:sqref>E62:E65</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9780C533-C682-44DD-8CD3-99BF5DE7AAEE}">
-          <x14:formula1>
-            <xm:f>'Data Values'!$M$2:$M$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>J31:T31</xm:sqref>
-        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -6032,557 +6189,610 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC067019-9E8F-42C6-9301-6F73926F5B81}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="6" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="226" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
+      <c r="A1" s="234" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
       <c r="D1" s="52" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G1" s="52" t="s">
         <v>28</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I1" s="52" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J1" s="53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="228" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="54"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="236" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="237"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="54" t="s">
+        <v>522</v>
+      </c>
       <c r="E2" s="54"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
+      <c r="F2" s="55">
+        <v>37097</v>
+      </c>
+      <c r="G2" s="55">
+        <v>45863</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>505</v>
+      </c>
+      <c r="I2" s="57">
+        <v>30</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="228" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="229"/>
-      <c r="C3" s="230"/>
-      <c r="D3" s="54"/>
+      <c r="A3" s="236" t="s">
+        <v>507</v>
+      </c>
+      <c r="B3" s="237"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="54" t="s">
+        <v>523</v>
+      </c>
       <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59"/>
+      <c r="F3" s="55">
+        <v>43317</v>
+      </c>
+      <c r="G3" s="55">
+        <v>46239</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>506</v>
+      </c>
+      <c r="I3" s="57">
+        <v>90</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="228"/>
-      <c r="B4" s="229"/>
-      <c r="C4" s="230"/>
-      <c r="D4" s="54"/>
+      <c r="A4" s="236" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="237"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="54" t="s">
+        <v>524</v>
+      </c>
       <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
+      <c r="F4" s="55">
+        <v>42587</v>
+      </c>
+      <c r="G4" s="55">
+        <v>44767</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>527</v>
+      </c>
+      <c r="I4" s="57">
+        <v>30</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="228"/>
-      <c r="B5" s="229"/>
-      <c r="C5" s="230"/>
-      <c r="D5" s="54"/>
+      <c r="A5" s="236" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="237"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="54" t="s">
+        <v>525</v>
+      </c>
       <c r="E5" s="54"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="F5" s="55">
+        <v>41856</v>
+      </c>
+      <c r="G5" s="55">
+        <v>44767</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>526</v>
+      </c>
+      <c r="I5" s="57">
+        <v>60</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="228"/>
-      <c r="B6" s="229"/>
-      <c r="C6" s="230"/>
+      <c r="A6" s="236"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="238"/>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
       <c r="F6" s="55"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="228"/>
-      <c r="B7" s="229"/>
-      <c r="C7" s="230"/>
+      <c r="A7" s="236"/>
+      <c r="B7" s="237"/>
+      <c r="C7" s="238"/>
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
       <c r="F7" s="55"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="228"/>
-      <c r="B8" s="229"/>
-      <c r="C8" s="230"/>
+      <c r="A8" s="236"/>
+      <c r="B8" s="237"/>
+      <c r="C8" s="238"/>
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
       <c r="F8" s="55"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="228"/>
-      <c r="B9" s="229"/>
-      <c r="C9" s="230"/>
+      <c r="A9" s="236"/>
+      <c r="B9" s="237"/>
+      <c r="C9" s="238"/>
       <c r="D9" s="54"/>
       <c r="E9" s="54"/>
       <c r="F9" s="55"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="228"/>
-      <c r="B10" s="229"/>
-      <c r="C10" s="230"/>
+      <c r="A10" s="236"/>
+      <c r="B10" s="237"/>
+      <c r="C10" s="238"/>
       <c r="D10" s="54"/>
       <c r="E10" s="54"/>
       <c r="F10" s="55"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="228"/>
-      <c r="B11" s="229"/>
-      <c r="C11" s="230"/>
+      <c r="A11" s="236"/>
+      <c r="B11" s="237"/>
+      <c r="C11" s="238"/>
       <c r="D11" s="54"/>
       <c r="E11" s="54"/>
       <c r="F11" s="55"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="228"/>
-      <c r="B12" s="229"/>
-      <c r="C12" s="230"/>
+      <c r="A12" s="236"/>
+      <c r="B12" s="237"/>
+      <c r="C12" s="238"/>
       <c r="D12" s="54"/>
       <c r="E12" s="54"/>
       <c r="F12" s="55"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="228"/>
-      <c r="B13" s="229"/>
-      <c r="C13" s="230"/>
+      <c r="A13" s="236"/>
+      <c r="B13" s="237"/>
+      <c r="C13" s="238"/>
       <c r="D13" s="54"/>
       <c r="E13" s="54"/>
       <c r="F13" s="55"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="58"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="228"/>
-      <c r="B14" s="229"/>
-      <c r="C14" s="230"/>
+      <c r="A14" s="236"/>
+      <c r="B14" s="237"/>
+      <c r="C14" s="238"/>
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="58"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="228"/>
-      <c r="B15" s="229"/>
-      <c r="C15" s="230"/>
+      <c r="A15" s="236"/>
+      <c r="B15" s="237"/>
+      <c r="C15" s="238"/>
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
       <c r="F15" s="55"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="228"/>
-      <c r="B16" s="229"/>
-      <c r="C16" s="230"/>
+      <c r="A16" s="236"/>
+      <c r="B16" s="237"/>
+      <c r="C16" s="238"/>
       <c r="D16" s="54"/>
       <c r="E16" s="54"/>
       <c r="F16" s="55"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="58"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="228"/>
-      <c r="B17" s="229"/>
-      <c r="C17" s="230"/>
+      <c r="A17" s="236"/>
+      <c r="B17" s="237"/>
+      <c r="C17" s="238"/>
       <c r="D17" s="54"/>
       <c r="E17" s="54"/>
       <c r="F17" s="55"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="228"/>
-      <c r="B18" s="229"/>
-      <c r="C18" s="230"/>
+      <c r="A18" s="236"/>
+      <c r="B18" s="237"/>
+      <c r="C18" s="238"/>
       <c r="D18" s="54"/>
       <c r="E18" s="54"/>
       <c r="F18" s="55"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="228"/>
-      <c r="B19" s="229"/>
-      <c r="C19" s="230"/>
+      <c r="A19" s="236"/>
+      <c r="B19" s="237"/>
+      <c r="C19" s="238"/>
       <c r="D19" s="54"/>
       <c r="E19" s="54"/>
       <c r="F19" s="55"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="228"/>
-      <c r="B20" s="229"/>
-      <c r="C20" s="230"/>
+      <c r="A20" s="236"/>
+      <c r="B20" s="237"/>
+      <c r="C20" s="238"/>
       <c r="D20" s="54"/>
       <c r="E20" s="54"/>
       <c r="F20" s="55"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="228"/>
-      <c r="B21" s="229"/>
-      <c r="C21" s="230"/>
+      <c r="A21" s="236"/>
+      <c r="B21" s="237"/>
+      <c r="C21" s="238"/>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
       <c r="F21" s="55"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="58"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="228"/>
-      <c r="B22" s="229"/>
-      <c r="C22" s="230"/>
+      <c r="A22" s="236"/>
+      <c r="B22" s="237"/>
+      <c r="C22" s="238"/>
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
       <c r="F22" s="55"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="228"/>
-      <c r="B23" s="229"/>
-      <c r="C23" s="230"/>
+      <c r="A23" s="236"/>
+      <c r="B23" s="237"/>
+      <c r="C23" s="238"/>
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
       <c r="F23" s="55"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="228"/>
-      <c r="B24" s="229"/>
-      <c r="C24" s="230"/>
+      <c r="A24" s="236"/>
+      <c r="B24" s="237"/>
+      <c r="C24" s="238"/>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="55"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="228"/>
-      <c r="B25" s="229"/>
-      <c r="C25" s="230"/>
+      <c r="A25" s="236"/>
+      <c r="B25" s="237"/>
+      <c r="C25" s="238"/>
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
       <c r="F25" s="55"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="58"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="228"/>
-      <c r="B26" s="229"/>
-      <c r="C26" s="230"/>
+      <c r="A26" s="236"/>
+      <c r="B26" s="237"/>
+      <c r="C26" s="238"/>
       <c r="D26" s="54"/>
       <c r="E26" s="54"/>
       <c r="F26" s="55"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="58"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="228"/>
-      <c r="B27" s="229"/>
-      <c r="C27" s="230"/>
+      <c r="A27" s="236"/>
+      <c r="B27" s="237"/>
+      <c r="C27" s="238"/>
       <c r="D27" s="54"/>
       <c r="E27" s="54"/>
       <c r="F27" s="55"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="58"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="228"/>
-      <c r="B28" s="229"/>
-      <c r="C28" s="230"/>
+      <c r="A28" s="236"/>
+      <c r="B28" s="237"/>
+      <c r="C28" s="238"/>
       <c r="D28" s="54"/>
       <c r="E28" s="54"/>
       <c r="F28" s="55"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="58"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="228"/>
-      <c r="B29" s="229"/>
-      <c r="C29" s="230"/>
+      <c r="A29" s="236"/>
+      <c r="B29" s="237"/>
+      <c r="C29" s="238"/>
       <c r="D29" s="54"/>
       <c r="E29" s="54"/>
       <c r="F29" s="55"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="58"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="228"/>
-      <c r="B30" s="229"/>
-      <c r="C30" s="230"/>
+      <c r="A30" s="236"/>
+      <c r="B30" s="237"/>
+      <c r="C30" s="238"/>
       <c r="D30" s="54"/>
       <c r="E30" s="54"/>
       <c r="F30" s="55"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="58"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="228"/>
-      <c r="B31" s="229"/>
-      <c r="C31" s="230"/>
+      <c r="A31" s="236"/>
+      <c r="B31" s="237"/>
+      <c r="C31" s="238"/>
       <c r="D31" s="54"/>
       <c r="E31" s="54"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="58"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="228"/>
-      <c r="B32" s="229"/>
-      <c r="C32" s="230"/>
+      <c r="A32" s="236"/>
+      <c r="B32" s="237"/>
+      <c r="C32" s="238"/>
       <c r="D32" s="54"/>
       <c r="E32" s="54"/>
       <c r="F32" s="55"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="58"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="228"/>
-      <c r="B33" s="229"/>
-      <c r="C33" s="230"/>
+      <c r="A33" s="236"/>
+      <c r="B33" s="237"/>
+      <c r="C33" s="238"/>
       <c r="D33" s="54"/>
       <c r="E33" s="54"/>
       <c r="F33" s="55"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="58"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="235"/>
-      <c r="B34" s="236"/>
-      <c r="C34" s="237"/>
+      <c r="A34" s="241"/>
+      <c r="B34" s="242"/>
+      <c r="C34" s="243"/>
       <c r="D34" s="54"/>
       <c r="E34" s="54"/>
       <c r="F34" s="55"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="58"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="235"/>
-      <c r="B35" s="236"/>
-      <c r="C35" s="237"/>
+      <c r="A35" s="241"/>
+      <c r="B35" s="242"/>
+      <c r="C35" s="243"/>
       <c r="D35" s="54"/>
       <c r="E35" s="54"/>
       <c r="F35" s="55"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="58"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="235"/>
-      <c r="B36" s="236"/>
-      <c r="C36" s="237"/>
+      <c r="A36" s="241"/>
+      <c r="B36" s="242"/>
+      <c r="C36" s="243"/>
       <c r="D36" s="54"/>
       <c r="E36" s="54"/>
       <c r="F36" s="55"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="58"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="235"/>
-      <c r="B37" s="236"/>
-      <c r="C37" s="237"/>
+      <c r="A37" s="241"/>
+      <c r="B37" s="242"/>
+      <c r="C37" s="243"/>
       <c r="D37" s="54"/>
       <c r="E37" s="54"/>
       <c r="F37" s="55"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="58"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="238"/>
-      <c r="B38" s="239"/>
-      <c r="C38" s="240"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="66"/>
+      <c r="A38" s="244"/>
+      <c r="B38" s="245"/>
+      <c r="C38" s="246"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="65"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="231" t="s">
-        <v>140</v>
-      </c>
-      <c r="B40" s="232"/>
-      <c r="C40" s="232"/>
-      <c r="D40" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="233" t="s">
+      <c r="A40" s="251" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="252"/>
+      <c r="C40" s="252"/>
+      <c r="D40" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="234"/>
-      <c r="G40" s="69" t="s">
+      <c r="F40" s="240"/>
+      <c r="G40" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="H40" s="233" t="s">
+      <c r="H40" s="239" t="s">
         <v>27</v>
       </c>
-      <c r="I40" s="234"/>
-      <c r="J40" s="70" t="s">
+      <c r="I40" s="240"/>
+      <c r="J40" s="69" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="241" t="s">
-        <v>162</v>
-      </c>
-      <c r="B41" s="242"/>
-      <c r="C41" s="242"/>
+      <c r="A41" s="247" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="248"/>
+      <c r="C41" s="248"/>
       <c r="D41" s="54"/>
-      <c r="E41" s="243"/>
-      <c r="F41" s="244"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="243"/>
-      <c r="I41" s="244"/>
-      <c r="J41" s="71"/>
+      <c r="E41" s="249"/>
+      <c r="F41" s="250"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="249"/>
+      <c r="I41" s="250"/>
+      <c r="J41" s="70"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="241" t="s">
-        <v>163</v>
-      </c>
-      <c r="B42" s="242"/>
-      <c r="C42" s="242"/>
+      <c r="A42" s="247" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" s="248"/>
+      <c r="C42" s="248"/>
       <c r="D42" s="54"/>
-      <c r="E42" s="243"/>
-      <c r="F42" s="244"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="243"/>
-      <c r="I42" s="244"/>
-      <c r="J42" s="71"/>
+      <c r="E42" s="249"/>
+      <c r="F42" s="250"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="249"/>
+      <c r="I42" s="250"/>
+      <c r="J42" s="70"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="241" t="s">
-        <v>161</v>
-      </c>
-      <c r="B43" s="242"/>
-      <c r="C43" s="242"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="263"/>
-      <c r="F43" s="264"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="263"/>
-      <c r="I43" s="264"/>
-      <c r="J43" s="72"/>
+      <c r="A43" s="247" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" s="248"/>
+      <c r="C43" s="248"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="266"/>
+      <c r="F43" s="267"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="266"/>
+      <c r="I43" s="267"/>
+      <c r="J43" s="71"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
@@ -6597,66 +6807,78 @@
       <c r="J44" s="24"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="245" t="s">
-        <v>142</v>
-      </c>
-      <c r="B45" s="246"/>
-      <c r="C45" s="246"/>
-      <c r="D45" s="246"/>
-      <c r="E45" s="246"/>
-      <c r="F45" s="246"/>
-      <c r="G45" s="246"/>
-      <c r="H45" s="246"/>
-      <c r="I45" s="246"/>
-      <c r="J45" s="247"/>
+      <c r="A45" s="253" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" s="254"/>
+      <c r="C45" s="254"/>
+      <c r="D45" s="254"/>
+      <c r="E45" s="254"/>
+      <c r="F45" s="254"/>
+      <c r="G45" s="254"/>
+      <c r="H45" s="254"/>
+      <c r="I45" s="254"/>
+      <c r="J45" s="255"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="248" t="s">
-        <v>143</v>
-      </c>
-      <c r="B46" s="249"/>
-      <c r="C46" s="249"/>
-      <c r="D46" s="249"/>
-      <c r="E46" s="250"/>
-      <c r="F46" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="G46" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="H46" s="251" t="s">
-        <v>146</v>
-      </c>
-      <c r="I46" s="251"/>
-      <c r="J46" s="252"/>
+      <c r="A46" s="256" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" s="257"/>
+      <c r="C46" s="257"/>
+      <c r="D46" s="257"/>
+      <c r="E46" s="258"/>
+      <c r="F46" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="H46" s="259" t="s">
+        <v>141</v>
+      </c>
+      <c r="I46" s="259"/>
+      <c r="J46" s="260"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="253"/>
-      <c r="B47" s="254"/>
-      <c r="C47" s="254"/>
-      <c r="D47" s="254"/>
-      <c r="E47" s="255"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="256" t="s">
-        <v>166</v>
-      </c>
-      <c r="I47" s="256"/>
-      <c r="J47" s="257"/>
+      <c r="A47" s="261" t="s">
+        <v>528</v>
+      </c>
+      <c r="B47" s="262"/>
+      <c r="C47" s="262"/>
+      <c r="D47" s="262"/>
+      <c r="E47" s="263"/>
+      <c r="F47" s="55">
+        <v>36912</v>
+      </c>
+      <c r="G47" s="59">
+        <v>37642</v>
+      </c>
+      <c r="H47" s="264" t="s">
+        <v>161</v>
+      </c>
+      <c r="I47" s="264"/>
+      <c r="J47" s="265"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="265"/>
-      <c r="B48" s="266"/>
-      <c r="C48" s="266"/>
-      <c r="D48" s="266"/>
-      <c r="E48" s="267"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="256" t="s">
-        <v>164</v>
-      </c>
-      <c r="I48" s="256"/>
-      <c r="J48" s="257"/>
+      <c r="A48" s="268" t="s">
+        <v>508</v>
+      </c>
+      <c r="B48" s="269"/>
+      <c r="C48" s="269"/>
+      <c r="D48" s="269"/>
+      <c r="E48" s="270"/>
+      <c r="F48" s="61">
+        <v>32894</v>
+      </c>
+      <c r="G48" s="62">
+        <v>36546</v>
+      </c>
+      <c r="H48" s="264" t="s">
+        <v>159</v>
+      </c>
+      <c r="I48" s="264"/>
+      <c r="J48" s="265"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
@@ -6671,66 +6893,66 @@
       <c r="J49" s="24"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="245" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" s="246"/>
-      <c r="C50" s="246"/>
-      <c r="D50" s="246"/>
-      <c r="E50" s="246"/>
-      <c r="F50" s="246"/>
-      <c r="G50" s="246"/>
-      <c r="H50" s="246"/>
-      <c r="I50" s="246"/>
-      <c r="J50" s="247"/>
+      <c r="A50" s="253" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="254"/>
+      <c r="C50" s="254"/>
+      <c r="D50" s="254"/>
+      <c r="E50" s="254"/>
+      <c r="F50" s="254"/>
+      <c r="G50" s="254"/>
+      <c r="H50" s="254"/>
+      <c r="I50" s="254"/>
+      <c r="J50" s="255"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="248" t="s">
-        <v>148</v>
-      </c>
-      <c r="B51" s="249"/>
-      <c r="C51" s="249"/>
-      <c r="D51" s="249"/>
-      <c r="E51" s="250"/>
-      <c r="F51" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="G51" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="H51" s="251" t="s">
-        <v>146</v>
-      </c>
-      <c r="I51" s="251"/>
-      <c r="J51" s="252"/>
+      <c r="A51" s="256" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="257"/>
+      <c r="C51" s="257"/>
+      <c r="D51" s="257"/>
+      <c r="E51" s="258"/>
+      <c r="F51" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="G51" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="H51" s="259" t="s">
+        <v>141</v>
+      </c>
+      <c r="I51" s="259"/>
+      <c r="J51" s="260"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="253"/>
-      <c r="B52" s="254"/>
-      <c r="C52" s="254"/>
-      <c r="D52" s="254"/>
-      <c r="E52" s="255"/>
+      <c r="A52" s="261"/>
+      <c r="B52" s="262"/>
+      <c r="C52" s="262"/>
+      <c r="D52" s="262"/>
+      <c r="E52" s="263"/>
       <c r="F52" s="55"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="256" t="s">
-        <v>166</v>
-      </c>
-      <c r="I52" s="256"/>
-      <c r="J52" s="257"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="264" t="s">
+        <v>161</v>
+      </c>
+      <c r="I52" s="264"/>
+      <c r="J52" s="265"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="265"/>
-      <c r="B53" s="266"/>
-      <c r="C53" s="266"/>
-      <c r="D53" s="266"/>
-      <c r="E53" s="267"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="256" t="s">
-        <v>164</v>
-      </c>
-      <c r="I53" s="256"/>
-      <c r="J53" s="257"/>
+      <c r="A53" s="268"/>
+      <c r="B53" s="269"/>
+      <c r="C53" s="269"/>
+      <c r="D53" s="269"/>
+      <c r="E53" s="270"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="264" t="s">
+        <v>159</v>
+      </c>
+      <c r="I53" s="264"/>
+      <c r="J53" s="265"/>
     </row>
     <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
@@ -6745,225 +6967,237 @@
       <c r="J54" s="24"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="245" t="s">
+      <c r="A55" s="253" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="254"/>
+      <c r="C55" s="254"/>
+      <c r="D55" s="254"/>
+      <c r="E55" s="254"/>
+      <c r="F55" s="254"/>
+      <c r="G55" s="254"/>
+      <c r="H55" s="254"/>
+      <c r="I55" s="254"/>
+      <c r="J55" s="255"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="280" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" s="281"/>
+      <c r="C56" s="281"/>
+      <c r="D56" s="281"/>
+      <c r="E56" s="281"/>
+      <c r="F56" s="281"/>
+      <c r="G56" s="281"/>
+      <c r="H56" s="285"/>
+      <c r="I56" s="285"/>
+      <c r="J56" s="286"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="273"/>
+      <c r="B57" s="271"/>
+      <c r="C57" s="271"/>
+      <c r="D57" s="271"/>
+      <c r="E57" s="271"/>
+      <c r="F57" s="271"/>
+      <c r="G57" s="271"/>
+      <c r="H57" s="271"/>
+      <c r="I57" s="271"/>
+      <c r="J57" s="272"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="273" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" s="271"/>
+      <c r="C58" s="271"/>
+      <c r="D58" s="271"/>
+      <c r="E58" s="271"/>
+      <c r="F58" s="271"/>
+      <c r="G58" s="274" t="s">
+        <v>147</v>
+      </c>
+      <c r="H58" s="274"/>
+      <c r="I58" s="274"/>
+      <c r="J58" s="275"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="276"/>
+      <c r="B59" s="277"/>
+      <c r="C59" s="277"/>
+      <c r="D59" s="277"/>
+      <c r="E59" s="277"/>
+      <c r="F59" s="277"/>
+      <c r="G59" s="278"/>
+      <c r="H59" s="278"/>
+      <c r="I59" s="278"/>
+      <c r="J59" s="279"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="273"/>
+      <c r="B60" s="271"/>
+      <c r="C60" s="271"/>
+      <c r="D60" s="271"/>
+      <c r="E60" s="271"/>
+      <c r="F60" s="271"/>
+      <c r="G60" s="271"/>
+      <c r="H60" s="271"/>
+      <c r="I60" s="271"/>
+      <c r="J60" s="272"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="273" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="271"/>
+      <c r="C61" s="271"/>
+      <c r="D61" s="271"/>
+      <c r="E61" s="271"/>
+      <c r="F61" s="271"/>
+      <c r="G61" s="271"/>
+      <c r="H61" s="271"/>
+      <c r="I61" s="271"/>
+      <c r="J61" s="272"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="287"/>
+      <c r="B62" s="281"/>
+      <c r="C62" s="281"/>
+      <c r="D62" s="281"/>
+      <c r="E62" s="281"/>
+      <c r="F62" s="281"/>
+      <c r="G62" s="281"/>
+      <c r="H62" s="281"/>
+      <c r="I62" s="281"/>
+      <c r="J62" s="288"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="287"/>
+      <c r="B63" s="281"/>
+      <c r="C63" s="281"/>
+      <c r="D63" s="281"/>
+      <c r="E63" s="281"/>
+      <c r="F63" s="281"/>
+      <c r="G63" s="281"/>
+      <c r="H63" s="281"/>
+      <c r="I63" s="281"/>
+      <c r="J63" s="288"/>
+    </row>
+    <row r="64" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="280" t="s">
         <v>149</v>
       </c>
-      <c r="B55" s="246"/>
-      <c r="C55" s="246"/>
-      <c r="D55" s="246"/>
-      <c r="E55" s="246"/>
-      <c r="F55" s="246"/>
-      <c r="G55" s="246"/>
-      <c r="H55" s="246"/>
-      <c r="I55" s="246"/>
-      <c r="J55" s="247"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="271" t="s">
+      <c r="B64" s="281"/>
+      <c r="C64" s="281"/>
+      <c r="D64" s="281"/>
+      <c r="E64" s="281"/>
+      <c r="F64" s="281"/>
+      <c r="G64" s="281"/>
+      <c r="H64" s="285" t="s">
+        <v>483</v>
+      </c>
+      <c r="I64" s="285"/>
+      <c r="J64" s="286"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="280" t="s">
         <v>150</v>
       </c>
-      <c r="B56" s="272"/>
-      <c r="C56" s="272"/>
-      <c r="D56" s="272"/>
-      <c r="E56" s="272"/>
-      <c r="F56" s="272"/>
-      <c r="G56" s="272"/>
-      <c r="H56" s="273"/>
-      <c r="I56" s="273"/>
-      <c r="J56" s="274"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="260"/>
-      <c r="B57" s="261"/>
-      <c r="C57" s="261"/>
-      <c r="D57" s="261"/>
-      <c r="E57" s="261"/>
-      <c r="F57" s="261"/>
-      <c r="G57" s="261"/>
-      <c r="H57" s="261"/>
-      <c r="I57" s="261"/>
-      <c r="J57" s="262"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="260" t="s">
+      <c r="B65" s="281"/>
+      <c r="C65" s="281"/>
+      <c r="D65" s="281"/>
+      <c r="E65" s="281"/>
+      <c r="F65" s="281"/>
+      <c r="G65" s="281"/>
+      <c r="H65" s="285" t="s">
+        <v>483</v>
+      </c>
+      <c r="I65" s="285"/>
+      <c r="J65" s="286"/>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="289"/>
+      <c r="B66" s="290"/>
+      <c r="C66" s="290"/>
+      <c r="D66" s="290"/>
+      <c r="E66" s="290"/>
+      <c r="F66" s="290"/>
+      <c r="G66" s="290"/>
+      <c r="H66" s="290"/>
+      <c r="I66" s="290"/>
+      <c r="J66" s="291"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="292" t="s">
         <v>151</v>
       </c>
-      <c r="B58" s="261"/>
-      <c r="C58" s="261"/>
-      <c r="D58" s="261"/>
-      <c r="E58" s="261"/>
-      <c r="F58" s="261"/>
-      <c r="G58" s="278" t="s">
+      <c r="B67" s="293"/>
+      <c r="C67" s="293"/>
+      <c r="D67" s="293"/>
+      <c r="E67" s="106" t="s">
+        <v>483</v>
+      </c>
+      <c r="F67" s="294" t="s">
         <v>152</v>
       </c>
-      <c r="H58" s="278"/>
-      <c r="I58" s="278"/>
-      <c r="J58" s="279"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="280"/>
-      <c r="B59" s="281"/>
-      <c r="C59" s="281"/>
-      <c r="D59" s="281"/>
-      <c r="E59" s="281"/>
-      <c r="F59" s="281"/>
-      <c r="G59" s="258"/>
-      <c r="H59" s="258"/>
-      <c r="I59" s="258"/>
-      <c r="J59" s="259"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="260"/>
-      <c r="B60" s="261"/>
-      <c r="C60" s="261"/>
-      <c r="D60" s="261"/>
-      <c r="E60" s="261"/>
-      <c r="F60" s="261"/>
-      <c r="G60" s="261"/>
-      <c r="H60" s="261"/>
-      <c r="I60" s="261"/>
-      <c r="J60" s="262"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="260" t="s">
+      <c r="G67" s="294"/>
+      <c r="H67" s="294"/>
+      <c r="I67" s="294"/>
+      <c r="J67" s="107" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="282" t="s">
         <v>153</v>
       </c>
-      <c r="B61" s="261"/>
-      <c r="C61" s="261"/>
-      <c r="D61" s="261"/>
-      <c r="E61" s="261"/>
-      <c r="F61" s="261"/>
-      <c r="G61" s="261"/>
-      <c r="H61" s="261"/>
-      <c r="I61" s="261"/>
-      <c r="J61" s="262"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="276"/>
-      <c r="B62" s="272"/>
-      <c r="C62" s="272"/>
-      <c r="D62" s="272"/>
-      <c r="E62" s="272"/>
-      <c r="F62" s="272"/>
-      <c r="G62" s="272"/>
-      <c r="H62" s="272"/>
-      <c r="I62" s="272"/>
-      <c r="J62" s="277"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="276"/>
-      <c r="B63" s="272"/>
-      <c r="C63" s="272"/>
-      <c r="D63" s="272"/>
-      <c r="E63" s="272"/>
-      <c r="F63" s="272"/>
-      <c r="G63" s="272"/>
-      <c r="H63" s="272"/>
-      <c r="I63" s="272"/>
-      <c r="J63" s="277"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="271" t="s">
+      <c r="B68" s="283"/>
+      <c r="C68" s="283"/>
+      <c r="D68" s="283"/>
+      <c r="E68" s="108" t="s">
+        <v>483</v>
+      </c>
+      <c r="F68" s="284" t="s">
         <v>154</v>
       </c>
-      <c r="B64" s="272"/>
-      <c r="C64" s="272"/>
-      <c r="D64" s="272"/>
-      <c r="E64" s="272"/>
-      <c r="F64" s="272"/>
-      <c r="G64" s="272"/>
-      <c r="H64" s="273"/>
-      <c r="I64" s="273"/>
-      <c r="J64" s="274"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="271" t="s">
-        <v>155</v>
-      </c>
-      <c r="B65" s="272"/>
-      <c r="C65" s="272"/>
-      <c r="D65" s="272"/>
-      <c r="E65" s="272"/>
-      <c r="F65" s="272"/>
-      <c r="G65" s="272"/>
-      <c r="H65" s="273"/>
-      <c r="I65" s="273"/>
-      <c r="J65" s="274"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="282"/>
-      <c r="B66" s="283"/>
-      <c r="C66" s="283"/>
-      <c r="D66" s="283"/>
-      <c r="E66" s="283"/>
-      <c r="F66" s="283"/>
-      <c r="G66" s="283"/>
-      <c r="H66" s="283"/>
-      <c r="I66" s="283"/>
-      <c r="J66" s="284"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="271" t="s">
-        <v>156</v>
-      </c>
-      <c r="B67" s="275"/>
-      <c r="C67" s="275"/>
-      <c r="D67" s="275"/>
-      <c r="E67" s="75"/>
-      <c r="F67" s="272" t="s">
-        <v>157</v>
-      </c>
-      <c r="G67" s="272"/>
-      <c r="H67" s="272"/>
-      <c r="I67" s="272"/>
-      <c r="J67" s="76"/>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="268" t="s">
-        <v>158</v>
-      </c>
-      <c r="B68" s="269"/>
-      <c r="C68" s="269"/>
-      <c r="D68" s="269"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="270" t="s">
-        <v>159</v>
-      </c>
-      <c r="G68" s="270"/>
-      <c r="H68" s="270"/>
-      <c r="I68" s="270"/>
-      <c r="J68" s="78"/>
+      <c r="G68" s="284"/>
+      <c r="H68" s="284"/>
+      <c r="I68" s="284"/>
+      <c r="J68" s="109" t="s">
+        <v>483</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="H56:J56"/>
     <mergeCell ref="A63:J63"/>
     <mergeCell ref="A65:G65"/>
     <mergeCell ref="H65:J65"/>
     <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="A57:J57"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="F67:I67"/>
     <mergeCell ref="A62:J62"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="H64:J64"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="A57:J57"/>
     <mergeCell ref="A58:F58"/>
     <mergeCell ref="G58:J58"/>
     <mergeCell ref="A59:F59"/>
     <mergeCell ref="G59:J59"/>
     <mergeCell ref="A60:J60"/>
     <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A56:G56"/>
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="E42:F42"/>
@@ -6979,18 +7213,17 @@
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="H48:J48"/>
-    <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="E40:F40"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="E40:F40"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A38:C38"/>
@@ -7006,6 +7239,7 @@
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A34:C34"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A7:C7"/>
@@ -7023,7 +7257,7 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A5:C5"/>
   </mergeCells>
-  <dataValidations count="42">
+  <dataValidations count="41">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please check the Date entered. Date format has to be DD-MMM-YY, e.g. 31-Jan-08..." promptTitle="Date Format" prompt="Please Enter Date in DD-MM-YYYY Format !!!" sqref="F2:G38" xr:uid="{1C93B122-105A-4AFF-BF81-27E0912B3B72}">
       <formula1>1</formula1>
     </dataValidation>
@@ -7040,10 +7274,10 @@
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry !!!" error="Please make a valid Text Entry..." sqref="H6 J6" xr:uid="{239FDBED-9A97-4D27-9698-CD11742F596A}">
       <formula1>(COUNT(MATCH(CODE(MID(H6,ROW(INDIRECT("1:"&amp;LEN(H6))),1)),ROW(59:68),0)))=0</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry !!!" error="Please make a valid Text Entry..." sqref="H5 J5" xr:uid="{4BC1A139-A22C-485E-A7B1-B0F40CB1226C}">
-      <formula1>(COUNT(MATCH(CODE(MID(H5,ROW(INDIRECT("1:"&amp;LEN(H5))),1)),ROW(58:68),0)))=0</formula1>
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry !!!" error="Please make a valid Text Entry..." sqref="J5" xr:uid="{4BC1A139-A22C-485E-A7B1-B0F40CB1226C}">
+      <formula1>(COUNT(MATCH(CODE(MID(J5,ROW(INDIRECT("1:"&amp;LEN(J5))),1)),ROW(58:68),0)))=0</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry !!!" error="Please make a valid Text Entry..." sqref="H2:H4 J2:J4" xr:uid="{18025EF3-4473-4BD1-8FE7-9752E08C5190}">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry !!!" error="Please make a valid Text Entry..." sqref="J2:J4 H2:H5" xr:uid="{18025EF3-4473-4BD1-8FE7-9752E08C5190}">
       <formula1>(COUNT(MATCH(CODE(MID(H2,ROW(INDIRECT("1:"&amp;LEN(H2))),1)),ROW(55:63),0)))=0</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry !!!" error="Please make a valid Text Entry..." sqref="H38 J38" xr:uid="{E85EE9B4-5AD5-43A4-BA4B-A23EEFF5F67F}">
@@ -7145,9 +7379,6 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Rank" error="Please Enter / Select a valid Opion from the List..." sqref="H56:J56" xr:uid="{54388C12-51F6-4637-8F72-89693D82C7A2}">
       <formula1>$IM$65525:$IV$65526</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please Select a valid Option from the List..." sqref="E67:E68 H64:J65 J67:J68" xr:uid="{C6DDDD04-A8D2-4AE7-A461-AFDDEE2D80DE}">
-      <formula1>$IM$65525:$IM$65526</formula1>
-    </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please check the Date entered. Date format has to be DD-MMM-YY, e.g. 31-Jan-08..." sqref="J41:J43 G41:G43" xr:uid="{647C47BE-46C9-4614-A9E0-EBFFA5D6CAAC}">
       <formula1>1</formula1>
     </dataValidation>
@@ -7155,7 +7386,13 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please Select a valid Option from the List..." xr:uid="{C6DDDD04-A8D2-4AE7-A461-AFDDEE2D80DE}">
+          <x14:formula1>
+            <xm:f>'Data Values'!$L$2:$L$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>H64:J65 E67:E68 J67:J68</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{24CB796B-9142-465D-A1BA-C635846241D1}">
           <x14:formula1>
             <xm:f>'Data Values'!$D$2:$D$11</xm:f>
@@ -7184,1118 +7421,1142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11292C7-7A77-410F-B664-D642BCB1ABD9}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="285" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="295" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="295"/>
+      <c r="K1" s="295"/>
+      <c r="L1" s="295"/>
+      <c r="M1" s="295"/>
+      <c r="N1" s="295"/>
+      <c r="O1" s="295"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="74"/>
+      <c r="B2" s="295"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="295"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="295"/>
+      <c r="M2" s="295"/>
+      <c r="N2" s="295"/>
+      <c r="O2" s="295"/>
+    </row>
+    <row r="3" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+      <c r="A3" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="285"/>
-      <c r="L1" s="285"/>
-      <c r="M1" s="285"/>
-      <c r="N1" s="285"/>
-      <c r="O1" s="285"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79"/>
-      <c r="B2" s="285"/>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="285"/>
-      <c r="H2" s="285"/>
-      <c r="I2" s="285"/>
-      <c r="J2" s="285"/>
-      <c r="K2" s="285"/>
-      <c r="L2" s="285"/>
-      <c r="M2" s="285"/>
-      <c r="N2" s="285"/>
-      <c r="O2" s="285"/>
-    </row>
-    <row r="3" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="F3" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="H3" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="I3" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="J3" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="K3" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F3" s="81" t="s">
-        <v>160</v>
-      </c>
-      <c r="G3" s="81" t="s">
+      <c r="L3" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="H3" s="81" t="s">
+      <c r="M3" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="N3" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="O3" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="J3" s="81" t="s">
-        <v>176</v>
-      </c>
-      <c r="K3" s="81" t="s">
-        <v>177</v>
-      </c>
-      <c r="L3" s="81" t="s">
-        <v>178</v>
-      </c>
-      <c r="M3" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="N3" s="81" t="s">
-        <v>179</v>
-      </c>
-      <c r="O3" s="83" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="84">
+    </row>
+    <row r="4" spans="1:15" ht="36" x14ac:dyDescent="0.25">
+      <c r="A4" s="79">
         <v>1</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="91" t="str">
-        <f t="shared" ref="N4:N48" si="0">IF(OR(L4="",M4=""),"",DiffDate(L4,M4))</f>
+      <c r="B4" s="80" t="s">
+        <v>529</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>530</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>463</v>
+      </c>
+      <c r="G4" s="83">
+        <v>200</v>
+      </c>
+      <c r="H4" s="83">
+        <v>200</v>
+      </c>
+      <c r="I4" s="84">
+        <v>100</v>
+      </c>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="85">
+        <v>40199</v>
+      </c>
+      <c r="M4" s="85">
+        <v>42756</v>
+      </c>
+      <c r="N4" s="86" t="e">
+        <f ca="1">IF(OR(L4="",M4=""),"",DiffDate(L4,M4))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O4" s="87"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="79">
+        <v>2</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="87"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="79">
+        <v>3</v>
+      </c>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="86" t="str">
+        <f t="shared" ref="N5:N48" si="0">IF(OR(L6="",M6=""),"",DiffDate(L6,M6))</f>
         <v/>
       </c>
-      <c r="O4" s="92"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="84">
-        <v>2</v>
-      </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="91" t="str">
+      <c r="O6" s="87"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="79">
+        <v>4</v>
+      </c>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O5" s="92"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="84">
-        <v>3</v>
-      </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="91" t="str">
+      <c r="O7" s="87"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="79">
+        <v>5</v>
+      </c>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O6" s="92"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="84">
-        <v>4</v>
-      </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="91" t="str">
+      <c r="O8" s="87"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="79">
+        <v>6</v>
+      </c>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O7" s="92"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="84">
-        <v>5</v>
-      </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="91" t="str">
+      <c r="O9" s="87"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="79">
+        <v>7</v>
+      </c>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O8" s="92"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="84">
-        <v>6</v>
-      </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="91" t="str">
+      <c r="O10" s="87"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="79">
+        <v>8</v>
+      </c>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O9" s="92"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="84">
-        <v>7</v>
-      </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="91" t="str">
+      <c r="O11" s="87"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="79">
+        <v>9</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O10" s="92"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="84">
-        <v>8</v>
-      </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="91" t="str">
+      <c r="O12" s="87"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="79">
+        <v>10</v>
+      </c>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O11" s="92"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="84">
-        <v>9</v>
-      </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="91" t="str">
+      <c r="O13" s="87"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="79">
+        <v>11</v>
+      </c>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O12" s="92"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="84">
-        <v>10</v>
-      </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="91" t="str">
+      <c r="O14" s="87"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="79">
+        <v>12</v>
+      </c>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O13" s="92"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="84">
-        <v>11</v>
-      </c>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="91" t="str">
+      <c r="O15" s="87"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="79">
+        <v>13</v>
+      </c>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O14" s="92"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="84">
-        <v>12</v>
-      </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="91" t="str">
+      <c r="O16" s="87"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="79">
+        <v>14</v>
+      </c>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O15" s="92"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="84">
-        <v>13</v>
-      </c>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="91" t="str">
+      <c r="O17" s="87"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="79">
+        <v>15</v>
+      </c>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O16" s="92"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="84">
-        <v>14</v>
-      </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="91" t="str">
+      <c r="O18" s="87"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="79">
+        <v>16</v>
+      </c>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O17" s="92"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="84">
-        <v>15</v>
-      </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="91" t="str">
+      <c r="O19" s="87"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="79">
+        <v>17</v>
+      </c>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O18" s="92"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="84">
-        <v>16</v>
-      </c>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="91" t="str">
+      <c r="O20" s="87"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="79">
+        <v>18</v>
+      </c>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O19" s="92"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="84">
-        <v>17</v>
-      </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="91" t="str">
+      <c r="O21" s="87"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="79">
+        <v>19</v>
+      </c>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O20" s="92"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="84">
-        <v>18</v>
-      </c>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="91" t="str">
+      <c r="O22" s="87"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="79">
+        <v>20</v>
+      </c>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O21" s="92"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="84">
-        <v>19</v>
-      </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="91" t="str">
+      <c r="O23" s="87"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="79">
+        <v>21</v>
+      </c>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O22" s="92"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="84">
-        <v>20</v>
-      </c>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="91" t="str">
+      <c r="O24" s="87"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="79">
+        <v>22</v>
+      </c>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O23" s="92"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="84">
-        <v>21</v>
-      </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="91" t="str">
+      <c r="O25" s="87"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="79">
+        <v>23</v>
+      </c>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O24" s="92"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="84">
-        <v>22</v>
-      </c>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="91" t="str">
+      <c r="O26" s="87"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="79">
+        <v>24</v>
+      </c>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O25" s="92"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="84">
-        <v>23</v>
-      </c>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="91" t="str">
+      <c r="O27" s="87"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="90">
+        <v>25</v>
+      </c>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="96" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O26" s="92"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="84">
-        <v>24</v>
-      </c>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="91" t="str">
+      <c r="O28" s="87"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="97">
+        <v>26</v>
+      </c>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="103" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O27" s="92"/>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="95">
-        <v>25</v>
-      </c>
-      <c r="B28" s="96"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="101" t="str">
+      <c r="O29" s="87"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="79">
+        <v>27</v>
+      </c>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O28" s="92"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="102">
-        <v>26</v>
-      </c>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108" t="str">
+      <c r="O30" s="87"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="79">
+        <v>28</v>
+      </c>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O29" s="92"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="84">
-        <v>27</v>
-      </c>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="91" t="str">
+      <c r="O31" s="87"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="79">
+        <v>29</v>
+      </c>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O30" s="92"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="84">
-        <v>28</v>
-      </c>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="91" t="str">
+      <c r="O32" s="87"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="79">
+        <v>30</v>
+      </c>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O31" s="92"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="84">
-        <v>29</v>
-      </c>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="91" t="str">
+      <c r="O33" s="87"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="79">
+        <v>31</v>
+      </c>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O32" s="92"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="84">
-        <v>30</v>
-      </c>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="91" t="str">
+      <c r="O34" s="87"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="79">
+        <v>32</v>
+      </c>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O33" s="92"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="84">
-        <v>31</v>
-      </c>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="91" t="str">
+      <c r="O35" s="87"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="79">
+        <v>33</v>
+      </c>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O34" s="92"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="84">
-        <v>32</v>
-      </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="91" t="str">
+      <c r="O36" s="87"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="79">
+        <v>34</v>
+      </c>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O35" s="92"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="84">
-        <v>33</v>
-      </c>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="91" t="str">
+      <c r="O37" s="87"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="79">
+        <v>35</v>
+      </c>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O36" s="92"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="84">
-        <v>34</v>
-      </c>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="90"/>
-      <c r="N37" s="91" t="str">
+      <c r="O38" s="87"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="79">
+        <v>36</v>
+      </c>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O37" s="92"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="84">
-        <v>35</v>
-      </c>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="91" t="str">
+      <c r="O39" s="87"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="79">
+        <v>37</v>
+      </c>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O38" s="92"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="84">
-        <v>36</v>
-      </c>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="90"/>
-      <c r="M39" s="90"/>
-      <c r="N39" s="91" t="str">
+      <c r="O40" s="87"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="79">
+        <v>38</v>
+      </c>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O39" s="92"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="84">
-        <v>37</v>
-      </c>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="91" t="str">
+      <c r="O41" s="87"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="79">
+        <v>39</v>
+      </c>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O40" s="92"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="84">
-        <v>38</v>
-      </c>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="90"/>
-      <c r="M41" s="90"/>
-      <c r="N41" s="91" t="str">
+      <c r="O42" s="87"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="79">
+        <v>40</v>
+      </c>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="85"/>
+      <c r="N43" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O41" s="92"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="84">
-        <v>39</v>
-      </c>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="91" t="str">
+      <c r="O43" s="87"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="79">
+        <v>41</v>
+      </c>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O42" s="92"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="84">
-        <v>40</v>
-      </c>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="90"/>
-      <c r="N43" s="91" t="str">
+      <c r="O44" s="87"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="79">
+        <v>42</v>
+      </c>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="85"/>
+      <c r="N45" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O43" s="92"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="84">
-        <v>41</v>
-      </c>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="87"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="90"/>
-      <c r="M44" s="90"/>
-      <c r="N44" s="91" t="str">
+      <c r="O45" s="87"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="79">
+        <v>43</v>
+      </c>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O44" s="92"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
-        <v>42</v>
-      </c>
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="90"/>
-      <c r="M45" s="90"/>
-      <c r="N45" s="91" t="str">
+      <c r="O46" s="87"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="79">
+        <v>44</v>
+      </c>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
+      <c r="L47" s="85"/>
+      <c r="M47" s="85"/>
+      <c r="N47" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O45" s="92"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="84">
-        <v>43</v>
-      </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="90"/>
-      <c r="M46" s="90"/>
-      <c r="N46" s="91" t="str">
+      <c r="O47" s="87"/>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="90">
+        <v>45</v>
+      </c>
+      <c r="B48" s="91"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="92"/>
+      <c r="K48" s="92"/>
+      <c r="L48" s="95"/>
+      <c r="M48" s="95"/>
+      <c r="N48" s="96" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O46" s="92"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="84">
-        <v>44</v>
-      </c>
-      <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="90"/>
-      <c r="M47" s="90"/>
-      <c r="N47" s="91" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O47" s="92"/>
-    </row>
-    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="95">
-        <v>45</v>
-      </c>
-      <c r="B48" s="96"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="98"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="97"/>
-      <c r="K48" s="97"/>
-      <c r="L48" s="100"/>
-      <c r="M48" s="100"/>
-      <c r="N48" s="101" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O48" s="92"/>
+      <c r="O48" s="87"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="79"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="79"/>
-      <c r="K49" s="79"/>
-      <c r="L49" s="79"/>
-      <c r="M49" s="79"/>
-      <c r="N49" s="79"/>
-      <c r="O49" s="79"/>
+      <c r="A49" s="74"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="74"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="79"/>
-      <c r="B50" s="286" t="s">
-        <v>181</v>
-      </c>
-      <c r="C50" s="286"/>
-      <c r="D50" s="286"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="79"/>
-      <c r="K50" s="79"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="79"/>
-      <c r="N50" s="79"/>
-      <c r="O50" s="79"/>
+      <c r="A50" s="74"/>
+      <c r="B50" s="296" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="296"/>
+      <c r="D50" s="296"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8313,6 +8574,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="N4" evalError="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -8348,18 +8612,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA16C4FC-E745-4179-A969-B63C9D20A853}">
-  <dimension ref="A1:M263"/>
+  <dimension ref="A1:L263"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" customWidth="1"/>
     <col min="8" max="8" width="30.5703125" bestFit="1" customWidth="1"/>
@@ -8367,1718 +8631,1703 @@
     <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>472</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>473</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>488</v>
+      </c>
+      <c r="K1" s="66" t="s">
+        <v>490</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" t="s">
+        <v>439</v>
+      </c>
+      <c r="I3" t="s">
+        <v>474</v>
+      </c>
+      <c r="J3" t="s">
+        <v>487</v>
+      </c>
+      <c r="K3" t="s">
+        <v>491</v>
+      </c>
+      <c r="L3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" t="s">
+        <v>440</v>
+      </c>
+      <c r="I4" t="s">
+        <v>475</v>
+      </c>
+      <c r="J4" t="s">
+        <v>489</v>
+      </c>
+      <c r="K4" t="s">
+        <v>492</v>
+      </c>
+      <c r="L4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" t="s">
+        <v>441</v>
+      </c>
+      <c r="I5" t="s">
+        <v>476</v>
+      </c>
+      <c r="K5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" t="s">
+        <v>442</v>
+      </c>
+      <c r="I6" t="s">
+        <v>477</v>
+      </c>
+      <c r="K6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" t="s">
+        <v>443</v>
+      </c>
+      <c r="I7" t="s">
+        <v>478</v>
+      </c>
+      <c r="K7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" t="s">
+        <v>444</v>
+      </c>
+      <c r="I8" t="s">
+        <v>479</v>
+      </c>
+      <c r="K8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="F1" s="67" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" s="67" t="s">
-        <v>182</v>
-      </c>
-      <c r="H1" s="67" t="s">
-        <v>477</v>
-      </c>
-      <c r="I1" s="67" t="s">
-        <v>478</v>
-      </c>
-      <c r="J1" s="67" t="s">
-        <v>494</v>
-      </c>
-      <c r="K1" s="67" t="s">
-        <v>496</v>
-      </c>
-      <c r="L1" s="67" t="s">
+      <c r="G9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H9" t="s">
+        <v>445</v>
+      </c>
+      <c r="I9" t="s">
+        <v>480</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H10" t="s">
+        <v>446</v>
+      </c>
+      <c r="I10" t="s">
+        <v>481</v>
+      </c>
+      <c r="K10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s">
         <v>507</v>
       </c>
-      <c r="M1" s="67" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H3" t="s">
-        <v>444</v>
-      </c>
-      <c r="I3" t="s">
-        <v>479</v>
-      </c>
-      <c r="J3" t="s">
-        <v>493</v>
-      </c>
-      <c r="K3" t="s">
-        <v>497</v>
-      </c>
-      <c r="L3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H4" t="s">
-        <v>445</v>
-      </c>
-      <c r="I4" t="s">
-        <v>480</v>
-      </c>
-      <c r="J4" t="s">
-        <v>495</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="G11" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" t="s">
+        <v>447</v>
+      </c>
+      <c r="K11" t="s">
         <v>498</v>
       </c>
-      <c r="L4" t="s">
-        <v>488</v>
-      </c>
-      <c r="M4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H5" t="s">
-        <v>446</v>
-      </c>
-      <c r="I5" t="s">
-        <v>481</v>
-      </c>
-      <c r="K5" t="s">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H12" t="s">
+        <v>448</v>
+      </c>
+      <c r="K12" t="s">
         <v>499</v>
       </c>
-      <c r="M5" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" t="s">
-        <v>186</v>
-      </c>
-      <c r="H6" t="s">
-        <v>447</v>
-      </c>
-      <c r="I6" t="s">
-        <v>482</v>
-      </c>
-      <c r="K6" t="s">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" t="s">
+        <v>449</v>
+      </c>
+      <c r="K13" t="s">
         <v>500</v>
       </c>
-      <c r="M6" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H7" t="s">
-        <v>448</v>
-      </c>
-      <c r="I7" t="s">
-        <v>483</v>
-      </c>
-      <c r="K7" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H8" t="s">
-        <v>449</v>
-      </c>
-      <c r="I8" t="s">
-        <v>484</v>
-      </c>
-      <c r="K8" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
         <v>189</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H14" t="s">
         <v>450</v>
       </c>
-      <c r="I9" t="s">
-        <v>485</v>
-      </c>
-      <c r="K9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s">
         <v>190</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H15" t="s">
         <v>451</v>
       </c>
-      <c r="I10" t="s">
-        <v>486</v>
-      </c>
-      <c r="K10" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" t="s">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
         <v>191</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H16" t="s">
         <v>452</v>
-      </c>
-      <c r="K11" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" t="s">
-        <v>192</v>
-      </c>
-      <c r="H12" t="s">
-        <v>453</v>
-      </c>
-      <c r="K12" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" t="s">
-        <v>193</v>
-      </c>
-      <c r="H13" t="s">
-        <v>454</v>
-      </c>
-      <c r="K13" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" t="s">
-        <v>194</v>
-      </c>
-      <c r="H14" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" t="s">
-        <v>195</v>
-      </c>
-      <c r="H15" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" t="s">
-        <v>196</v>
-      </c>
-      <c r="H16" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H17" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="67" t="s">
-        <v>134</v>
+        <v>79</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>130</v>
       </c>
       <c r="G18" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H18" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H19" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H20" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G21" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H21" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H22" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H23" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H24" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H25" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H26" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H27" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H28" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H29" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H30" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H31" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H32" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H33" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H34" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H35" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G57" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G59" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G60" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G62" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G63" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G67" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G70" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G71" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G73" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G74" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G75" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G76" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G77" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G78" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G80" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G81" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G82" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G83" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="84" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G84" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="85" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G85" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G86" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G87" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G88" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="89" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G89" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G90" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="91" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G91" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="92" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G92" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="93" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G93" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="94" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G94" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="95" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G95" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="96" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G96" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="97" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G97" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G98" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="99" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G99" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G100" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="101" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G101" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="102" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G102" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G103" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G104" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="105" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G105" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G106" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="107" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G107" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="108" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G108" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="109" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G109" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="110" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G110" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="111" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G111" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="112" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G112" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="113" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G113" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="114" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G114" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="115" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G115" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="116" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G116" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="117" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G117" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="118" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G118" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="119" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G119" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="120" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G120" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="121" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G121" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="122" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G122" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="123" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G123" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="124" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G124" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="125" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G125" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="126" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G126" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G127" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="128" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G128" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="129" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G129" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="130" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G130" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="131" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G131" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="132" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G132" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="133" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G133" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="134" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G134" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="135" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G135" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="136" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G136" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="137" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G137" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="138" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G138" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="139" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G139" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="140" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G140" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="141" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G141" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="142" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G142" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="143" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G143" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="144" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G144" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="145" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G145" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="146" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G146" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="147" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G147" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="148" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G148" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="149" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G149" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="150" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G150" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="151" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G151" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="152" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G152" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="153" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G153" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="154" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G154" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="155" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G155" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="156" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G156" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="157" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G157" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="158" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G158" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="159" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G159" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="160" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G160" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="161" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G161" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="162" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G162" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="163" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G163" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="164" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G164" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="165" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G165" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="166" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G166" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="167" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G167" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="168" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G168" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="169" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G169" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="170" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G170" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="171" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G171" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="172" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G172" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="173" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G173" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="174" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G174" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="175" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G175" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="176" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G176" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="177" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G177" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="178" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G178" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="179" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G179" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="180" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G180" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="181" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G181" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="182" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G182" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="183" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G183" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="184" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G184" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="185" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G185" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="186" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G186" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="187" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G187" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="188" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G188" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="189" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G189" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="190" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G190" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="191" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G191" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="192" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G192" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="193" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G193" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="194" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G194" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="195" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G195" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="196" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G196" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="197" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G197" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="198" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G198" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="199" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G199" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="200" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G200" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="201" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G201" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="202" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G202" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="203" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G203" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="204" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G204" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="205" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G205" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="206" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G206" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="207" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G207" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="208" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G208" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="209" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G209" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="210" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G210" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="211" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G211" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="212" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G212" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="213" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G213" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="214" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G214" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="215" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G215" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="216" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G216" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="217" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G217" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="218" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G218" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="219" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G219" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="220" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G220" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="221" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G221" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="222" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G222" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="223" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G223" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="224" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G224" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="225" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G225" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="226" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G226" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="227" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G227" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="228" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G228" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="229" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G229" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="230" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G230" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="231" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G231" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="232" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G232" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="233" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G233" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="234" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G234" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="235" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G235" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="236" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G236" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="237" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G237" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="238" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G238" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="239" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G239" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="240" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G240" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="241" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G241" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="242" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G242" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="243" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G243" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="244" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G244" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="245" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G245" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="246" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G246" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="247" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G247" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="248" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G248" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="249" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G249" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="250" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G250" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="251" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G251" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="252" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G252" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="253" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G253" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="254" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G254" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="255" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G255" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="256" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G256" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="257" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G257" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="258" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G258" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="259" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G259" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="260" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G260" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="261" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G261" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="262" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G262" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="263" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G263" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/Pranav.xlsx
+++ b/Pranav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shipping_erp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680552C6-2EA1-4562-96CB-D475A55F3704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F28456-6F53-436B-97A7-A134787E8E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="556">
   <si>
     <t xml:space="preserve">401/402 Raheja Plaza, 15/B Shah Industrial Estate, Off Andheri Link Road, Andheri (West), Mumbai 400 053. Maharashtra. India. </t>
   </si>
@@ -1715,6 +1715,81 @@
   </si>
   <si>
     <t>Vessel AA</t>
+  </si>
+  <si>
+    <t>Ratings Forming Part of a Navigational Watch (RFPNW)</t>
+  </si>
+  <si>
+    <t>Ratings as Able Seafarer Deck (RASD)</t>
+  </si>
+  <si>
+    <t>Ratings Forming Part of a Watch in a Manned Engine-room or designated to perform duties in a Periodically Unmanned Engine-room (RFPWMUER)</t>
+  </si>
+  <si>
+    <t>Ratings as Able Seafarer Engine in a Manned Engine-room or designated to perform duties in a Periodically Unmanned Engine-room (RASEMUER)</t>
+  </si>
+  <si>
+    <t>GOC for GMDSS (GOCGMDSS)</t>
+  </si>
+  <si>
+    <t>Basic Training for Oil and Chemical Tanker Cargo Operations (BTOCTCO)</t>
+  </si>
+  <si>
+    <t>Advance Training for Oil Tanker Cargo Operations (ATOTCO)</t>
+  </si>
+  <si>
+    <t>Advance Training for Chemical Tanker Cargo Operations (ATCTCO)</t>
+  </si>
+  <si>
+    <t>Basic Training for Liquefied Gas Tanker Cargo Operations (BTLGTCO)</t>
+  </si>
+  <si>
+    <t>Advanced Training for Liquefied Gas Tanker Cargo Operations (ATLGTCO)</t>
+  </si>
+  <si>
+    <t>Safety Training for Personnel Providing Direct Service to Passengers in Passenger Spaces (STPPDSPPS)</t>
+  </si>
+  <si>
+    <t>Passenger Ship Crowd Management Training (PSCMT)</t>
+  </si>
+  <si>
+    <t>Passenger Ship Crisis Management and Human Behaviour Training (PSCMHBT)</t>
+  </si>
+  <si>
+    <t>Passenger Safety, Cargo Safety and Hull Integrity Training (PSCSHIT)</t>
+  </si>
+  <si>
+    <t>Proficiency in Survival Craft and Rescue Boats other than Fast Rescue Boats (PSCRBOFRB)</t>
+  </si>
+  <si>
+    <t>Proficiency in Fast Rescue Boats (PFRB)</t>
+  </si>
+  <si>
+    <t>Advanced Fire Fighting (AFF)</t>
+  </si>
+  <si>
+    <t>Medical First Aid (MFA)</t>
+  </si>
+  <si>
+    <t>Medical Care (MCARE)</t>
+  </si>
+  <si>
+    <t>Ship Security Officers (SSO)</t>
+  </si>
+  <si>
+    <t>Security Awareness Training and Seafarers with Designated Duties (SATSDD)</t>
+  </si>
+  <si>
+    <t>Refresher on Basic Training (RBT)</t>
+  </si>
+  <si>
+    <t>Refresher Training on PSCRB (RPSCRB)</t>
+  </si>
+  <si>
+    <t>Refresher Training on PFRB (RPFRB)</t>
+  </si>
+  <si>
+    <t>Refresher on AFF (RAFF)</t>
   </si>
 </sst>
 </file>
@@ -2825,16 +2900,323 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2909,20 +3291,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2959,294 +3327,208 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3254,218 +3536,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4016,12 +4091,12 @@
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
       <c r="P1" s="23"/>
-      <c r="Q1" s="113" t="s">
+      <c r="Q1" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="115"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="202"/>
+      <c r="T1" s="203"/>
     </row>
     <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="25"/>
@@ -4039,10 +4114,10 @@
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
       <c r="P2" s="27"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="118"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="206"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B3" s="28" t="s">
@@ -4062,10 +4137,10 @@
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="30"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="118"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="206"/>
     </row>
     <row r="4" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="28"/>
@@ -4085,171 +4160,171 @@
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
       <c r="P4" s="30"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="118"/>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="205"/>
+      <c r="T4" s="206"/>
     </row>
     <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="210" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="121"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="211"/>
+      <c r="L5" s="211"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="211"/>
+      <c r="O5" s="211"/>
+      <c r="P5" s="212"/>
+      <c r="Q5" s="207"/>
+      <c r="R5" s="208"/>
+      <c r="S5" s="208"/>
+      <c r="T5" s="209"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="213" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="214"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="214"/>
+      <c r="K6" s="214"/>
+      <c r="L6" s="214"/>
+      <c r="M6" s="214"/>
+      <c r="N6" s="214"/>
+      <c r="O6" s="214"/>
+      <c r="P6" s="214"/>
+      <c r="Q6" s="214"/>
+      <c r="R6" s="214"/>
+      <c r="S6" s="214"/>
+      <c r="T6" s="214"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="128"/>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="128"/>
-      <c r="S7" s="128"/>
-      <c r="T7" s="129"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
+      <c r="H7" s="216"/>
+      <c r="I7" s="216"/>
+      <c r="J7" s="216"/>
+      <c r="K7" s="216"/>
+      <c r="L7" s="216"/>
+      <c r="M7" s="216"/>
+      <c r="N7" s="216"/>
+      <c r="O7" s="216"/>
+      <c r="P7" s="216"/>
+      <c r="Q7" s="216"/>
+      <c r="R7" s="216"/>
+      <c r="S7" s="216"/>
+      <c r="T7" s="217"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="128"/>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="128"/>
-      <c r="R8" s="128"/>
-      <c r="S8" s="128"/>
-      <c r="T8" s="129"/>
+      <c r="C8" s="216"/>
+      <c r="D8" s="216"/>
+      <c r="E8" s="216"/>
+      <c r="F8" s="216"/>
+      <c r="G8" s="216"/>
+      <c r="H8" s="216"/>
+      <c r="I8" s="216"/>
+      <c r="J8" s="216"/>
+      <c r="K8" s="216"/>
+      <c r="L8" s="216"/>
+      <c r="M8" s="216"/>
+      <c r="N8" s="216"/>
+      <c r="O8" s="216"/>
+      <c r="P8" s="216"/>
+      <c r="Q8" s="216"/>
+      <c r="R8" s="216"/>
+      <c r="S8" s="216"/>
+      <c r="T8" s="217"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="218" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="131"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="131"/>
-      <c r="S9" s="131"/>
-      <c r="T9" s="131"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="219"/>
+      <c r="I9" s="219"/>
+      <c r="J9" s="219"/>
+      <c r="K9" s="219"/>
+      <c r="L9" s="219"/>
+      <c r="M9" s="219"/>
+      <c r="N9" s="219"/>
+      <c r="O9" s="219"/>
+      <c r="P9" s="219"/>
+      <c r="Q9" s="219"/>
+      <c r="R9" s="219"/>
+      <c r="S9" s="219"/>
+      <c r="T9" s="219"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="143" t="s">
+      <c r="B10" s="227" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="145"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="228"/>
+      <c r="G10" s="228"/>
+      <c r="H10" s="228"/>
+      <c r="I10" s="228"/>
+      <c r="J10" s="228"/>
+      <c r="K10" s="228"/>
+      <c r="L10" s="228"/>
+      <c r="M10" s="228"/>
+      <c r="N10" s="228"/>
+      <c r="O10" s="228"/>
+      <c r="P10" s="228"/>
+      <c r="Q10" s="228"/>
+      <c r="R10" s="228"/>
+      <c r="S10" s="228"/>
+      <c r="T10" s="229"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="230" t="s">
         <v>482</v>
       </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="147"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="148"/>
+      <c r="C11" s="231"/>
+      <c r="D11" s="231"/>
+      <c r="E11" s="231"/>
+      <c r="F11" s="231"/>
+      <c r="G11" s="231"/>
+      <c r="H11" s="231"/>
+      <c r="I11" s="231"/>
+      <c r="J11" s="231"/>
+      <c r="K11" s="231"/>
+      <c r="L11" s="231"/>
+      <c r="M11" s="231"/>
+      <c r="N11" s="231"/>
+      <c r="O11" s="231"/>
+      <c r="P11" s="231"/>
+      <c r="Q11" s="231"/>
+      <c r="R11" s="231"/>
+      <c r="S11" s="231"/>
+      <c r="T11" s="232"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
@@ -4286,72 +4361,72 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="149" t="s">
+      <c r="M13" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="N13" s="149"/>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="149"/>
-      <c r="R13" s="149"/>
-      <c r="S13" s="149"/>
-      <c r="T13" s="150"/>
+      <c r="N13" s="233"/>
+      <c r="O13" s="233"/>
+      <c r="P13" s="233"/>
+      <c r="Q13" s="233"/>
+      <c r="R13" s="233"/>
+      <c r="S13" s="233"/>
+      <c r="T13" s="234"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="110" t="s">
+      <c r="C14" s="179"/>
+      <c r="D14" s="179"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="138" t="s">
+      <c r="I14" s="192"/>
+      <c r="J14" s="192"/>
+      <c r="K14" s="192"/>
+      <c r="L14" s="192"/>
+      <c r="M14" s="195" t="s">
         <v>509</v>
       </c>
-      <c r="N14" s="138"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="138"/>
-      <c r="Q14" s="138"/>
-      <c r="R14" s="138"/>
-      <c r="S14" s="138"/>
-      <c r="T14" s="139"/>
+      <c r="N14" s="195"/>
+      <c r="O14" s="195"/>
+      <c r="P14" s="195"/>
+      <c r="Q14" s="195"/>
+      <c r="R14" s="195"/>
+      <c r="S14" s="195"/>
+      <c r="T14" s="196"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="140" t="s">
+      <c r="B15" s="224" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="110" t="s">
+      <c r="C15" s="225"/>
+      <c r="D15" s="225"/>
+      <c r="E15" s="225"/>
+      <c r="F15" s="225"/>
+      <c r="G15" s="226"/>
+      <c r="H15" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="138" t="s">
+      <c r="I15" s="192"/>
+      <c r="J15" s="192"/>
+      <c r="K15" s="192"/>
+      <c r="L15" s="192"/>
+      <c r="M15" s="195" t="s">
         <v>510</v>
       </c>
-      <c r="N15" s="138"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="138"/>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="138"/>
-      <c r="S15" s="138"/>
-      <c r="T15" s="139"/>
+      <c r="N15" s="195"/>
+      <c r="O15" s="195"/>
+      <c r="P15" s="195"/>
+      <c r="Q15" s="195"/>
+      <c r="R15" s="195"/>
+      <c r="S15" s="195"/>
+      <c r="T15" s="196"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
@@ -4361,34 +4436,34 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="110" t="s">
+      <c r="H16" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="138" t="s">
+      <c r="I16" s="192"/>
+      <c r="J16" s="192"/>
+      <c r="K16" s="192"/>
+      <c r="L16" s="192"/>
+      <c r="M16" s="195" t="s">
         <v>511</v>
       </c>
-      <c r="N16" s="138"/>
-      <c r="O16" s="138"/>
-      <c r="P16" s="138"/>
-      <c r="Q16" s="138"/>
-      <c r="R16" s="138"/>
-      <c r="S16" s="138"/>
-      <c r="T16" s="139"/>
+      <c r="N16" s="195"/>
+      <c r="O16" s="195"/>
+      <c r="P16" s="195"/>
+      <c r="Q16" s="195"/>
+      <c r="R16" s="195"/>
+      <c r="S16" s="195"/>
+      <c r="T16" s="196"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="137"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="180"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -4405,31 +4480,31 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="224" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="110" t="s">
+      <c r="C18" s="225"/>
+      <c r="D18" s="225"/>
+      <c r="E18" s="225"/>
+      <c r="F18" s="225"/>
+      <c r="G18" s="226"/>
+      <c r="H18" s="192" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="161" t="s">
+      <c r="I18" s="192"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="192"/>
+      <c r="L18" s="192"/>
+      <c r="M18" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="161"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="161"/>
-      <c r="Q18" s="161"/>
-      <c r="R18" s="161"/>
-      <c r="S18" s="161"/>
-      <c r="T18" s="162"/>
+      <c r="N18" s="186"/>
+      <c r="O18" s="186"/>
+      <c r="P18" s="186"/>
+      <c r="Q18" s="186"/>
+      <c r="R18" s="186"/>
+      <c r="S18" s="186"/>
+      <c r="T18" s="187"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -4439,75 +4514,75 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="166" t="s">
+      <c r="H19" s="191" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="167">
+      <c r="I19" s="192"/>
+      <c r="J19" s="192"/>
+      <c r="K19" s="192"/>
+      <c r="L19" s="192"/>
+      <c r="M19" s="193">
         <v>31251</v>
       </c>
-      <c r="N19" s="167"/>
-      <c r="O19" s="167"/>
-      <c r="P19" s="167"/>
-      <c r="Q19" s="167"/>
-      <c r="R19" s="167"/>
-      <c r="S19" s="167"/>
-      <c r="T19" s="168"/>
+      <c r="N19" s="193"/>
+      <c r="O19" s="193"/>
+      <c r="P19" s="193"/>
+      <c r="Q19" s="193"/>
+      <c r="R19" s="193"/>
+      <c r="S19" s="193"/>
+      <c r="T19" s="194"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="163" t="s">
+      <c r="B20" s="188" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="110" t="s">
+      <c r="C20" s="189"/>
+      <c r="D20" s="189"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="190"/>
+      <c r="H20" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="138" t="s">
+      <c r="I20" s="192"/>
+      <c r="J20" s="192"/>
+      <c r="K20" s="192"/>
+      <c r="L20" s="192"/>
+      <c r="M20" s="195" t="s">
         <v>288</v>
       </c>
-      <c r="N20" s="138"/>
-      <c r="O20" s="138"/>
-      <c r="P20" s="138"/>
-      <c r="Q20" s="138"/>
-      <c r="R20" s="138"/>
-      <c r="S20" s="138"/>
-      <c r="T20" s="139"/>
+      <c r="N20" s="195"/>
+      <c r="O20" s="195"/>
+      <c r="P20" s="195"/>
+      <c r="Q20" s="195"/>
+      <c r="R20" s="195"/>
+      <c r="S20" s="195"/>
+      <c r="T20" s="196"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="133">
+      <c r="B21" s="221">
         <v>44661</v>
       </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="136"/>
-      <c r="Q21" s="136"/>
-      <c r="R21" s="136"/>
-      <c r="S21" s="136"/>
-      <c r="T21" s="137"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="222"/>
+      <c r="E21" s="222"/>
+      <c r="F21" s="222"/>
+      <c r="G21" s="223"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="192"/>
+      <c r="J21" s="192"/>
+      <c r="K21" s="192"/>
+      <c r="L21" s="192"/>
+      <c r="M21" s="179"/>
+      <c r="N21" s="179"/>
+      <c r="O21" s="179"/>
+      <c r="P21" s="179"/>
+      <c r="Q21" s="179"/>
+      <c r="R21" s="179"/>
+      <c r="S21" s="179"/>
+      <c r="T21" s="180"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
@@ -4555,171 +4630,171 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
-      <c r="B24" s="170" t="s">
+      <c r="B24" s="198" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="171"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
-      <c r="K24" s="171"/>
-      <c r="L24" s="170" t="s">
+      <c r="C24" s="199"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="199"/>
+      <c r="F24" s="199"/>
+      <c r="G24" s="199"/>
+      <c r="H24" s="199"/>
+      <c r="I24" s="199"/>
+      <c r="J24" s="199"/>
+      <c r="K24" s="199"/>
+      <c r="L24" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="171"/>
-      <c r="N24" s="171"/>
-      <c r="O24" s="171"/>
-      <c r="P24" s="171"/>
-      <c r="Q24" s="172"/>
-      <c r="R24" s="172"/>
-      <c r="S24" s="173"/>
-      <c r="T24" s="174"/>
+      <c r="M24" s="199"/>
+      <c r="N24" s="199"/>
+      <c r="O24" s="199"/>
+      <c r="P24" s="199"/>
+      <c r="Q24" s="200"/>
+      <c r="R24" s="200"/>
+      <c r="S24" s="135"/>
+      <c r="T24" s="136"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="164" t="s">
         <v>512</v>
       </c>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="125"/>
       <c r="K25" s="32"/>
-      <c r="L25" s="111" t="s">
+      <c r="L25" s="164" t="s">
         <v>513</v>
       </c>
-      <c r="M25" s="112"/>
-      <c r="N25" s="112"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="112"/>
-      <c r="R25" s="112"/>
-      <c r="S25" s="112"/>
-      <c r="T25" s="112"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="125"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="125"/>
+      <c r="S25" s="125"/>
+      <c r="T25" s="125"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
-      <c r="B26" s="111" t="s">
+      <c r="B26" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="112"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="125"/>
       <c r="K26" s="32"/>
-      <c r="L26" s="111" t="s">
+      <c r="L26" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="M26" s="112"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="112"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="125"/>
+      <c r="O26" s="125"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="125"/>
+      <c r="R26" s="125"/>
+      <c r="S26" s="125"/>
+      <c r="T26" s="125"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
-      <c r="B27" s="297" t="s">
+      <c r="B27" s="197" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
       <c r="G27" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="154">
+      <c r="H27" s="129">
         <v>400615</v>
       </c>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="129"/>
       <c r="K27" s="32"/>
-      <c r="L27" s="297" t="s">
+      <c r="L27" s="197" t="s">
         <v>19</v>
       </c>
-      <c r="M27" s="154"/>
-      <c r="N27" s="154"/>
-      <c r="O27" s="154"/>
-      <c r="P27" s="154"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="129"/>
       <c r="Q27" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="R27" s="132">
+      <c r="R27" s="220">
         <v>400615</v>
       </c>
-      <c r="S27" s="132"/>
-      <c r="T27" s="132"/>
+      <c r="S27" s="220"/>
+      <c r="T27" s="220"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
-      <c r="B28" s="152" t="s">
+      <c r="B28" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="153"/>
-      <c r="D28" s="112">
+      <c r="C28" s="124"/>
+      <c r="D28" s="125">
         <v>9930950199</v>
       </c>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="129"/>
+      <c r="J28" s="129"/>
       <c r="K28" s="32"/>
-      <c r="L28" s="155" t="s">
+      <c r="L28" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="M28" s="156"/>
-      <c r="N28" s="154"/>
-      <c r="O28" s="154"/>
-      <c r="P28" s="154"/>
-      <c r="Q28" s="154"/>
-      <c r="R28" s="154"/>
-      <c r="S28" s="154"/>
-      <c r="T28" s="157"/>
+      <c r="M28" s="182"/>
+      <c r="N28" s="129"/>
+      <c r="O28" s="129"/>
+      <c r="P28" s="129"/>
+      <c r="Q28" s="129"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="129"/>
+      <c r="T28" s="183"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
-      <c r="B29" s="158" t="s">
+      <c r="B29" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="159"/>
-      <c r="D29" s="112" t="s">
+      <c r="C29" s="185"/>
+      <c r="D29" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="125"/>
       <c r="K29" s="34"/>
-      <c r="L29" s="158" t="s">
+      <c r="L29" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="159"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="160"/>
+      <c r="M29" s="185"/>
+      <c r="N29" s="125"/>
+      <c r="O29" s="125"/>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="125"/>
+      <c r="R29" s="125"/>
+      <c r="S29" s="125"/>
+      <c r="T29" s="126"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
@@ -4745,27 +4820,27 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
-      <c r="B31" s="181" t="s">
+      <c r="B31" s="168" t="s">
         <v>484</v>
       </c>
-      <c r="C31" s="182"/>
-      <c r="D31" s="182"/>
-      <c r="E31" s="182"/>
-      <c r="F31" s="182"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="182"/>
-      <c r="J31" s="183"/>
-      <c r="K31" s="183"/>
-      <c r="L31" s="183"/>
-      <c r="M31" s="183"/>
-      <c r="N31" s="183"/>
-      <c r="O31" s="183"/>
-      <c r="P31" s="183"/>
-      <c r="Q31" s="183"/>
-      <c r="R31" s="183"/>
-      <c r="S31" s="183"/>
-      <c r="T31" s="184"/>
+      <c r="C31" s="169"/>
+      <c r="D31" s="169"/>
+      <c r="E31" s="169"/>
+      <c r="F31" s="169"/>
+      <c r="G31" s="169"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="169"/>
+      <c r="J31" s="170"/>
+      <c r="K31" s="170"/>
+      <c r="L31" s="170"/>
+      <c r="M31" s="170"/>
+      <c r="N31" s="170"/>
+      <c r="O31" s="170"/>
+      <c r="P31" s="170"/>
+      <c r="Q31" s="170"/>
+      <c r="R31" s="170"/>
+      <c r="S31" s="170"/>
+      <c r="T31" s="171"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
@@ -4791,159 +4866,159 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
-      <c r="B33" s="185"/>
-      <c r="C33" s="185"/>
-      <c r="D33" s="185"/>
-      <c r="E33" s="186" t="s">
+      <c r="B33" s="172"/>
+      <c r="C33" s="172"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="187"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="186" t="s">
+      <c r="F33" s="151"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="187"/>
-      <c r="J33" s="187"/>
-      <c r="K33" s="188"/>
-      <c r="L33" s="186" t="s">
+      <c r="I33" s="151"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="M33" s="187"/>
-      <c r="N33" s="187"/>
-      <c r="O33" s="186" t="s">
+      <c r="M33" s="151"/>
+      <c r="N33" s="151"/>
+      <c r="O33" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="P33" s="187"/>
-      <c r="Q33" s="188"/>
-      <c r="R33" s="186" t="s">
+      <c r="P33" s="151"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="S33" s="187"/>
+      <c r="S33" s="151"/>
       <c r="T33" s="36" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
-      <c r="B34" s="175" t="s">
+      <c r="B34" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="175"/>
-      <c r="D34" s="175"/>
-      <c r="E34" s="176" t="s">
+      <c r="C34" s="140"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="165" t="s">
         <v>514</v>
       </c>
-      <c r="F34" s="176"/>
-      <c r="G34" s="176"/>
-      <c r="H34" s="177">
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="161">
         <v>41295</v>
       </c>
-      <c r="I34" s="177"/>
-      <c r="J34" s="177"/>
-      <c r="K34" s="177"/>
-      <c r="L34" s="178" t="s">
+      <c r="I34" s="161"/>
+      <c r="J34" s="161"/>
+      <c r="K34" s="161"/>
+      <c r="L34" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="M34" s="178"/>
-      <c r="N34" s="178"/>
-      <c r="O34" s="177">
+      <c r="M34" s="110"/>
+      <c r="N34" s="110"/>
+      <c r="O34" s="161">
         <v>44947</v>
       </c>
-      <c r="P34" s="177"/>
-      <c r="Q34" s="177"/>
-      <c r="R34" s="179"/>
-      <c r="S34" s="180"/>
+      <c r="P34" s="161"/>
+      <c r="Q34" s="161"/>
+      <c r="R34" s="166"/>
+      <c r="S34" s="167"/>
       <c r="T34" s="105"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
-      <c r="B35" s="175" t="s">
+      <c r="B35" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="175"/>
-      <c r="D35" s="175"/>
-      <c r="E35" s="176" t="s">
+      <c r="C35" s="140"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="165" t="s">
         <v>515</v>
       </c>
-      <c r="F35" s="176"/>
-      <c r="G35" s="176"/>
-      <c r="H35" s="177">
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="161">
         <v>41660</v>
       </c>
-      <c r="I35" s="177"/>
-      <c r="J35" s="177"/>
-      <c r="K35" s="177"/>
-      <c r="L35" s="178" t="s">
+      <c r="I35" s="161"/>
+      <c r="J35" s="161"/>
+      <c r="K35" s="161"/>
+      <c r="L35" s="110" t="s">
         <v>485</v>
       </c>
-      <c r="M35" s="178"/>
-      <c r="N35" s="178"/>
-      <c r="O35" s="177">
+      <c r="M35" s="110"/>
+      <c r="N35" s="110"/>
+      <c r="O35" s="161">
         <v>44217</v>
       </c>
-      <c r="P35" s="177"/>
-      <c r="Q35" s="177"/>
-      <c r="R35" s="189" t="s">
+      <c r="P35" s="161"/>
+      <c r="Q35" s="161"/>
+      <c r="R35" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="S35" s="190"/>
-      <c r="T35" s="191"/>
+      <c r="S35" s="174"/>
+      <c r="T35" s="175"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="31"/>
-      <c r="B36" s="175" t="s">
+      <c r="B36" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="175"/>
-      <c r="D36" s="175"/>
-      <c r="E36" s="176" t="s">
+      <c r="C36" s="140"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="165" t="s">
         <v>516</v>
       </c>
-      <c r="F36" s="176"/>
-      <c r="G36" s="176"/>
-      <c r="H36" s="177">
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="161">
         <v>42025</v>
       </c>
-      <c r="I36" s="177"/>
-      <c r="J36" s="177"/>
-      <c r="K36" s="177"/>
-      <c r="L36" s="178" t="s">
+      <c r="I36" s="161"/>
+      <c r="J36" s="161"/>
+      <c r="K36" s="161"/>
+      <c r="L36" s="110" t="s">
         <v>485</v>
       </c>
-      <c r="M36" s="178"/>
-      <c r="N36" s="178"/>
-      <c r="O36" s="177">
+      <c r="M36" s="110"/>
+      <c r="N36" s="110"/>
+      <c r="O36" s="161">
         <v>43851</v>
       </c>
-      <c r="P36" s="177"/>
-      <c r="Q36" s="177"/>
-      <c r="R36" s="192"/>
-      <c r="S36" s="192"/>
-      <c r="T36" s="193"/>
+      <c r="P36" s="161"/>
+      <c r="Q36" s="161"/>
+      <c r="R36" s="176"/>
+      <c r="S36" s="176"/>
+      <c r="T36" s="177"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
-      <c r="B37" s="175" t="s">
+      <c r="B37" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="175"/>
-      <c r="D37" s="175"/>
-      <c r="E37" s="198"/>
-      <c r="F37" s="198"/>
-      <c r="G37" s="198"/>
-      <c r="H37" s="177"/>
-      <c r="I37" s="177"/>
-      <c r="J37" s="177"/>
-      <c r="K37" s="177"/>
-      <c r="L37" s="178"/>
-      <c r="M37" s="178"/>
-      <c r="N37" s="178"/>
-      <c r="O37" s="177"/>
-      <c r="P37" s="177"/>
-      <c r="Q37" s="177"/>
-      <c r="R37" s="194"/>
-      <c r="S37" s="194"/>
-      <c r="T37" s="194"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="163"/>
+      <c r="F37" s="163"/>
+      <c r="G37" s="163"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="161"/>
+      <c r="J37" s="161"/>
+      <c r="K37" s="161"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="110"/>
+      <c r="N37" s="110"/>
+      <c r="O37" s="161"/>
+      <c r="P37" s="161"/>
+      <c r="Q37" s="161"/>
+      <c r="R37" s="162"/>
+      <c r="S37" s="162"/>
+      <c r="T37" s="162"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
@@ -4969,191 +5044,191 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
-      <c r="B39" s="195" t="s">
+      <c r="B39" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="196"/>
-      <c r="D39" s="197"/>
-      <c r="E39" s="186" t="s">
+      <c r="C39" s="149"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="187"/>
-      <c r="G39" s="188"/>
-      <c r="H39" s="186" t="s">
+      <c r="F39" s="151"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="I39" s="187"/>
-      <c r="J39" s="187"/>
-      <c r="K39" s="188"/>
-      <c r="L39" s="186" t="s">
+      <c r="I39" s="151"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="122"/>
+      <c r="L39" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="M39" s="187"/>
-      <c r="N39" s="188"/>
-      <c r="O39" s="186" t="s">
+      <c r="M39" s="151"/>
+      <c r="N39" s="122"/>
+      <c r="O39" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="P39" s="187"/>
-      <c r="Q39" s="188"/>
-      <c r="R39" s="186" t="s">
+      <c r="P39" s="151"/>
+      <c r="Q39" s="122"/>
+      <c r="R39" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="S39" s="187"/>
-      <c r="T39" s="188"/>
+      <c r="S39" s="151"/>
+      <c r="T39" s="122"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="31"/>
-      <c r="B40" s="175" t="s">
+      <c r="B40" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="175"/>
-      <c r="D40" s="175"/>
-      <c r="E40" s="199" t="s">
+      <c r="C40" s="140"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="155" t="s">
         <v>517</v>
       </c>
-      <c r="F40" s="200"/>
-      <c r="G40" s="201"/>
-      <c r="H40" s="202">
+      <c r="F40" s="156"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="144">
         <v>41295</v>
       </c>
-      <c r="I40" s="203"/>
-      <c r="J40" s="203"/>
-      <c r="K40" s="204"/>
-      <c r="L40" s="205" t="s">
+      <c r="I40" s="145"/>
+      <c r="J40" s="145"/>
+      <c r="K40" s="146"/>
+      <c r="L40" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="M40" s="206"/>
-      <c r="N40" s="207"/>
-      <c r="O40" s="208">
+      <c r="M40" s="159"/>
+      <c r="N40" s="160"/>
+      <c r="O40" s="117">
         <v>44947</v>
       </c>
-      <c r="P40" s="209"/>
-      <c r="Q40" s="210"/>
-      <c r="R40" s="211" t="s">
+      <c r="P40" s="147"/>
+      <c r="Q40" s="118"/>
+      <c r="R40" s="114" t="s">
         <v>519</v>
       </c>
-      <c r="S40" s="212"/>
-      <c r="T40" s="213"/>
+      <c r="S40" s="134"/>
+      <c r="T40" s="115"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="31"/>
-      <c r="B41" s="175" t="s">
+      <c r="B41" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="175"/>
-      <c r="D41" s="175"/>
-      <c r="E41" s="199"/>
-      <c r="F41" s="200"/>
-      <c r="G41" s="201"/>
-      <c r="H41" s="202"/>
-      <c r="I41" s="203"/>
-      <c r="J41" s="203"/>
-      <c r="K41" s="204"/>
-      <c r="L41" s="205"/>
-      <c r="M41" s="206"/>
-      <c r="N41" s="207"/>
-      <c r="O41" s="208"/>
-      <c r="P41" s="209"/>
-      <c r="Q41" s="210"/>
-      <c r="R41" s="211"/>
-      <c r="S41" s="212"/>
-      <c r="T41" s="213"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="155"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="157"/>
+      <c r="H41" s="144"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="145"/>
+      <c r="K41" s="146"/>
+      <c r="L41" s="158"/>
+      <c r="M41" s="159"/>
+      <c r="N41" s="160"/>
+      <c r="O41" s="117"/>
+      <c r="P41" s="147"/>
+      <c r="Q41" s="118"/>
+      <c r="R41" s="114"/>
+      <c r="S41" s="134"/>
+      <c r="T41" s="115"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
-      <c r="B42" s="175" t="s">
+      <c r="B42" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="175"/>
-      <c r="D42" s="175"/>
-      <c r="E42" s="199"/>
-      <c r="F42" s="200"/>
-      <c r="G42" s="201"/>
-      <c r="H42" s="202"/>
-      <c r="I42" s="203"/>
-      <c r="J42" s="203"/>
-      <c r="K42" s="204"/>
-      <c r="L42" s="205"/>
-      <c r="M42" s="206"/>
-      <c r="N42" s="207"/>
-      <c r="O42" s="208"/>
-      <c r="P42" s="209"/>
-      <c r="Q42" s="210"/>
-      <c r="R42" s="211"/>
-      <c r="S42" s="212"/>
-      <c r="T42" s="213"/>
+      <c r="C42" s="140"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="156"/>
+      <c r="G42" s="157"/>
+      <c r="H42" s="144"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="145"/>
+      <c r="K42" s="146"/>
+      <c r="L42" s="158"/>
+      <c r="M42" s="159"/>
+      <c r="N42" s="160"/>
+      <c r="O42" s="117"/>
+      <c r="P42" s="147"/>
+      <c r="Q42" s="118"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="134"/>
+      <c r="T42" s="115"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="31"/>
-      <c r="B43" s="175" t="s">
+      <c r="B43" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="175"/>
-      <c r="D43" s="175"/>
-      <c r="E43" s="199"/>
-      <c r="F43" s="200"/>
-      <c r="G43" s="201"/>
-      <c r="H43" s="202"/>
-      <c r="I43" s="203"/>
-      <c r="J43" s="203"/>
-      <c r="K43" s="204"/>
-      <c r="L43" s="205"/>
-      <c r="M43" s="206"/>
-      <c r="N43" s="207"/>
-      <c r="O43" s="208"/>
-      <c r="P43" s="209"/>
-      <c r="Q43" s="210"/>
-      <c r="R43" s="211"/>
-      <c r="S43" s="212"/>
-      <c r="T43" s="213"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="155"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="157"/>
+      <c r="H43" s="144"/>
+      <c r="I43" s="145"/>
+      <c r="J43" s="145"/>
+      <c r="K43" s="146"/>
+      <c r="L43" s="158"/>
+      <c r="M43" s="159"/>
+      <c r="N43" s="160"/>
+      <c r="O43" s="117"/>
+      <c r="P43" s="147"/>
+      <c r="Q43" s="118"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="134"/>
+      <c r="T43" s="115"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
-      <c r="B44" s="175" t="s">
+      <c r="B44" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="175"/>
-      <c r="D44" s="175"/>
-      <c r="E44" s="199"/>
-      <c r="F44" s="200"/>
-      <c r="G44" s="201"/>
-      <c r="H44" s="202"/>
-      <c r="I44" s="203"/>
-      <c r="J44" s="203"/>
-      <c r="K44" s="204"/>
-      <c r="L44" s="205"/>
-      <c r="M44" s="206"/>
-      <c r="N44" s="207"/>
-      <c r="O44" s="208"/>
-      <c r="P44" s="209"/>
-      <c r="Q44" s="210"/>
-      <c r="R44" s="211"/>
-      <c r="S44" s="212"/>
-      <c r="T44" s="213"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="156"/>
+      <c r="G44" s="157"/>
+      <c r="H44" s="144"/>
+      <c r="I44" s="145"/>
+      <c r="J44" s="145"/>
+      <c r="K44" s="146"/>
+      <c r="L44" s="158"/>
+      <c r="M44" s="159"/>
+      <c r="N44" s="160"/>
+      <c r="O44" s="117"/>
+      <c r="P44" s="147"/>
+      <c r="Q44" s="118"/>
+      <c r="R44" s="114"/>
+      <c r="S44" s="134"/>
+      <c r="T44" s="115"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="31"/>
-      <c r="B45" s="175" t="s">
+      <c r="B45" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="175"/>
-      <c r="D45" s="175"/>
-      <c r="E45" s="199"/>
-      <c r="F45" s="200"/>
-      <c r="G45" s="201"/>
-      <c r="H45" s="202"/>
-      <c r="I45" s="203"/>
-      <c r="J45" s="203"/>
-      <c r="K45" s="204"/>
-      <c r="L45" s="205"/>
-      <c r="M45" s="206"/>
-      <c r="N45" s="207"/>
-      <c r="O45" s="208"/>
-      <c r="P45" s="209"/>
-      <c r="Q45" s="210"/>
-      <c r="R45" s="211"/>
-      <c r="S45" s="212"/>
-      <c r="T45" s="213"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="155"/>
+      <c r="F45" s="156"/>
+      <c r="G45" s="157"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="145"/>
+      <c r="J45" s="145"/>
+      <c r="K45" s="146"/>
+      <c r="L45" s="158"/>
+      <c r="M45" s="159"/>
+      <c r="N45" s="160"/>
+      <c r="O45" s="117"/>
+      <c r="P45" s="147"/>
+      <c r="Q45" s="118"/>
+      <c r="R45" s="114"/>
+      <c r="S45" s="134"/>
+      <c r="T45" s="115"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="31"/>
@@ -5179,191 +5254,191 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
-      <c r="B47" s="195" t="s">
+      <c r="B47" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="196"/>
-      <c r="D47" s="197"/>
-      <c r="E47" s="186" t="s">
+      <c r="C47" s="149"/>
+      <c r="D47" s="150"/>
+      <c r="E47" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="F47" s="187"/>
-      <c r="G47" s="188"/>
-      <c r="H47" s="186" t="s">
+      <c r="F47" s="151"/>
+      <c r="G47" s="122"/>
+      <c r="H47" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="I47" s="187"/>
-      <c r="J47" s="187"/>
-      <c r="K47" s="188"/>
-      <c r="L47" s="186" t="s">
+      <c r="I47" s="151"/>
+      <c r="J47" s="151"/>
+      <c r="K47" s="122"/>
+      <c r="L47" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="M47" s="187"/>
-      <c r="N47" s="188"/>
-      <c r="O47" s="186" t="s">
+      <c r="M47" s="151"/>
+      <c r="N47" s="122"/>
+      <c r="O47" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="P47" s="187"/>
-      <c r="Q47" s="188"/>
-      <c r="R47" s="186" t="s">
+      <c r="P47" s="151"/>
+      <c r="Q47" s="122"/>
+      <c r="R47" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="S47" s="187"/>
-      <c r="T47" s="188"/>
+      <c r="S47" s="151"/>
+      <c r="T47" s="122"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="31"/>
-      <c r="B48" s="217" t="s">
+      <c r="B48" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="218"/>
-      <c r="D48" s="219"/>
-      <c r="E48" s="211" t="s">
+      <c r="C48" s="153"/>
+      <c r="D48" s="154"/>
+      <c r="E48" s="114" t="s">
         <v>518</v>
       </c>
-      <c r="F48" s="212"/>
-      <c r="G48" s="213"/>
-      <c r="H48" s="214">
+      <c r="F48" s="134"/>
+      <c r="G48" s="115"/>
+      <c r="H48" s="141">
         <v>543534</v>
       </c>
-      <c r="I48" s="215"/>
-      <c r="J48" s="215"/>
-      <c r="K48" s="216"/>
-      <c r="L48" s="202">
+      <c r="I48" s="142"/>
+      <c r="J48" s="142"/>
+      <c r="K48" s="143"/>
+      <c r="L48" s="144">
         <v>41295</v>
       </c>
-      <c r="M48" s="203"/>
-      <c r="N48" s="204"/>
-      <c r="O48" s="211" t="s">
+      <c r="M48" s="145"/>
+      <c r="N48" s="146"/>
+      <c r="O48" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="P48" s="212"/>
-      <c r="Q48" s="213"/>
-      <c r="R48" s="208">
+      <c r="P48" s="134"/>
+      <c r="Q48" s="115"/>
+      <c r="R48" s="117">
         <v>44947</v>
       </c>
-      <c r="S48" s="209"/>
-      <c r="T48" s="210"/>
+      <c r="S48" s="147"/>
+      <c r="T48" s="118"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="31"/>
-      <c r="B49" s="175" t="s">
+      <c r="B49" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="175"/>
-      <c r="D49" s="175"/>
-      <c r="E49" s="211"/>
-      <c r="F49" s="212"/>
-      <c r="G49" s="213"/>
-      <c r="H49" s="214"/>
-      <c r="I49" s="215"/>
-      <c r="J49" s="215"/>
-      <c r="K49" s="216"/>
-      <c r="L49" s="202"/>
-      <c r="M49" s="203"/>
-      <c r="N49" s="204"/>
-      <c r="O49" s="211"/>
-      <c r="P49" s="212"/>
-      <c r="Q49" s="213"/>
-      <c r="R49" s="208"/>
-      <c r="S49" s="209"/>
-      <c r="T49" s="210"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="115"/>
+      <c r="H49" s="141"/>
+      <c r="I49" s="142"/>
+      <c r="J49" s="142"/>
+      <c r="K49" s="143"/>
+      <c r="L49" s="144"/>
+      <c r="M49" s="145"/>
+      <c r="N49" s="146"/>
+      <c r="O49" s="114"/>
+      <c r="P49" s="134"/>
+      <c r="Q49" s="115"/>
+      <c r="R49" s="117"/>
+      <c r="S49" s="147"/>
+      <c r="T49" s="118"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
-      <c r="B50" s="175" t="s">
+      <c r="B50" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="175"/>
-      <c r="D50" s="175"/>
-      <c r="E50" s="211"/>
-      <c r="F50" s="212"/>
-      <c r="G50" s="213"/>
-      <c r="H50" s="214"/>
-      <c r="I50" s="215"/>
-      <c r="J50" s="215"/>
-      <c r="K50" s="216"/>
-      <c r="L50" s="202"/>
-      <c r="M50" s="203"/>
-      <c r="N50" s="204"/>
-      <c r="O50" s="211"/>
-      <c r="P50" s="212"/>
-      <c r="Q50" s="213"/>
-      <c r="R50" s="208"/>
-      <c r="S50" s="209"/>
-      <c r="T50" s="210"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="141"/>
+      <c r="I50" s="142"/>
+      <c r="J50" s="142"/>
+      <c r="K50" s="143"/>
+      <c r="L50" s="144"/>
+      <c r="M50" s="145"/>
+      <c r="N50" s="146"/>
+      <c r="O50" s="114"/>
+      <c r="P50" s="134"/>
+      <c r="Q50" s="115"/>
+      <c r="R50" s="117"/>
+      <c r="S50" s="147"/>
+      <c r="T50" s="118"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="31"/>
-      <c r="B51" s="175" t="s">
+      <c r="B51" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="175"/>
-      <c r="D51" s="175"/>
-      <c r="E51" s="211"/>
-      <c r="F51" s="212"/>
-      <c r="G51" s="213"/>
-      <c r="H51" s="214"/>
-      <c r="I51" s="215"/>
-      <c r="J51" s="215"/>
-      <c r="K51" s="216"/>
-      <c r="L51" s="202"/>
-      <c r="M51" s="203"/>
-      <c r="N51" s="204"/>
-      <c r="O51" s="211"/>
-      <c r="P51" s="212"/>
-      <c r="Q51" s="213"/>
-      <c r="R51" s="208"/>
-      <c r="S51" s="209"/>
-      <c r="T51" s="210"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="115"/>
+      <c r="H51" s="141"/>
+      <c r="I51" s="142"/>
+      <c r="J51" s="142"/>
+      <c r="K51" s="143"/>
+      <c r="L51" s="144"/>
+      <c r="M51" s="145"/>
+      <c r="N51" s="146"/>
+      <c r="O51" s="114"/>
+      <c r="P51" s="134"/>
+      <c r="Q51" s="115"/>
+      <c r="R51" s="117"/>
+      <c r="S51" s="147"/>
+      <c r="T51" s="118"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="31"/>
-      <c r="B52" s="175" t="s">
+      <c r="B52" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="175"/>
-      <c r="D52" s="175"/>
-      <c r="E52" s="211"/>
-      <c r="F52" s="212"/>
-      <c r="G52" s="213"/>
-      <c r="H52" s="214"/>
-      <c r="I52" s="215"/>
-      <c r="J52" s="215"/>
-      <c r="K52" s="216"/>
-      <c r="L52" s="202"/>
-      <c r="M52" s="203"/>
-      <c r="N52" s="204"/>
-      <c r="O52" s="211"/>
-      <c r="P52" s="212"/>
-      <c r="Q52" s="213"/>
-      <c r="R52" s="208"/>
-      <c r="S52" s="209"/>
-      <c r="T52" s="210"/>
+      <c r="C52" s="140"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="134"/>
+      <c r="G52" s="115"/>
+      <c r="H52" s="141"/>
+      <c r="I52" s="142"/>
+      <c r="J52" s="142"/>
+      <c r="K52" s="143"/>
+      <c r="L52" s="144"/>
+      <c r="M52" s="145"/>
+      <c r="N52" s="146"/>
+      <c r="O52" s="114"/>
+      <c r="P52" s="134"/>
+      <c r="Q52" s="115"/>
+      <c r="R52" s="117"/>
+      <c r="S52" s="147"/>
+      <c r="T52" s="118"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="31"/>
-      <c r="B53" s="175" t="s">
+      <c r="B53" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="175"/>
-      <c r="D53" s="175"/>
-      <c r="E53" s="211"/>
-      <c r="F53" s="212"/>
-      <c r="G53" s="213"/>
-      <c r="H53" s="214"/>
-      <c r="I53" s="215"/>
-      <c r="J53" s="215"/>
-      <c r="K53" s="216"/>
-      <c r="L53" s="202"/>
-      <c r="M53" s="203"/>
-      <c r="N53" s="204"/>
-      <c r="O53" s="211"/>
-      <c r="P53" s="212"/>
-      <c r="Q53" s="213"/>
-      <c r="R53" s="208"/>
-      <c r="S53" s="209"/>
-      <c r="T53" s="210"/>
+      <c r="C53" s="140"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="134"/>
+      <c r="G53" s="115"/>
+      <c r="H53" s="141"/>
+      <c r="I53" s="142"/>
+      <c r="J53" s="142"/>
+      <c r="K53" s="143"/>
+      <c r="L53" s="144"/>
+      <c r="M53" s="145"/>
+      <c r="N53" s="146"/>
+      <c r="O53" s="114"/>
+      <c r="P53" s="134"/>
+      <c r="Q53" s="115"/>
+      <c r="R53" s="117"/>
+      <c r="S53" s="147"/>
+      <c r="T53" s="118"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
@@ -5393,131 +5468,131 @@
         <v>49</v>
       </c>
       <c r="C55" s="41"/>
-      <c r="D55" s="212" t="s">
+      <c r="D55" s="134" t="s">
         <v>486</v>
       </c>
-      <c r="E55" s="212"/>
-      <c r="F55" s="212"/>
-      <c r="G55" s="212"/>
-      <c r="H55" s="212"/>
-      <c r="I55" s="212"/>
+      <c r="E55" s="134"/>
+      <c r="F55" s="134"/>
+      <c r="G55" s="134"/>
+      <c r="H55" s="134"/>
+      <c r="I55" s="134"/>
       <c r="J55" s="42"/>
       <c r="K55" s="43"/>
       <c r="L55" s="41"/>
       <c r="M55" s="41"/>
       <c r="N55" s="41"/>
-      <c r="O55" s="173"/>
-      <c r="P55" s="173"/>
-      <c r="Q55" s="173"/>
-      <c r="R55" s="173"/>
-      <c r="S55" s="173"/>
-      <c r="T55" s="174"/>
+      <c r="O55" s="135"/>
+      <c r="P55" s="135"/>
+      <c r="Q55" s="135"/>
+      <c r="R55" s="135"/>
+      <c r="S55" s="135"/>
+      <c r="T55" s="136"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
-      <c r="B56" s="225" t="s">
+      <c r="B56" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="226"/>
-      <c r="D56" s="112" t="s">
+      <c r="C56" s="138"/>
+      <c r="D56" s="125" t="s">
         <v>520</v>
       </c>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="112"/>
-      <c r="K56" s="112"/>
-      <c r="L56" s="227" t="s">
+      <c r="E56" s="125"/>
+      <c r="F56" s="125"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="125"/>
+      <c r="J56" s="125"/>
+      <c r="K56" s="125"/>
+      <c r="L56" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="M56" s="227"/>
-      <c r="N56" s="227"/>
-      <c r="O56" s="112" t="s">
+      <c r="M56" s="139"/>
+      <c r="N56" s="139"/>
+      <c r="O56" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="P56" s="112"/>
-      <c r="Q56" s="112"/>
-      <c r="R56" s="112"/>
-      <c r="S56" s="112"/>
-      <c r="T56" s="160"/>
+      <c r="P56" s="125"/>
+      <c r="Q56" s="125"/>
+      <c r="R56" s="125"/>
+      <c r="S56" s="125"/>
+      <c r="T56" s="126"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
-      <c r="B57" s="152" t="s">
+      <c r="B57" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="153"/>
-      <c r="D57" s="112" t="s">
+      <c r="C57" s="124"/>
+      <c r="D57" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="112"/>
-      <c r="F57" s="112"/>
-      <c r="G57" s="112"/>
-      <c r="H57" s="112"/>
-      <c r="I57" s="112"/>
-      <c r="J57" s="112"/>
-      <c r="K57" s="112"/>
-      <c r="L57" s="112"/>
-      <c r="M57" s="112"/>
-      <c r="N57" s="112"/>
-      <c r="O57" s="112"/>
-      <c r="P57" s="112"/>
-      <c r="Q57" s="112"/>
-      <c r="R57" s="112"/>
-      <c r="S57" s="112"/>
-      <c r="T57" s="160"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="125"/>
+      <c r="G57" s="125"/>
+      <c r="H57" s="125"/>
+      <c r="I57" s="125"/>
+      <c r="J57" s="125"/>
+      <c r="K57" s="125"/>
+      <c r="L57" s="125"/>
+      <c r="M57" s="125"/>
+      <c r="N57" s="125"/>
+      <c r="O57" s="125"/>
+      <c r="P57" s="125"/>
+      <c r="Q57" s="125"/>
+      <c r="R57" s="125"/>
+      <c r="S57" s="125"/>
+      <c r="T57" s="126"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
-      <c r="B58" s="220"/>
-      <c r="C58" s="221"/>
-      <c r="D58" s="154"/>
-      <c r="E58" s="154"/>
-      <c r="F58" s="154"/>
-      <c r="G58" s="154"/>
-      <c r="H58" s="154"/>
-      <c r="I58" s="154"/>
-      <c r="J58" s="154"/>
-      <c r="K58" s="154"/>
-      <c r="L58" s="154"/>
-      <c r="M58" s="154"/>
-      <c r="N58" s="154"/>
-      <c r="O58" s="154"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="128"/>
+      <c r="D58" s="129"/>
+      <c r="E58" s="129"/>
+      <c r="F58" s="129"/>
+      <c r="G58" s="129"/>
+      <c r="H58" s="129"/>
+      <c r="I58" s="129"/>
+      <c r="J58" s="129"/>
+      <c r="K58" s="129"/>
+      <c r="L58" s="129"/>
+      <c r="M58" s="129"/>
+      <c r="N58" s="129"/>
+      <c r="O58" s="129"/>
       <c r="P58" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="Q58" s="222">
+      <c r="Q58" s="130">
         <v>400615</v>
       </c>
-      <c r="R58" s="222"/>
-      <c r="S58" s="222"/>
-      <c r="T58" s="223"/>
+      <c r="R58" s="130"/>
+      <c r="S58" s="130"/>
+      <c r="T58" s="131"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="44"/>
       <c r="C59" s="45"/>
-      <c r="D59" s="154"/>
-      <c r="E59" s="154"/>
-      <c r="F59" s="154"/>
-      <c r="G59" s="154"/>
-      <c r="H59" s="154"/>
-      <c r="I59" s="154"/>
-      <c r="J59" s="154"/>
+      <c r="D59" s="129"/>
+      <c r="E59" s="129"/>
+      <c r="F59" s="129"/>
+      <c r="G59" s="129"/>
+      <c r="H59" s="129"/>
+      <c r="I59" s="129"/>
+      <c r="J59" s="129"/>
       <c r="K59" s="46"/>
       <c r="L59" s="47" t="s">
         <v>55</v>
       </c>
       <c r="M59" s="47"/>
-      <c r="N59" s="169"/>
-      <c r="O59" s="169"/>
-      <c r="P59" s="169"/>
-      <c r="Q59" s="169"/>
-      <c r="R59" s="169"/>
-      <c r="S59" s="169"/>
-      <c r="T59" s="224"/>
+      <c r="N59" s="132"/>
+      <c r="O59" s="132"/>
+      <c r="P59" s="132"/>
+      <c r="Q59" s="132"/>
+      <c r="R59" s="132"/>
+      <c r="S59" s="132"/>
+      <c r="T59" s="133"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
@@ -5548,174 +5623,174 @@
       <c r="B61" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="C61" s="186" t="s">
+      <c r="C61" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="188"/>
+      <c r="D61" s="122"/>
       <c r="E61" s="36" t="s">
         <v>502</v>
       </c>
-      <c r="F61" s="228" t="s">
+      <c r="F61" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="G61" s="228"/>
-      <c r="H61" s="228" t="s">
+      <c r="G61" s="120"/>
+      <c r="H61" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="I61" s="228"/>
-      <c r="J61" s="228"/>
-      <c r="K61" s="186" t="s">
+      <c r="I61" s="120"/>
+      <c r="J61" s="120"/>
+      <c r="K61" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="L61" s="188"/>
-      <c r="M61" s="186" t="s">
+      <c r="L61" s="122"/>
+      <c r="M61" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="N61" s="188"/>
-      <c r="O61" s="186" t="s">
+      <c r="N61" s="122"/>
+      <c r="O61" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="P61" s="188"/>
-      <c r="Q61" s="228" t="s">
+      <c r="P61" s="122"/>
+      <c r="Q61" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="R61" s="228"/>
-      <c r="S61" s="228" t="s">
+      <c r="R61" s="120"/>
+      <c r="S61" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="T61" s="228"/>
+      <c r="T61" s="120"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="104">
         <v>1</v>
       </c>
-      <c r="C62" s="211" t="s">
+      <c r="C62" s="114" t="s">
         <v>520</v>
       </c>
-      <c r="D62" s="213"/>
+      <c r="D62" s="115"/>
       <c r="E62" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="F62" s="229">
+      <c r="F62" s="116">
         <v>31433</v>
       </c>
-      <c r="G62" s="229"/>
-      <c r="H62" s="230" t="s">
+      <c r="G62" s="116"/>
+      <c r="H62" s="119" t="s">
         <v>503</v>
       </c>
-      <c r="I62" s="230"/>
-      <c r="J62" s="230"/>
-      <c r="K62" s="208">
+      <c r="I62" s="119"/>
+      <c r="J62" s="119"/>
+      <c r="K62" s="117">
         <v>40230</v>
       </c>
-      <c r="L62" s="210"/>
-      <c r="M62" s="208" t="s">
+      <c r="L62" s="118"/>
+      <c r="M62" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="N62" s="210"/>
-      <c r="O62" s="208">
+      <c r="N62" s="118"/>
+      <c r="O62" s="117">
         <v>47563</v>
       </c>
-      <c r="P62" s="210"/>
-      <c r="Q62" s="178" t="s">
+      <c r="P62" s="118"/>
+      <c r="Q62" s="110" t="s">
         <v>483</v>
       </c>
-      <c r="R62" s="178"/>
-      <c r="S62" s="178" t="s">
+      <c r="R62" s="110"/>
+      <c r="S62" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="T62" s="178"/>
+      <c r="T62" s="110"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="104">
         <v>2</v>
       </c>
-      <c r="C63" s="211" t="s">
+      <c r="C63" s="114" t="s">
         <v>521</v>
       </c>
-      <c r="D63" s="213"/>
+      <c r="D63" s="115"/>
       <c r="E63" s="51" t="s">
         <v>491</v>
       </c>
-      <c r="F63" s="229">
+      <c r="F63" s="116">
         <v>24002</v>
       </c>
-      <c r="G63" s="229"/>
-      <c r="H63" s="230" t="s">
+      <c r="G63" s="116"/>
+      <c r="H63" s="119" t="s">
         <v>504</v>
       </c>
-      <c r="I63" s="230"/>
-      <c r="J63" s="230"/>
-      <c r="K63" s="208">
+      <c r="I63" s="119"/>
+      <c r="J63" s="119"/>
+      <c r="K63" s="117">
         <v>40231</v>
       </c>
-      <c r="L63" s="210"/>
-      <c r="M63" s="208" t="s">
+      <c r="L63" s="118"/>
+      <c r="M63" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="N63" s="210"/>
-      <c r="O63" s="208">
+      <c r="N63" s="118"/>
+      <c r="O63" s="117">
         <v>47564</v>
       </c>
-      <c r="P63" s="210"/>
-      <c r="Q63" s="178" t="s">
+      <c r="P63" s="118"/>
+      <c r="Q63" s="110" t="s">
         <v>483</v>
       </c>
-      <c r="R63" s="178"/>
-      <c r="S63" s="178" t="s">
+      <c r="R63" s="110"/>
+      <c r="S63" s="110" t="s">
         <v>483</v>
       </c>
-      <c r="T63" s="178"/>
+      <c r="T63" s="110"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="B64" s="104">
         <v>3</v>
       </c>
-      <c r="C64" s="211"/>
-      <c r="D64" s="213"/>
+      <c r="C64" s="114"/>
+      <c r="D64" s="115"/>
       <c r="E64" s="51"/>
-      <c r="F64" s="229"/>
-      <c r="G64" s="229"/>
-      <c r="H64" s="230"/>
-      <c r="I64" s="230"/>
-      <c r="J64" s="230"/>
-      <c r="K64" s="208"/>
-      <c r="L64" s="210"/>
-      <c r="M64" s="208"/>
-      <c r="N64" s="210"/>
-      <c r="O64" s="208"/>
-      <c r="P64" s="210"/>
-      <c r="Q64" s="178"/>
-      <c r="R64" s="178"/>
-      <c r="S64" s="178"/>
-      <c r="T64" s="178"/>
+      <c r="F64" s="116"/>
+      <c r="G64" s="116"/>
+      <c r="H64" s="119"/>
+      <c r="I64" s="119"/>
+      <c r="J64" s="119"/>
+      <c r="K64" s="117"/>
+      <c r="L64" s="118"/>
+      <c r="M64" s="117"/>
+      <c r="N64" s="118"/>
+      <c r="O64" s="117"/>
+      <c r="P64" s="118"/>
+      <c r="Q64" s="110"/>
+      <c r="R64" s="110"/>
+      <c r="S64" s="110"/>
+      <c r="T64" s="110"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="104">
         <v>4</v>
       </c>
-      <c r="C65" s="211"/>
-      <c r="D65" s="213"/>
+      <c r="C65" s="114"/>
+      <c r="D65" s="115"/>
       <c r="E65" s="51"/>
-      <c r="F65" s="229"/>
-      <c r="G65" s="229"/>
-      <c r="H65" s="178"/>
-      <c r="I65" s="178"/>
-      <c r="J65" s="178"/>
-      <c r="K65" s="208"/>
-      <c r="L65" s="210"/>
-      <c r="M65" s="208"/>
-      <c r="N65" s="210"/>
-      <c r="O65" s="211"/>
-      <c r="P65" s="213"/>
-      <c r="Q65" s="178"/>
-      <c r="R65" s="178"/>
-      <c r="S65" s="178"/>
-      <c r="T65" s="178"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="116"/>
+      <c r="H65" s="110"/>
+      <c r="I65" s="110"/>
+      <c r="J65" s="110"/>
+      <c r="K65" s="117"/>
+      <c r="L65" s="118"/>
+      <c r="M65" s="117"/>
+      <c r="N65" s="118"/>
+      <c r="O65" s="114"/>
+      <c r="P65" s="115"/>
+      <c r="Q65" s="110"/>
+      <c r="R65" s="110"/>
+      <c r="S65" s="110"/>
+      <c r="T65" s="110"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
@@ -5741,176 +5816,78 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
-      <c r="B67" s="231" t="s">
+      <c r="B67" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="232"/>
-      <c r="D67" s="232"/>
-      <c r="E67" s="232"/>
-      <c r="F67" s="232"/>
-      <c r="G67" s="232"/>
-      <c r="H67" s="232"/>
-      <c r="I67" s="232"/>
-      <c r="J67" s="232"/>
-      <c r="K67" s="232"/>
-      <c r="L67" s="232"/>
-      <c r="M67" s="232"/>
-      <c r="N67" s="232"/>
-      <c r="O67" s="232"/>
-      <c r="P67" s="232"/>
-      <c r="Q67" s="232"/>
-      <c r="R67" s="232"/>
-      <c r="S67" s="232"/>
-      <c r="T67" s="233"/>
+      <c r="C67" s="112"/>
+      <c r="D67" s="112"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="112"/>
+      <c r="G67" s="112"/>
+      <c r="H67" s="112"/>
+      <c r="I67" s="112"/>
+      <c r="J67" s="112"/>
+      <c r="K67" s="112"/>
+      <c r="L67" s="112"/>
+      <c r="M67" s="112"/>
+      <c r="N67" s="112"/>
+      <c r="O67" s="112"/>
+      <c r="P67" s="112"/>
+      <c r="Q67" s="112"/>
+      <c r="R67" s="112"/>
+      <c r="S67" s="112"/>
+      <c r="T67" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="218">
-    <mergeCell ref="S65:T65"/>
-    <mergeCell ref="B67:T67"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="S64:T64"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="S63:T63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="S61:T61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="S62:T62"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:T57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:O58"/>
-    <mergeCell ref="Q58:T58"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="N59:T59"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="O55:T55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:K56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="O56:T56"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="R53:T53"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="O52:Q52"/>
-    <mergeCell ref="R52:T52"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="O51:Q51"/>
-    <mergeCell ref="R51:T51"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="O49:Q49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="O47:Q47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="O48:Q48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="O45:Q45"/>
-    <mergeCell ref="R45:T45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="R44:T44"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="L25:T25"/>
+    <mergeCell ref="Q1:T5"/>
+    <mergeCell ref="B5:P5"/>
+    <mergeCell ref="B6:T6"/>
+    <mergeCell ref="B7:T7"/>
+    <mergeCell ref="B8:T8"/>
+    <mergeCell ref="B9:T9"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="M21:T21"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="M16:T16"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B10:T10"/>
+    <mergeCell ref="B11:T11"/>
+    <mergeCell ref="M14:T14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="M15:T15"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:T28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:T29"/>
+    <mergeCell ref="M18:T18"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="M19:T19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="M20:T20"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="L26:T26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="E34:G34"/>
@@ -5935,54 +5912,152 @@
     <mergeCell ref="R35:T36"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:T28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:T29"/>
-    <mergeCell ref="M18:T18"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="M19:T19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="M20:T20"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="L26:T26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="L25:T25"/>
-    <mergeCell ref="Q1:T5"/>
-    <mergeCell ref="B5:P5"/>
-    <mergeCell ref="B6:T6"/>
-    <mergeCell ref="B7:T7"/>
-    <mergeCell ref="B8:T8"/>
-    <mergeCell ref="B9:T9"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="M21:T21"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="M16:T16"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B10:T10"/>
-    <mergeCell ref="B11:T11"/>
-    <mergeCell ref="M14:T14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="M15:T15"/>
-    <mergeCell ref="M13:T13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="O45:Q45"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="O47:Q47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="O51:Q51"/>
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="R53:T53"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="O52:Q52"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:T57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:O58"/>
+    <mergeCell ref="Q58:T58"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="N59:T59"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="O55:T55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:K56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="O56:T56"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="S61:T61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="S62:T62"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="B67:T67"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="S64:T64"/>
+    <mergeCell ref="Q65:R65"/>
   </mergeCells>
   <dataValidations count="34">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please Enter / Select a valid option from the List..." sqref="M18:T18" xr:uid="{92730EA2-2C4E-436F-A174-1DA7426AA1BE}">
@@ -6189,8 +6264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC067019-9E8F-42C6-9301-6F73926F5B81}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6200,11 +6275,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="294" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
       <c r="D1" s="52" t="s">
         <v>25</v>
       </c>
@@ -6228,11 +6303,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="236" t="s">
+      <c r="A2" s="288" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="238"/>
+      <c r="B2" s="289"/>
+      <c r="C2" s="290"/>
       <c r="D2" s="54" t="s">
         <v>522</v>
       </c>
@@ -6254,11 +6329,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="288" t="s">
         <v>507</v>
       </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="238"/>
+      <c r="B3" s="289"/>
+      <c r="C3" s="290"/>
       <c r="D3" s="54" t="s">
         <v>523</v>
       </c>
@@ -6280,11 +6355,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="236" t="s">
+      <c r="A4" s="288" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="237"/>
-      <c r="C4" s="238"/>
+      <c r="B4" s="289"/>
+      <c r="C4" s="290"/>
       <c r="D4" s="54" t="s">
         <v>524</v>
       </c>
@@ -6306,11 +6381,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="236" t="s">
+      <c r="A5" s="288" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="237"/>
-      <c r="C5" s="238"/>
+      <c r="B5" s="289"/>
+      <c r="C5" s="290"/>
       <c r="D5" s="54" t="s">
         <v>525</v>
       </c>
@@ -6332,9 +6407,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="236"/>
-      <c r="B6" s="237"/>
-      <c r="C6" s="238"/>
+      <c r="A6" s="288"/>
+      <c r="B6" s="289"/>
+      <c r="C6" s="290"/>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
       <c r="F6" s="55"/>
@@ -6344,9 +6419,9 @@
       <c r="J6" s="58"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="236"/>
-      <c r="B7" s="237"/>
-      <c r="C7" s="238"/>
+      <c r="A7" s="288"/>
+      <c r="B7" s="289"/>
+      <c r="C7" s="290"/>
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
       <c r="F7" s="55"/>
@@ -6356,9 +6431,9 @@
       <c r="J7" s="58"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="236"/>
-      <c r="B8" s="237"/>
-      <c r="C8" s="238"/>
+      <c r="A8" s="288"/>
+      <c r="B8" s="289"/>
+      <c r="C8" s="290"/>
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
       <c r="F8" s="55"/>
@@ -6368,9 +6443,9 @@
       <c r="J8" s="58"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="236"/>
-      <c r="B9" s="237"/>
-      <c r="C9" s="238"/>
+      <c r="A9" s="288"/>
+      <c r="B9" s="289"/>
+      <c r="C9" s="290"/>
       <c r="D9" s="54"/>
       <c r="E9" s="54"/>
       <c r="F9" s="55"/>
@@ -6380,9 +6455,9 @@
       <c r="J9" s="58"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="236"/>
-      <c r="B10" s="237"/>
-      <c r="C10" s="238"/>
+      <c r="A10" s="288"/>
+      <c r="B10" s="289"/>
+      <c r="C10" s="290"/>
       <c r="D10" s="54"/>
       <c r="E10" s="54"/>
       <c r="F10" s="55"/>
@@ -6392,9 +6467,9 @@
       <c r="J10" s="58"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="236"/>
-      <c r="B11" s="237"/>
-      <c r="C11" s="238"/>
+      <c r="A11" s="288"/>
+      <c r="B11" s="289"/>
+      <c r="C11" s="290"/>
       <c r="D11" s="54"/>
       <c r="E11" s="54"/>
       <c r="F11" s="55"/>
@@ -6404,9 +6479,9 @@
       <c r="J11" s="58"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="236"/>
-      <c r="B12" s="237"/>
-      <c r="C12" s="238"/>
+      <c r="A12" s="288"/>
+      <c r="B12" s="289"/>
+      <c r="C12" s="290"/>
       <c r="D12" s="54"/>
       <c r="E12" s="54"/>
       <c r="F12" s="55"/>
@@ -6416,9 +6491,9 @@
       <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="236"/>
-      <c r="B13" s="237"/>
-      <c r="C13" s="238"/>
+      <c r="A13" s="288"/>
+      <c r="B13" s="289"/>
+      <c r="C13" s="290"/>
       <c r="D13" s="54"/>
       <c r="E13" s="54"/>
       <c r="F13" s="55"/>
@@ -6428,9 +6503,9 @@
       <c r="J13" s="58"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="236"/>
-      <c r="B14" s="237"/>
-      <c r="C14" s="238"/>
+      <c r="A14" s="288"/>
+      <c r="B14" s="289"/>
+      <c r="C14" s="290"/>
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
       <c r="F14" s="55"/>
@@ -6440,9 +6515,9 @@
       <c r="J14" s="58"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="236"/>
-      <c r="B15" s="237"/>
-      <c r="C15" s="238"/>
+      <c r="A15" s="288"/>
+      <c r="B15" s="289"/>
+      <c r="C15" s="290"/>
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
       <c r="F15" s="55"/>
@@ -6452,9 +6527,9 @@
       <c r="J15" s="58"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="236"/>
-      <c r="B16" s="237"/>
-      <c r="C16" s="238"/>
+      <c r="A16" s="288"/>
+      <c r="B16" s="289"/>
+      <c r="C16" s="290"/>
       <c r="D16" s="54"/>
       <c r="E16" s="54"/>
       <c r="F16" s="55"/>
@@ -6464,9 +6539,9 @@
       <c r="J16" s="58"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="236"/>
-      <c r="B17" s="237"/>
-      <c r="C17" s="238"/>
+      <c r="A17" s="288"/>
+      <c r="B17" s="289"/>
+      <c r="C17" s="290"/>
       <c r="D17" s="54"/>
       <c r="E17" s="54"/>
       <c r="F17" s="55"/>
@@ -6476,9 +6551,9 @@
       <c r="J17" s="58"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="236"/>
-      <c r="B18" s="237"/>
-      <c r="C18" s="238"/>
+      <c r="A18" s="288"/>
+      <c r="B18" s="289"/>
+      <c r="C18" s="290"/>
       <c r="D18" s="54"/>
       <c r="E18" s="54"/>
       <c r="F18" s="55"/>
@@ -6488,9 +6563,9 @@
       <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="236"/>
-      <c r="B19" s="237"/>
-      <c r="C19" s="238"/>
+      <c r="A19" s="288"/>
+      <c r="B19" s="289"/>
+      <c r="C19" s="290"/>
       <c r="D19" s="54"/>
       <c r="E19" s="54"/>
       <c r="F19" s="55"/>
@@ -6500,9 +6575,9 @@
       <c r="J19" s="58"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="236"/>
-      <c r="B20" s="237"/>
-      <c r="C20" s="238"/>
+      <c r="A20" s="288"/>
+      <c r="B20" s="289"/>
+      <c r="C20" s="290"/>
       <c r="D20" s="54"/>
       <c r="E20" s="54"/>
       <c r="F20" s="55"/>
@@ -6512,9 +6587,9 @@
       <c r="J20" s="58"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="236"/>
-      <c r="B21" s="237"/>
-      <c r="C21" s="238"/>
+      <c r="A21" s="288"/>
+      <c r="B21" s="289"/>
+      <c r="C21" s="290"/>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
       <c r="F21" s="55"/>
@@ -6524,9 +6599,9 @@
       <c r="J21" s="58"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="236"/>
-      <c r="B22" s="237"/>
-      <c r="C22" s="238"/>
+      <c r="A22" s="288"/>
+      <c r="B22" s="289"/>
+      <c r="C22" s="290"/>
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
       <c r="F22" s="55"/>
@@ -6536,9 +6611,9 @@
       <c r="J22" s="58"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="236"/>
-      <c r="B23" s="237"/>
-      <c r="C23" s="238"/>
+      <c r="A23" s="288"/>
+      <c r="B23" s="289"/>
+      <c r="C23" s="290"/>
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
       <c r="F23" s="55"/>
@@ -6548,9 +6623,9 @@
       <c r="J23" s="58"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="236"/>
-      <c r="B24" s="237"/>
-      <c r="C24" s="238"/>
+      <c r="A24" s="288"/>
+      <c r="B24" s="289"/>
+      <c r="C24" s="290"/>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="55"/>
@@ -6560,9 +6635,9 @@
       <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="236"/>
-      <c r="B25" s="237"/>
-      <c r="C25" s="238"/>
+      <c r="A25" s="288"/>
+      <c r="B25" s="289"/>
+      <c r="C25" s="290"/>
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
       <c r="F25" s="55"/>
@@ -6572,9 +6647,9 @@
       <c r="J25" s="58"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="236"/>
-      <c r="B26" s="237"/>
-      <c r="C26" s="238"/>
+      <c r="A26" s="288"/>
+      <c r="B26" s="289"/>
+      <c r="C26" s="290"/>
       <c r="D26" s="54"/>
       <c r="E26" s="54"/>
       <c r="F26" s="55"/>
@@ -6584,9 +6659,9 @@
       <c r="J26" s="58"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="236"/>
-      <c r="B27" s="237"/>
-      <c r="C27" s="238"/>
+      <c r="A27" s="288"/>
+      <c r="B27" s="289"/>
+      <c r="C27" s="290"/>
       <c r="D27" s="54"/>
       <c r="E27" s="54"/>
       <c r="F27" s="55"/>
@@ -6596,9 +6671,9 @@
       <c r="J27" s="58"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="236"/>
-      <c r="B28" s="237"/>
-      <c r="C28" s="238"/>
+      <c r="A28" s="288"/>
+      <c r="B28" s="289"/>
+      <c r="C28" s="290"/>
       <c r="D28" s="54"/>
       <c r="E28" s="54"/>
       <c r="F28" s="55"/>
@@ -6608,9 +6683,9 @@
       <c r="J28" s="58"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="236"/>
-      <c r="B29" s="237"/>
-      <c r="C29" s="238"/>
+      <c r="A29" s="288"/>
+      <c r="B29" s="289"/>
+      <c r="C29" s="290"/>
       <c r="D29" s="54"/>
       <c r="E29" s="54"/>
       <c r="F29" s="55"/>
@@ -6620,9 +6695,9 @@
       <c r="J29" s="58"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="236"/>
-      <c r="B30" s="237"/>
-      <c r="C30" s="238"/>
+      <c r="A30" s="288"/>
+      <c r="B30" s="289"/>
+      <c r="C30" s="290"/>
       <c r="D30" s="54"/>
       <c r="E30" s="54"/>
       <c r="F30" s="55"/>
@@ -6632,9 +6707,9 @@
       <c r="J30" s="58"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="236"/>
-      <c r="B31" s="237"/>
-      <c r="C31" s="238"/>
+      <c r="A31" s="288"/>
+      <c r="B31" s="289"/>
+      <c r="C31" s="290"/>
       <c r="D31" s="54"/>
       <c r="E31" s="54"/>
       <c r="F31" s="55"/>
@@ -6644,9 +6719,9 @@
       <c r="J31" s="58"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="236"/>
-      <c r="B32" s="237"/>
-      <c r="C32" s="238"/>
+      <c r="A32" s="288"/>
+      <c r="B32" s="289"/>
+      <c r="C32" s="290"/>
       <c r="D32" s="54"/>
       <c r="E32" s="54"/>
       <c r="F32" s="55"/>
@@ -6656,9 +6731,9 @@
       <c r="J32" s="58"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="236"/>
-      <c r="B33" s="237"/>
-      <c r="C33" s="238"/>
+      <c r="A33" s="288"/>
+      <c r="B33" s="289"/>
+      <c r="C33" s="290"/>
       <c r="D33" s="54"/>
       <c r="E33" s="54"/>
       <c r="F33" s="55"/>
@@ -6668,9 +6743,9 @@
       <c r="J33" s="58"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="241"/>
-      <c r="B34" s="242"/>
-      <c r="C34" s="243"/>
+      <c r="A34" s="281"/>
+      <c r="B34" s="282"/>
+      <c r="C34" s="283"/>
       <c r="D34" s="54"/>
       <c r="E34" s="54"/>
       <c r="F34" s="55"/>
@@ -6680,9 +6755,9 @@
       <c r="J34" s="58"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="241"/>
-      <c r="B35" s="242"/>
-      <c r="C35" s="243"/>
+      <c r="A35" s="281"/>
+      <c r="B35" s="282"/>
+      <c r="C35" s="283"/>
       <c r="D35" s="54"/>
       <c r="E35" s="54"/>
       <c r="F35" s="55"/>
@@ -6692,9 +6767,9 @@
       <c r="J35" s="58"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="241"/>
-      <c r="B36" s="242"/>
-      <c r="C36" s="243"/>
+      <c r="A36" s="281"/>
+      <c r="B36" s="282"/>
+      <c r="C36" s="283"/>
       <c r="D36" s="54"/>
       <c r="E36" s="54"/>
       <c r="F36" s="55"/>
@@ -6704,9 +6779,9 @@
       <c r="J36" s="58"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="241"/>
-      <c r="B37" s="242"/>
-      <c r="C37" s="243"/>
+      <c r="A37" s="281"/>
+      <c r="B37" s="282"/>
+      <c r="C37" s="283"/>
       <c r="D37" s="54"/>
       <c r="E37" s="54"/>
       <c r="F37" s="55"/>
@@ -6716,9 +6791,9 @@
       <c r="J37" s="58"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="244"/>
-      <c r="B38" s="245"/>
-      <c r="C38" s="246"/>
+      <c r="A38" s="291"/>
+      <c r="B38" s="292"/>
+      <c r="C38" s="293"/>
       <c r="D38" s="60"/>
       <c r="E38" s="60"/>
       <c r="F38" s="61"/>
@@ -6729,69 +6804,69 @@
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="251" t="s">
+      <c r="A40" s="284" t="s">
         <v>135</v>
       </c>
-      <c r="B40" s="252"/>
-      <c r="C40" s="252"/>
+      <c r="B40" s="285"/>
+      <c r="C40" s="285"/>
       <c r="D40" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="E40" s="239" t="s">
+      <c r="E40" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="240"/>
+      <c r="F40" s="287"/>
       <c r="G40" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="H40" s="239" t="s">
+      <c r="H40" s="286" t="s">
         <v>27</v>
       </c>
-      <c r="I40" s="240"/>
+      <c r="I40" s="287"/>
       <c r="J40" s="69" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="247" t="s">
+      <c r="A41" s="277" t="s">
         <v>157</v>
       </c>
-      <c r="B41" s="248"/>
-      <c r="C41" s="248"/>
+      <c r="B41" s="278"/>
+      <c r="C41" s="278"/>
       <c r="D41" s="54"/>
-      <c r="E41" s="249"/>
-      <c r="F41" s="250"/>
+      <c r="E41" s="275"/>
+      <c r="F41" s="276"/>
       <c r="G41" s="59"/>
-      <c r="H41" s="249"/>
-      <c r="I41" s="250"/>
+      <c r="H41" s="275"/>
+      <c r="I41" s="276"/>
       <c r="J41" s="70"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="247" t="s">
+      <c r="A42" s="277" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="248"/>
-      <c r="C42" s="248"/>
+      <c r="B42" s="278"/>
+      <c r="C42" s="278"/>
       <c r="D42" s="54"/>
-      <c r="E42" s="249"/>
-      <c r="F42" s="250"/>
+      <c r="E42" s="275"/>
+      <c r="F42" s="276"/>
       <c r="G42" s="59"/>
-      <c r="H42" s="249"/>
-      <c r="I42" s="250"/>
+      <c r="H42" s="275"/>
+      <c r="I42" s="276"/>
       <c r="J42" s="70"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="247" t="s">
+      <c r="A43" s="277" t="s">
         <v>156</v>
       </c>
-      <c r="B43" s="248"/>
-      <c r="C43" s="248"/>
+      <c r="B43" s="278"/>
+      <c r="C43" s="278"/>
       <c r="D43" s="60"/>
-      <c r="E43" s="266"/>
-      <c r="F43" s="267"/>
+      <c r="E43" s="279"/>
+      <c r="F43" s="280"/>
       <c r="G43" s="62"/>
-      <c r="H43" s="266"/>
-      <c r="I43" s="267"/>
+      <c r="H43" s="279"/>
+      <c r="I43" s="280"/>
       <c r="J43" s="71"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6807,78 +6882,78 @@
       <c r="J44" s="24"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="253" t="s">
+      <c r="A45" s="272" t="s">
         <v>137</v>
       </c>
-      <c r="B45" s="254"/>
-      <c r="C45" s="254"/>
-      <c r="D45" s="254"/>
-      <c r="E45" s="254"/>
-      <c r="F45" s="254"/>
-      <c r="G45" s="254"/>
-      <c r="H45" s="254"/>
-      <c r="I45" s="254"/>
-      <c r="J45" s="255"/>
+      <c r="B45" s="273"/>
+      <c r="C45" s="273"/>
+      <c r="D45" s="273"/>
+      <c r="E45" s="273"/>
+      <c r="F45" s="273"/>
+      <c r="G45" s="273"/>
+      <c r="H45" s="273"/>
+      <c r="I45" s="273"/>
+      <c r="J45" s="274"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="256" t="s">
+      <c r="A46" s="250" t="s">
         <v>138</v>
       </c>
-      <c r="B46" s="257"/>
-      <c r="C46" s="257"/>
-      <c r="D46" s="257"/>
-      <c r="E46" s="258"/>
+      <c r="B46" s="251"/>
+      <c r="C46" s="251"/>
+      <c r="D46" s="251"/>
+      <c r="E46" s="252"/>
       <c r="F46" s="72" t="s">
         <v>139</v>
       </c>
       <c r="G46" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="H46" s="259" t="s">
+      <c r="H46" s="253" t="s">
         <v>141</v>
       </c>
-      <c r="I46" s="259"/>
-      <c r="J46" s="260"/>
+      <c r="I46" s="253"/>
+      <c r="J46" s="254"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="261" t="s">
+      <c r="A47" s="255" t="s">
         <v>528</v>
       </c>
-      <c r="B47" s="262"/>
-      <c r="C47" s="262"/>
-      <c r="D47" s="262"/>
-      <c r="E47" s="263"/>
+      <c r="B47" s="256"/>
+      <c r="C47" s="256"/>
+      <c r="D47" s="256"/>
+      <c r="E47" s="257"/>
       <c r="F47" s="55">
         <v>36912</v>
       </c>
       <c r="G47" s="59">
         <v>37642</v>
       </c>
-      <c r="H47" s="264" t="s">
+      <c r="H47" s="258" t="s">
         <v>161</v>
       </c>
-      <c r="I47" s="264"/>
-      <c r="J47" s="265"/>
+      <c r="I47" s="258"/>
+      <c r="J47" s="259"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="268" t="s">
+      <c r="A48" s="269" t="s">
         <v>508</v>
       </c>
-      <c r="B48" s="269"/>
-      <c r="C48" s="269"/>
-      <c r="D48" s="269"/>
-      <c r="E48" s="270"/>
+      <c r="B48" s="270"/>
+      <c r="C48" s="270"/>
+      <c r="D48" s="270"/>
+      <c r="E48" s="271"/>
       <c r="F48" s="61">
         <v>32894</v>
       </c>
       <c r="G48" s="62">
         <v>36546</v>
       </c>
-      <c r="H48" s="264" t="s">
+      <c r="H48" s="258" t="s">
         <v>159</v>
       </c>
-      <c r="I48" s="264"/>
-      <c r="J48" s="265"/>
+      <c r="I48" s="258"/>
+      <c r="J48" s="259"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
@@ -6893,66 +6968,66 @@
       <c r="J49" s="24"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="253" t="s">
+      <c r="A50" s="272" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="254"/>
-      <c r="C50" s="254"/>
-      <c r="D50" s="254"/>
-      <c r="E50" s="254"/>
-      <c r="F50" s="254"/>
-      <c r="G50" s="254"/>
-      <c r="H50" s="254"/>
-      <c r="I50" s="254"/>
-      <c r="J50" s="255"/>
+      <c r="B50" s="273"/>
+      <c r="C50" s="273"/>
+      <c r="D50" s="273"/>
+      <c r="E50" s="273"/>
+      <c r="F50" s="273"/>
+      <c r="G50" s="273"/>
+      <c r="H50" s="273"/>
+      <c r="I50" s="273"/>
+      <c r="J50" s="274"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="256" t="s">
+      <c r="A51" s="250" t="s">
         <v>143</v>
       </c>
-      <c r="B51" s="257"/>
-      <c r="C51" s="257"/>
-      <c r="D51" s="257"/>
-      <c r="E51" s="258"/>
+      <c r="B51" s="251"/>
+      <c r="C51" s="251"/>
+      <c r="D51" s="251"/>
+      <c r="E51" s="252"/>
       <c r="F51" s="72" t="s">
         <v>139</v>
       </c>
       <c r="G51" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="H51" s="259" t="s">
+      <c r="H51" s="253" t="s">
         <v>141</v>
       </c>
-      <c r="I51" s="259"/>
-      <c r="J51" s="260"/>
+      <c r="I51" s="253"/>
+      <c r="J51" s="254"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="261"/>
-      <c r="B52" s="262"/>
-      <c r="C52" s="262"/>
-      <c r="D52" s="262"/>
-      <c r="E52" s="263"/>
+      <c r="A52" s="255"/>
+      <c r="B52" s="256"/>
+      <c r="C52" s="256"/>
+      <c r="D52" s="256"/>
+      <c r="E52" s="257"/>
       <c r="F52" s="55"/>
       <c r="G52" s="59"/>
-      <c r="H52" s="264" t="s">
+      <c r="H52" s="258" t="s">
         <v>161</v>
       </c>
-      <c r="I52" s="264"/>
-      <c r="J52" s="265"/>
+      <c r="I52" s="258"/>
+      <c r="J52" s="259"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="268"/>
-      <c r="B53" s="269"/>
-      <c r="C53" s="269"/>
-      <c r="D53" s="269"/>
-      <c r="E53" s="270"/>
+      <c r="A53" s="269"/>
+      <c r="B53" s="270"/>
+      <c r="C53" s="270"/>
+      <c r="D53" s="270"/>
+      <c r="E53" s="271"/>
       <c r="F53" s="61"/>
       <c r="G53" s="62"/>
-      <c r="H53" s="264" t="s">
+      <c r="H53" s="258" t="s">
         <v>159</v>
       </c>
-      <c r="I53" s="264"/>
-      <c r="J53" s="265"/>
+      <c r="I53" s="258"/>
+      <c r="J53" s="259"/>
     </row>
     <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
@@ -6967,221 +7042,267 @@
       <c r="J54" s="24"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="253" t="s">
+      <c r="A55" s="272" t="s">
         <v>144</v>
       </c>
-      <c r="B55" s="254"/>
-      <c r="C55" s="254"/>
-      <c r="D55" s="254"/>
-      <c r="E55" s="254"/>
-      <c r="F55" s="254"/>
-      <c r="G55" s="254"/>
-      <c r="H55" s="254"/>
-      <c r="I55" s="254"/>
-      <c r="J55" s="255"/>
+      <c r="B55" s="273"/>
+      <c r="C55" s="273"/>
+      <c r="D55" s="273"/>
+      <c r="E55" s="273"/>
+      <c r="F55" s="273"/>
+      <c r="G55" s="273"/>
+      <c r="H55" s="273"/>
+      <c r="I55" s="273"/>
+      <c r="J55" s="274"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="280" t="s">
+      <c r="A56" s="243" t="s">
         <v>145</v>
       </c>
-      <c r="B56" s="281"/>
-      <c r="C56" s="281"/>
-      <c r="D56" s="281"/>
-      <c r="E56" s="281"/>
-      <c r="F56" s="281"/>
-      <c r="G56" s="281"/>
-      <c r="H56" s="285"/>
-      <c r="I56" s="285"/>
-      <c r="J56" s="286"/>
+      <c r="B56" s="241"/>
+      <c r="C56" s="241"/>
+      <c r="D56" s="241"/>
+      <c r="E56" s="241"/>
+      <c r="F56" s="241"/>
+      <c r="G56" s="241"/>
+      <c r="H56" s="238"/>
+      <c r="I56" s="238"/>
+      <c r="J56" s="239"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="273"/>
-      <c r="B57" s="271"/>
-      <c r="C57" s="271"/>
-      <c r="D57" s="271"/>
-      <c r="E57" s="271"/>
-      <c r="F57" s="271"/>
-      <c r="G57" s="271"/>
-      <c r="H57" s="271"/>
-      <c r="I57" s="271"/>
-      <c r="J57" s="272"/>
+      <c r="A57" s="262"/>
+      <c r="B57" s="260"/>
+      <c r="C57" s="260"/>
+      <c r="D57" s="260"/>
+      <c r="E57" s="260"/>
+      <c r="F57" s="260"/>
+      <c r="G57" s="260"/>
+      <c r="H57" s="260"/>
+      <c r="I57" s="260"/>
+      <c r="J57" s="261"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="273" t="s">
+      <c r="A58" s="262" t="s">
         <v>146</v>
       </c>
-      <c r="B58" s="271"/>
-      <c r="C58" s="271"/>
-      <c r="D58" s="271"/>
-      <c r="E58" s="271"/>
-      <c r="F58" s="271"/>
-      <c r="G58" s="274" t="s">
+      <c r="B58" s="260"/>
+      <c r="C58" s="260"/>
+      <c r="D58" s="260"/>
+      <c r="E58" s="260"/>
+      <c r="F58" s="260"/>
+      <c r="G58" s="263" t="s">
         <v>147</v>
       </c>
-      <c r="H58" s="274"/>
-      <c r="I58" s="274"/>
-      <c r="J58" s="275"/>
+      <c r="H58" s="263"/>
+      <c r="I58" s="263"/>
+      <c r="J58" s="264"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="276"/>
-      <c r="B59" s="277"/>
-      <c r="C59" s="277"/>
-      <c r="D59" s="277"/>
-      <c r="E59" s="277"/>
-      <c r="F59" s="277"/>
-      <c r="G59" s="278"/>
-      <c r="H59" s="278"/>
-      <c r="I59" s="278"/>
-      <c r="J59" s="279"/>
+      <c r="A59" s="265"/>
+      <c r="B59" s="266"/>
+      <c r="C59" s="266"/>
+      <c r="D59" s="266"/>
+      <c r="E59" s="266"/>
+      <c r="F59" s="266"/>
+      <c r="G59" s="267"/>
+      <c r="H59" s="267"/>
+      <c r="I59" s="267"/>
+      <c r="J59" s="268"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="273"/>
-      <c r="B60" s="271"/>
-      <c r="C60" s="271"/>
-      <c r="D60" s="271"/>
-      <c r="E60" s="271"/>
-      <c r="F60" s="271"/>
-      <c r="G60" s="271"/>
-      <c r="H60" s="271"/>
-      <c r="I60" s="271"/>
-      <c r="J60" s="272"/>
+      <c r="A60" s="262"/>
+      <c r="B60" s="260"/>
+      <c r="C60" s="260"/>
+      <c r="D60" s="260"/>
+      <c r="E60" s="260"/>
+      <c r="F60" s="260"/>
+      <c r="G60" s="260"/>
+      <c r="H60" s="260"/>
+      <c r="I60" s="260"/>
+      <c r="J60" s="261"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="273" t="s">
+      <c r="A61" s="262" t="s">
         <v>148</v>
       </c>
-      <c r="B61" s="271"/>
-      <c r="C61" s="271"/>
-      <c r="D61" s="271"/>
-      <c r="E61" s="271"/>
-      <c r="F61" s="271"/>
-      <c r="G61" s="271"/>
-      <c r="H61" s="271"/>
-      <c r="I61" s="271"/>
-      <c r="J61" s="272"/>
+      <c r="B61" s="260"/>
+      <c r="C61" s="260"/>
+      <c r="D61" s="260"/>
+      <c r="E61" s="260"/>
+      <c r="F61" s="260"/>
+      <c r="G61" s="260"/>
+      <c r="H61" s="260"/>
+      <c r="I61" s="260"/>
+      <c r="J61" s="261"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="287"/>
-      <c r="B62" s="281"/>
-      <c r="C62" s="281"/>
-      <c r="D62" s="281"/>
-      <c r="E62" s="281"/>
-      <c r="F62" s="281"/>
-      <c r="G62" s="281"/>
-      <c r="H62" s="281"/>
-      <c r="I62" s="281"/>
-      <c r="J62" s="288"/>
+      <c r="A62" s="240"/>
+      <c r="B62" s="241"/>
+      <c r="C62" s="241"/>
+      <c r="D62" s="241"/>
+      <c r="E62" s="241"/>
+      <c r="F62" s="241"/>
+      <c r="G62" s="241"/>
+      <c r="H62" s="241"/>
+      <c r="I62" s="241"/>
+      <c r="J62" s="242"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="287"/>
-      <c r="B63" s="281"/>
-      <c r="C63" s="281"/>
-      <c r="D63" s="281"/>
-      <c r="E63" s="281"/>
-      <c r="F63" s="281"/>
-      <c r="G63" s="281"/>
-      <c r="H63" s="281"/>
-      <c r="I63" s="281"/>
-      <c r="J63" s="288"/>
+      <c r="A63" s="240"/>
+      <c r="B63" s="241"/>
+      <c r="C63" s="241"/>
+      <c r="D63" s="241"/>
+      <c r="E63" s="241"/>
+      <c r="F63" s="241"/>
+      <c r="G63" s="241"/>
+      <c r="H63" s="241"/>
+      <c r="I63" s="241"/>
+      <c r="J63" s="242"/>
     </row>
     <row r="64" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="280" t="s">
+      <c r="A64" s="243" t="s">
         <v>149</v>
       </c>
-      <c r="B64" s="281"/>
-      <c r="C64" s="281"/>
-      <c r="D64" s="281"/>
-      <c r="E64" s="281"/>
-      <c r="F64" s="281"/>
-      <c r="G64" s="281"/>
-      <c r="H64" s="285" t="s">
+      <c r="B64" s="241"/>
+      <c r="C64" s="241"/>
+      <c r="D64" s="241"/>
+      <c r="E64" s="241"/>
+      <c r="F64" s="241"/>
+      <c r="G64" s="241"/>
+      <c r="H64" s="238" t="s">
         <v>483</v>
       </c>
-      <c r="I64" s="285"/>
-      <c r="J64" s="286"/>
+      <c r="I64" s="238"/>
+      <c r="J64" s="239"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="280" t="s">
+      <c r="A65" s="243" t="s">
         <v>150</v>
       </c>
-      <c r="B65" s="281"/>
-      <c r="C65" s="281"/>
-      <c r="D65" s="281"/>
-      <c r="E65" s="281"/>
-      <c r="F65" s="281"/>
-      <c r="G65" s="281"/>
-      <c r="H65" s="285" t="s">
+      <c r="B65" s="241"/>
+      <c r="C65" s="241"/>
+      <c r="D65" s="241"/>
+      <c r="E65" s="241"/>
+      <c r="F65" s="241"/>
+      <c r="G65" s="241"/>
+      <c r="H65" s="238" t="s">
         <v>483</v>
       </c>
-      <c r="I65" s="285"/>
-      <c r="J65" s="286"/>
+      <c r="I65" s="238"/>
+      <c r="J65" s="239"/>
     </row>
     <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="289"/>
-      <c r="B66" s="290"/>
-      <c r="C66" s="290"/>
-      <c r="D66" s="290"/>
-      <c r="E66" s="290"/>
-      <c r="F66" s="290"/>
-      <c r="G66" s="290"/>
-      <c r="H66" s="290"/>
-      <c r="I66" s="290"/>
-      <c r="J66" s="291"/>
+      <c r="A66" s="244"/>
+      <c r="B66" s="245"/>
+      <c r="C66" s="245"/>
+      <c r="D66" s="245"/>
+      <c r="E66" s="245"/>
+      <c r="F66" s="245"/>
+      <c r="G66" s="245"/>
+      <c r="H66" s="245"/>
+      <c r="I66" s="245"/>
+      <c r="J66" s="246"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="292" t="s">
+      <c r="A67" s="247" t="s">
         <v>151</v>
       </c>
-      <c r="B67" s="293"/>
-      <c r="C67" s="293"/>
-      <c r="D67" s="293"/>
+      <c r="B67" s="248"/>
+      <c r="C67" s="248"/>
+      <c r="D67" s="248"/>
       <c r="E67" s="106" t="s">
         <v>483</v>
       </c>
-      <c r="F67" s="294" t="s">
+      <c r="F67" s="249" t="s">
         <v>152</v>
       </c>
-      <c r="G67" s="294"/>
-      <c r="H67" s="294"/>
-      <c r="I67" s="294"/>
+      <c r="G67" s="249"/>
+      <c r="H67" s="249"/>
+      <c r="I67" s="249"/>
       <c r="J67" s="107" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="282" t="s">
+      <c r="A68" s="235" t="s">
         <v>153</v>
       </c>
-      <c r="B68" s="283"/>
-      <c r="C68" s="283"/>
-      <c r="D68" s="283"/>
+      <c r="B68" s="236"/>
+      <c r="C68" s="236"/>
+      <c r="D68" s="236"/>
       <c r="E68" s="108" t="s">
         <v>483</v>
       </c>
-      <c r="F68" s="284" t="s">
+      <c r="F68" s="237" t="s">
         <v>154</v>
       </c>
-      <c r="G68" s="284"/>
-      <c r="H68" s="284"/>
-      <c r="I68" s="284"/>
+      <c r="G68" s="237"/>
+      <c r="H68" s="237"/>
+      <c r="I68" s="237"/>
       <c r="J68" s="109" t="s">
         <v>483</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="H48:J48"/>
     <mergeCell ref="A51:E51"/>
     <mergeCell ref="H51:J51"/>
     <mergeCell ref="A52:E52"/>
@@ -7198,64 +7319,18 @@
     <mergeCell ref="H53:J53"/>
     <mergeCell ref="A55:J55"/>
     <mergeCell ref="A56:G56"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="H64:J64"/>
   </mergeCells>
   <dataValidations count="41">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please check the Date entered. Date format has to be DD-MMM-YY, e.g. 31-Jan-08..." promptTitle="Date Format" prompt="Please Enter Date in DD-MM-YYYY Format !!!" sqref="F2:G38" xr:uid="{1C93B122-105A-4AFF-BF81-27E0912B3B72}">
@@ -7395,7 +7470,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{24CB796B-9142-465D-A1BA-C635846241D1}">
           <x14:formula1>
-            <xm:f>'Data Values'!$D$2:$D$11</xm:f>
+            <xm:f>'Data Values'!$D$2:$D$39</xm:f>
           </x14:formula1>
           <xm:sqref>A2:C33</xm:sqref>
         </x14:dataValidation>
@@ -7421,7 +7496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11292C7-7A77-410F-B664-D642BCB1ABD9}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -7434,39 +7509,39 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="74"/>
-      <c r="B1" s="295" t="s">
+      <c r="B1" s="296" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
-      <c r="M1" s="295"/>
-      <c r="N1" s="295"/>
-      <c r="O1" s="295"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
+      <c r="N1" s="296"/>
+      <c r="O1" s="296"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="74"/>
-      <c r="B2" s="295"/>
-      <c r="C2" s="295"/>
-      <c r="D2" s="295"/>
-      <c r="E2" s="295"/>
-      <c r="F2" s="295"/>
-      <c r="G2" s="295"/>
-      <c r="H2" s="295"/>
-      <c r="I2" s="295"/>
-      <c r="J2" s="295"/>
-      <c r="K2" s="295"/>
-      <c r="L2" s="295"/>
-      <c r="M2" s="295"/>
-      <c r="N2" s="295"/>
-      <c r="O2" s="295"/>
+      <c r="B2" s="296"/>
+      <c r="C2" s="296"/>
+      <c r="D2" s="296"/>
+      <c r="E2" s="296"/>
+      <c r="F2" s="296"/>
+      <c r="G2" s="296"/>
+      <c r="H2" s="296"/>
+      <c r="I2" s="296"/>
+      <c r="J2" s="296"/>
+      <c r="K2" s="296"/>
+      <c r="L2" s="296"/>
+      <c r="M2" s="296"/>
+      <c r="N2" s="296"/>
+      <c r="O2" s="296"/>
     </row>
     <row r="3" spans="1:15" ht="36" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
@@ -7593,7 +7668,7 @@
       <c r="L6" s="85"/>
       <c r="M6" s="85"/>
       <c r="N6" s="86" t="str">
-        <f t="shared" ref="N5:N48" si="0">IF(OR(L6="",M6=""),"",DiffDate(L6,M6))</f>
+        <f t="shared" ref="N6:N48" si="0">IF(OR(L6="",M6=""),"",DiffDate(L6,M6))</f>
         <v/>
       </c>
       <c r="O6" s="87"/>
@@ -8541,11 +8616,11 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="74"/>
-      <c r="B50" s="296" t="s">
+      <c r="B50" s="297" t="s">
         <v>176</v>
       </c>
-      <c r="C50" s="296"/>
-      <c r="D50" s="296"/>
+      <c r="C50" s="297"/>
+      <c r="D50" s="297"/>
       <c r="E50" s="74"/>
       <c r="F50" s="74"/>
       <c r="G50" s="74"/>
@@ -8615,7 +8690,7 @@
   <dimension ref="A1:L263"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D3" sqref="D3:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8930,6 +9005,9 @@
       <c r="B12" t="s">
         <v>114</v>
       </c>
+      <c r="D12" t="s">
+        <v>531</v>
+      </c>
       <c r="G12" t="s">
         <v>187</v>
       </c>
@@ -8947,6 +9025,9 @@
       <c r="B13" t="s">
         <v>115</v>
       </c>
+      <c r="D13" t="s">
+        <v>532</v>
+      </c>
       <c r="G13" t="s">
         <v>188</v>
       </c>
@@ -8964,6 +9045,9 @@
       <c r="B14" t="s">
         <v>116</v>
       </c>
+      <c r="D14" t="s">
+        <v>533</v>
+      </c>
       <c r="G14" t="s">
         <v>189</v>
       </c>
@@ -8975,6 +9059,9 @@
       <c r="A15" t="s">
         <v>76</v>
       </c>
+      <c r="D15" t="s">
+        <v>534</v>
+      </c>
       <c r="G15" t="s">
         <v>190</v>
       </c>
@@ -8986,6 +9073,9 @@
       <c r="A16" t="s">
         <v>77</v>
       </c>
+      <c r="D16" t="s">
+        <v>535</v>
+      </c>
       <c r="G16" t="s">
         <v>191</v>
       </c>
@@ -8997,6 +9087,9 @@
       <c r="A17" t="s">
         <v>78</v>
       </c>
+      <c r="D17" t="s">
+        <v>536</v>
+      </c>
       <c r="G17" t="s">
         <v>192</v>
       </c>
@@ -9011,6 +9104,9 @@
       <c r="B18" s="66" t="s">
         <v>130</v>
       </c>
+      <c r="D18" t="s">
+        <v>537</v>
+      </c>
       <c r="G18" t="s">
         <v>193</v>
       </c>
@@ -9025,6 +9121,9 @@
       <c r="B19" t="s">
         <v>109</v>
       </c>
+      <c r="D19" t="s">
+        <v>538</v>
+      </c>
       <c r="G19" t="s">
         <v>194</v>
       </c>
@@ -9039,6 +9138,9 @@
       <c r="B20" t="s">
         <v>110</v>
       </c>
+      <c r="D20" t="s">
+        <v>539</v>
+      </c>
       <c r="G20" t="s">
         <v>195</v>
       </c>
@@ -9053,6 +9155,9 @@
       <c r="B21" t="s">
         <v>111</v>
       </c>
+      <c r="D21" t="s">
+        <v>540</v>
+      </c>
       <c r="G21" t="s">
         <v>196</v>
       </c>
@@ -9064,6 +9169,9 @@
       <c r="A22" t="s">
         <v>83</v>
       </c>
+      <c r="D22" t="s">
+        <v>541</v>
+      </c>
       <c r="G22" t="s">
         <v>197</v>
       </c>
@@ -9075,6 +9183,9 @@
       <c r="A23" t="s">
         <v>84</v>
       </c>
+      <c r="D23" t="s">
+        <v>542</v>
+      </c>
       <c r="G23" t="s">
         <v>198</v>
       </c>
@@ -9086,6 +9197,9 @@
       <c r="A24" t="s">
         <v>85</v>
       </c>
+      <c r="D24" t="s">
+        <v>543</v>
+      </c>
       <c r="G24" t="s">
         <v>199</v>
       </c>
@@ -9097,6 +9211,9 @@
       <c r="A25" t="s">
         <v>86</v>
       </c>
+      <c r="D25" t="s">
+        <v>544</v>
+      </c>
       <c r="G25" t="s">
         <v>200</v>
       </c>
@@ -9108,6 +9225,9 @@
       <c r="A26" t="s">
         <v>87</v>
       </c>
+      <c r="D26" t="s">
+        <v>545</v>
+      </c>
       <c r="G26" t="s">
         <v>201</v>
       </c>
@@ -9119,6 +9239,9 @@
       <c r="A27" t="s">
         <v>88</v>
       </c>
+      <c r="D27" t="s">
+        <v>546</v>
+      </c>
       <c r="G27" t="s">
         <v>202</v>
       </c>
@@ -9127,6 +9250,9 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>547</v>
+      </c>
       <c r="G28" t="s">
         <v>203</v>
       </c>
@@ -9135,6 +9261,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>548</v>
+      </c>
       <c r="G29" t="s">
         <v>204</v>
       </c>
@@ -9143,6 +9272,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>549</v>
+      </c>
       <c r="G30" t="s">
         <v>205</v>
       </c>
@@ -9151,6 +9283,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>550</v>
+      </c>
       <c r="G31" t="s">
         <v>206</v>
       </c>
@@ -9159,6 +9294,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>551</v>
+      </c>
       <c r="G32" t="s">
         <v>207</v>
       </c>
@@ -9166,7 +9304,10 @@
         <v>468</v>
       </c>
     </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>552</v>
+      </c>
       <c r="G33" t="s">
         <v>208</v>
       </c>
@@ -9174,7 +9315,10 @@
         <v>469</v>
       </c>
     </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>553</v>
+      </c>
       <c r="G34" t="s">
         <v>209</v>
       </c>
@@ -9182,7 +9326,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>554</v>
+      </c>
       <c r="G35" t="s">
         <v>210</v>
       </c>
@@ -9190,67 +9337,79 @@
         <v>471</v>
       </c>
     </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>555</v>
+      </c>
       <c r="G36" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>542</v>
+      </c>
       <c r="G37" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>543</v>
+      </c>
       <c r="G38" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>544</v>
+      </c>
       <c r="G39" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
         <v>223</v>
       </c>
